--- a/data_indexpoints_tidy/tallmateriale_952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_952.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E961C2B-D791-416D-9272-4E73995F6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC4D41-962D-4188-A50B-B6F9E1E45910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="by_2_aar_glid_indeks" sheetId="6" r:id="rId6"/>
     <sheet name="by_1_aar_glid_indeks" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">by_3_aar_glid_indeks!$A$1:$M$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">punkt_3_aar_glid_indeks!$A$1:$J$586</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1068,9 +1072,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1108,9 +1112,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1143,26 +1147,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,26 +1182,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -40921,11 +40891,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J586"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -59681,6 +59662,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J586" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -59689,11 +59671,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -61255,6 +61251,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M38" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -63329,7 +63326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data_indexpoints_tidy/tallmateriale_952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_952.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349241A5-219A-4124-A98F-5BCB12CF4E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B8DC4-EAE4-4499-9268-9FC2FE9B3DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="punkt_3_aar_glid_indeks" sheetId="5" r:id="rId5"/>
     <sheet name="by_glid_indeks" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">by_glid_indeks!$A$1:$M$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">punkt_3_aar_glid_indeks!$A$1:$J$771</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1517,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -54215,11 +54219,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J771"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -78895,19 +78910,35 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J771" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -78951,7 +78982,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.9926191495103478</v>
       </c>
@@ -78992,7 +79023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.99035669665966386</v>
       </c>
@@ -79033,7 +79064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.98932397351401913</v>
       </c>
@@ -79074,7 +79105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.99179003937932475</v>
       </c>
@@ -79115,7 +79146,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.98296872276124991</v>
       </c>
@@ -79156,7 +79187,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.98178696788075992</v>
       </c>
@@ -79197,7 +79228,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.9769813952909121</v>
       </c>
@@ -79238,7 +79269,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.97611933497008097</v>
       </c>
@@ -79279,7 +79310,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.97392964777468172</v>
       </c>
@@ -79320,7 +79351,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.97466224590049533</v>
       </c>
@@ -79361,7 +79392,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.97752005789619734</v>
       </c>
@@ -79402,7 +79433,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.97971618770675173</v>
       </c>
@@ -79443,7 +79474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.98091640276879333</v>
       </c>
@@ -79484,7 +79515,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.98249031478159399</v>
       </c>
@@ -79525,7 +79556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.98346625809703969</v>
       </c>
@@ -79566,7 +79597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.96424231833382001</v>
       </c>
@@ -79607,7 +79638,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.94660420874752405</v>
       </c>
@@ -79648,7 +79679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.93539765202260239</v>
       </c>
@@ -79689,7 +79720,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.93777432500330149</v>
       </c>
@@ -79730,7 +79761,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.94366689346558963</v>
       </c>
@@ -79771,7 +79802,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.94265169467600352</v>
       </c>
@@ -79812,7 +79843,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.94144825325203141</v>
       </c>
@@ -79853,7 +79884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.93811116055840704</v>
       </c>
@@ -79894,7 +79925,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.94260782939214893</v>
       </c>
@@ -79935,7 +79966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.94015969917488995</v>
       </c>
@@ -79976,7 +80007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.9253447611868143</v>
       </c>
@@ -80017,7 +80048,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.9193026092184412</v>
       </c>
@@ -80058,7 +80089,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.93701247280307154</v>
       </c>
@@ -80099,7 +80130,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.94717600155156234</v>
       </c>
@@ -80140,7 +80171,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.95184381976828425</v>
       </c>
@@ -80181,7 +80212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.95432705145769481</v>
       </c>
@@ -80222,7 +80253,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.95289332800397308</v>
       </c>
@@ -80263,7 +80294,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.9544984749141181</v>
       </c>
@@ -80304,7 +80335,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.94751900726894878</v>
       </c>
@@ -80345,7 +80376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.9492780979654557</v>
       </c>
@@ -80386,7 +80417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.95874684245248065</v>
       </c>
@@ -80427,7 +80458,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.96005583419870943</v>
       </c>
@@ -80468,7 +80499,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.96588726059734131</v>
       </c>
@@ -80509,7 +80540,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.96768026650166572</v>
       </c>
@@ -80550,7 +80581,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.97576206410283362</v>
       </c>
@@ -80591,7 +80622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.98338431650141012</v>
       </c>
@@ -80632,7 +80663,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.99333193006962239</v>
       </c>
@@ -80673,7 +80704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.99369645782625693</v>
       </c>
@@ -80714,7 +80745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.98875402407521584</v>
       </c>
@@ -80755,7 +80786,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.98899706770821949</v>
       </c>
@@ -80796,7 +80827,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.98792857532619383</v>
       </c>
@@ -80837,7 +80868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.99241802924607625</v>
       </c>
@@ -80878,7 +80909,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.99363700438127489</v>
       </c>
@@ -80919,7 +80950,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.99518492522671198</v>
       </c>
@@ -80960,7 +80991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.002215909178211</v>
       </c>
@@ -81001,7 +81032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.008575007890856</v>
       </c>
@@ -81042,7 +81073,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.0102537033782779</v>
       </c>
@@ -81083,7 +81114,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.020346592901082</v>
       </c>
@@ -81124,7 +81155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.019286901353309</v>
       </c>
@@ -81165,7 +81196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.023757120393715</v>
       </c>
@@ -81206,7 +81237,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.0276063486171709</v>
       </c>
@@ -81247,7 +81278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.031005501105174</v>
       </c>
@@ -81288,7 +81319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.032733836240185</v>
       </c>
@@ -81329,7 +81360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.035904410030285</v>
       </c>
@@ -81370,7 +81401,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.037504999375235</v>
       </c>
@@ -81411,7 +81442,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.0381428728233839</v>
       </c>
@@ -81452,7 +81483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.037265265592936</v>
       </c>
@@ -81493,7 +81524,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.0365540121370591</v>
       </c>
@@ -81534,7 +81565,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.0308311994395809</v>
       </c>
@@ -81575,7 +81606,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.0425172485379319</v>
       </c>
@@ -81616,7 +81647,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.0449882699339359</v>
       </c>
@@ -81657,7 +81688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.0424770957456539</v>
       </c>
@@ -81698,7 +81729,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.045051354957202</v>
       </c>
@@ -81739,7 +81770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.046398971830419</v>
       </c>
@@ -81780,7 +81811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.0472213665747021</v>
       </c>
@@ -81821,7 +81852,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.0497071026300191</v>
       </c>
@@ -81862,7 +81893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.050485227990372</v>
       </c>
@@ -81903,7 +81934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.0520339469660409</v>
       </c>
@@ -81944,7 +81975,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.98796092760701082</v>
       </c>
@@ -81985,7 +82016,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.9874850176692227</v>
       </c>
@@ -82026,7 +82057,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.98745435958793359</v>
       </c>
@@ -82067,7 +82098,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.97784414805808939</v>
       </c>
@@ -82108,7 +82139,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.96571449717396984</v>
       </c>
@@ -82149,7 +82180,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.95977136159576504</v>
       </c>
@@ -82190,7 +82221,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.9585237451275026</v>
       </c>
@@ -82231,7 +82262,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.9602778582992354</v>
       </c>
@@ -82272,7 +82303,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.95871124898397408</v>
       </c>
@@ -82313,7 +82344,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.95927223161163733</v>
       </c>
@@ -82354,7 +82385,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.96014053153111556</v>
       </c>
@@ -82395,7 +82426,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.95775149054888564</v>
       </c>
@@ -82436,7 +82467,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.96494711909871478</v>
       </c>
@@ -82477,7 +82508,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.95713994499461685</v>
       </c>
@@ -82518,7 +82549,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.95577861500109296</v>
       </c>
@@ -82559,7 +82590,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.96260971880408619</v>
       </c>
@@ -82600,7 +82631,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.95940254177391293</v>
       </c>
@@ -82641,7 +82672,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.95577949589101419</v>
       </c>
@@ -82682,7 +82713,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.95729069384192467</v>
       </c>
@@ -82723,7 +82754,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.95820146443962262</v>
       </c>
@@ -82764,7 +82795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.9583835740335892</v>
       </c>
@@ -82805,7 +82836,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.95977388505354155</v>
       </c>
@@ -82846,7 +82877,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.95895773129867445</v>
       </c>
@@ -82887,7 +82918,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.95902340651899243</v>
       </c>
@@ -82928,7 +82959,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.95853028579694377</v>
       </c>
@@ -82969,7 +83000,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.9542375752946668</v>
       </c>
@@ -83010,7 +83041,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.9425734094107816</v>
       </c>
@@ -83051,7 +83082,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.95258634786572349</v>
       </c>
@@ -83092,7 +83123,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.96130203904486422</v>
       </c>
@@ -83133,7 +83164,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.96819201318969061</v>
       </c>
@@ -83174,7 +83205,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0.96951897501222728</v>
       </c>
@@ -83215,7 +83246,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.96647703466966417</v>
       </c>
@@ -83256,7 +83287,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.96820462459615386</v>
       </c>
@@ -83297,7 +83328,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.96898670455587577</v>
       </c>
@@ -83338,7 +83369,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.96916291872837779</v>
       </c>
@@ -83379,7 +83410,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.97402349298655655</v>
       </c>
@@ -83420,7 +83451,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.97613944512852124</v>
       </c>
@@ -83461,7 +83492,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.98310629702507635</v>
       </c>
@@ -83502,7 +83533,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.98685188474469876</v>
       </c>
@@ -83543,7 +83574,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.99158427183033215</v>
       </c>
@@ -83584,7 +83615,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.99494287940642079</v>
       </c>
@@ -83625,7 +83656,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.0117765989346501</v>
       </c>
@@ -83666,7 +83697,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.014307553414969</v>
       </c>
@@ -83707,7 +83738,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.013836011531186</v>
       </c>
@@ -83748,7 +83779,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.0156386917875011</v>
       </c>
@@ -83789,7 +83820,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1.017786847486633</v>
       </c>
@@ -83830,7 +83861,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1.018922636989477</v>
       </c>
@@ -83871,7 +83902,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1.019725567160537</v>
       </c>
@@ -83912,7 +83943,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.0215660834656941</v>
       </c>
@@ -83953,7 +83984,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.0245360144027711</v>
       </c>
@@ -83994,7 +84025,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1.027377233660252</v>
       </c>
@@ -84035,7 +84066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.025492093258632</v>
       </c>
@@ -84076,7 +84107,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.0311432645495431</v>
       </c>
@@ -84117,7 +84148,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1.0319625872458349</v>
       </c>
@@ -84158,7 +84189,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.033504698878722</v>
       </c>
@@ -84199,7 +84230,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.0367619543552731</v>
       </c>
@@ -84240,7 +84271,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.038713423771024</v>
       </c>
@@ -84281,7 +84312,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1.0396734489755519</v>
       </c>
@@ -84322,7 +84353,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1.0424941775764951</v>
       </c>
@@ -84363,7 +84394,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1.043846712690732</v>
       </c>
@@ -84404,7 +84435,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1.045080553779683</v>
       </c>
@@ -86455,6 +86486,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M184" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="36_months"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_indexpoints_tidy/tallmateriale_952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_952.xlsx
@@ -2550,6 +2550,9 @@
       <c r="M9">
         <v>2.45</v>
       </c>
+      <c r="N9">
+        <v>-1.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2884,6 +2887,9 @@
       <c r="M17">
         <v>0.82</v>
       </c>
+      <c r="N17">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4009,6 +4015,9 @@
       <c r="M41">
         <v>3.81</v>
       </c>
+      <c r="N41">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4388,6 +4397,9 @@
       <c r="M49">
         <v>5.37</v>
       </c>
+      <c r="N49">
+        <v>9.15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4827,6 +4839,9 @@
       <c r="M57">
         <v>0.77</v>
       </c>
+      <c r="N57">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5266,6 +5281,9 @@
       <c r="M65">
         <v>6.68</v>
       </c>
+      <c r="N65">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5603,6 +5621,9 @@
       <c r="H73">
         <v>7.55</v>
       </c>
+      <c r="N73">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6015,6 +6036,9 @@
       <c r="M81">
         <v>4.26</v>
       </c>
+      <c r="N81">
+        <v>4.19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6445,6 +6469,9 @@
       <c r="M89">
         <v>9.59</v>
       </c>
+      <c r="N89">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6884,6 +6911,9 @@
       <c r="M97">
         <v>3.05</v>
       </c>
+      <c r="N97">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7618,6 +7648,9 @@
       <c r="M113">
         <v>5.02</v>
       </c>
+      <c r="N113">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8710,6 +8743,9 @@
       <c r="M137">
         <v>-2.39</v>
       </c>
+      <c r="N137">
+        <v>-4.68</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9137,6 +9173,9 @@
       <c r="M145">
         <v>3.43</v>
       </c>
+      <c r="N145">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9567,6 +9606,9 @@
       <c r="M153">
         <v>0.33</v>
       </c>
+      <c r="N153">
+        <v>-1.19</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9892,6 +9934,9 @@
       <c r="M161">
         <v>-0.8</v>
       </c>
+      <c r="N161">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10977,6 +11022,9 @@
       </c>
       <c r="M185">
         <v>3.73</v>
+      </c>
+      <c r="N185">
+        <v>2.99</v>
       </c>
     </row>
     <row r="186">
@@ -11574,7 +11622,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>1.06618608272215</v>
+        <v>1.134995011591408</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -11602,10 +11650,10 @@
         </is>
       </c>
       <c r="M4">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="N4">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="5">
@@ -11628,7 +11676,7 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <v>1.384662945926073</v>
+        <v>1.375267625400981</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -11682,7 +11730,7 @@
         <v>22</v>
       </c>
       <c r="G6">
-        <v>1.210898249772255</v>
+        <v>1.186295147166133</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -11710,10 +11758,10 @@
         </is>
       </c>
       <c r="M6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7">
@@ -11736,7 +11784,7 @@
         <v>22</v>
       </c>
       <c r="G7">
-        <v>0.6463575761005473</v>
+        <v>0.6409135732270383</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -11790,7 +11838,7 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>0.4507411636199402</v>
+        <v>0.4481663284713368</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -11832,19 +11880,19 @@
         <v>2025</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E9">
-        <v>1.0196</v>
+        <v>1.0207</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
-        <v>0.5856470335182625</v>
+        <v>0.5877296743816052</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -11863,19 +11911,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>okt</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>jan-sep</t>
+          <t>jan-okt</t>
         </is>
       </c>
       <c r="M9">
         <v>0.9</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
@@ -11952,7 +12000,7 @@
         <v>23</v>
       </c>
       <c r="G11">
-        <v>2.237432199255246</v>
+        <v>2.268063160332799</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -12006,7 +12054,7 @@
         <v>23</v>
       </c>
       <c r="G12">
-        <v>2.630464691303105</v>
+        <v>2.654339127280958</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -12060,7 +12108,7 @@
         <v>23</v>
       </c>
       <c r="G13">
-        <v>2.94415822421269</v>
+        <v>2.95821814173051</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -12114,7 +12162,7 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <v>3.090448501654414</v>
+        <v>3.103550006619109</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -12168,7 +12216,7 @@
         <v>23</v>
       </c>
       <c r="G15">
-        <v>3.16221709609279</v>
+        <v>3.17499442023587</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -12209,7 +12257,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15977,55 +16025,55 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.9879609276070108</v>
+        <v>1.074165159454814</v>
       </c>
       <c r="B84">
-        <v>-1.203907239298918</v>
+        <v>7.416515945481383</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>9.708715062397884</v>
+        <v>8.099360170069106</v>
       </c>
       <c r="E84">
-        <v>7.210987530330344</v>
+        <v>9.777962447581537</v>
       </c>
       <c r="F84">
-        <v>2.3142691542539</v>
+        <v>3.435761501504437</v>
       </c>
       <c r="G84">
-        <v>-6.1</v>
+        <v>-0</v>
       </c>
       <c r="H84">
-        <v>3.7</v>
+        <v>14.8</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2017 - (jan 2018 - des 2019)</t>
+          <t>2017 - (nov 2024 - okt 2025)</t>
         </is>
       </c>
       <c r="J84" s="2">
-        <v>43800</v>
+        <v>45931</v>
       </c>
       <c r="K84">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L84">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.9874850176692227</v>
+        <v>0.9879609276070108</v>
       </c>
       <c r="B85">
-        <v>-1.25149823307773</v>
+        <v>-1.203907239298918</v>
       </c>
       <c r="C85">
         <v>16</v>
@@ -16034,30 +16082,30 @@
         <v>9.708715062397884</v>
       </c>
       <c r="E85">
-        <v>7.481656125633299</v>
+        <v>7.210987530330344</v>
       </c>
       <c r="F85">
-        <v>2.401136587944519</v>
+        <v>2.3142691542539</v>
       </c>
       <c r="G85">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="H85">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2017 - (feb 2018 - jan 2020)</t>
+          <t>2017 - (jan 2018 - des 2019)</t>
         </is>
       </c>
       <c r="J85" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L85">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -16067,10 +16115,10 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.9874543595879336</v>
+        <v>0.9874850176692227</v>
       </c>
       <c r="B86">
-        <v>-1.254564041206641</v>
+        <v>-1.25149823307773</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -16079,27 +16127,27 @@
         <v>9.708715062397884</v>
       </c>
       <c r="E86">
-        <v>7.740917700647547</v>
+        <v>7.481656125633299</v>
       </c>
       <c r="F86">
-        <v>2.484343092381682</v>
+        <v>2.401136587944519</v>
       </c>
       <c r="G86">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2017 - (mar 2018 - feb 2020)</t>
+          <t>2017 - (feb 2018 - jan 2020)</t>
         </is>
       </c>
       <c r="J86" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>2020</v>
@@ -16112,39 +16160,39 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.9778441480580894</v>
+        <v>0.9874543595879336</v>
       </c>
       <c r="B87">
-        <v>-2.215585194191061</v>
+        <v>-1.254564041206641</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>10.08008585295178</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E87">
-        <v>7.92045045733889</v>
+        <v>7.740917700647547</v>
       </c>
       <c r="F87">
-        <v>2.494696778745903</v>
+        <v>2.484343092381682</v>
       </c>
       <c r="G87">
-        <v>-7.5</v>
+        <v>-6.5</v>
       </c>
       <c r="H87">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2017 - (apr 2018 - mar 2020)</t>
+          <t>2017 - (mar 2018 - feb 2020)</t>
         </is>
       </c>
       <c r="J87" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87">
         <v>2020</v>
@@ -16157,10 +16205,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.9657144971739698</v>
+        <v>0.9778441480580894</v>
       </c>
       <c r="B88">
-        <v>-3.428550282603016</v>
+        <v>-2.215585194191061</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -16169,27 +16217,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E88">
-        <v>8.203657413354435</v>
+        <v>7.92045045733889</v>
       </c>
       <c r="F88">
-        <v>2.583898205444529</v>
+        <v>2.494696778745903</v>
       </c>
       <c r="G88">
-        <v>-8.9</v>
+        <v>-7.5</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2017 - (mai 2018 - apr 2020)</t>
+          <t>2017 - (apr 2018 - mar 2020)</t>
         </is>
       </c>
       <c r="J88" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>2020</v>
@@ -16202,10 +16250,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.959771361595765</v>
+        <v>0.9657144971739698</v>
       </c>
       <c r="B89">
-        <v>-4.022863840423496</v>
+        <v>-3.428550282603016</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -16214,27 +16262,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E89">
-        <v>8.427599261957019</v>
+        <v>8.203657413354435</v>
       </c>
       <c r="F89">
-        <v>2.654432957393848</v>
+        <v>2.583898205444529</v>
       </c>
       <c r="G89">
-        <v>-9.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H89">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2017 - (jun 2018 - mai 2020)</t>
+          <t>2017 - (mai 2018 - apr 2020)</t>
         </is>
       </c>
       <c r="J89" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L89">
         <v>2020</v>
@@ -16247,10 +16295,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.9585237451275026</v>
+        <v>0.959771361595765</v>
       </c>
       <c r="B90">
-        <v>-4.14762548724974</v>
+        <v>-4.022863840423496</v>
       </c>
       <c r="C90">
         <v>17</v>
@@ -16259,27 +16307,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E90">
-        <v>8.672259038901375</v>
+        <v>8.427599261957019</v>
       </c>
       <c r="F90">
-        <v>2.731493215610127</v>
+        <v>2.654432957393848</v>
       </c>
       <c r="G90">
-        <v>-9.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H90">
         <v>1.6</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2017 - (jul 2018 - jun 2020)</t>
+          <t>2017 - (jun 2018 - mai 2020)</t>
         </is>
       </c>
       <c r="J90" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="K90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <v>2020</v>
@@ -16292,10 +16340,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.9602778582992354</v>
+        <v>0.9585237451275026</v>
       </c>
       <c r="B91">
-        <v>-3.97221417007646</v>
+        <v>-4.14762548724974</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -16304,27 +16352,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E91">
-        <v>8.885184996369736</v>
+        <v>8.672259038901375</v>
       </c>
       <c r="F91">
-        <v>2.798558302762527</v>
+        <v>2.731493215610127</v>
       </c>
       <c r="G91">
         <v>-9.9</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2017 - (aug 2018 - jul 2020)</t>
+          <t>2017 - (jul 2018 - jun 2020)</t>
         </is>
       </c>
       <c r="J91" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L91">
         <v>2020</v>
@@ -16337,10 +16385,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.9587112489839741</v>
+        <v>0.9602778582992354</v>
       </c>
       <c r="B92">
-        <v>-4.128875101602592</v>
+        <v>-3.97221417007646</v>
       </c>
       <c r="C92">
         <v>17</v>
@@ -16349,27 +16397,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E92">
-        <v>9.155538157969554</v>
+        <v>8.885184996369736</v>
       </c>
       <c r="F92">
-        <v>2.883711182008418</v>
+        <v>2.798558302762527</v>
       </c>
       <c r="G92">
-        <v>-10.2</v>
+        <v>-9.9</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2017 - (sep 2018 - aug 2020)</t>
+          <t>2017 - (aug 2018 - jul 2020)</t>
         </is>
       </c>
       <c r="J92" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="K92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L92">
         <v>2020</v>
@@ -16382,10 +16430,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.9592722316116373</v>
+        <v>0.9587112489839741</v>
       </c>
       <c r="B93">
-        <v>-4.072776838836267</v>
+        <v>-4.128875101602592</v>
       </c>
       <c r="C93">
         <v>17</v>
@@ -16394,27 +16442,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E93">
-        <v>9.406354151714996</v>
+        <v>9.155538157969554</v>
       </c>
       <c r="F93">
-        <v>2.962710457999715</v>
+        <v>2.883711182008418</v>
       </c>
       <c r="G93">
-        <v>-10.4</v>
+        <v>-10.2</v>
       </c>
       <c r="H93">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2017 - (okt 2018 - sep 2020)</t>
+          <t>2017 - (sep 2018 - aug 2020)</t>
         </is>
       </c>
       <c r="J93" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="K93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L93">
         <v>2020</v>
@@ -16427,10 +16475,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.9601405315311156</v>
+        <v>0.9592722316116373</v>
       </c>
       <c r="B94">
-        <v>-3.985946846888444</v>
+        <v>-4.072776838836267</v>
       </c>
       <c r="C94">
         <v>17</v>
@@ -16439,27 +16487,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E94">
-        <v>9.423797696865458</v>
+        <v>9.406354151714996</v>
       </c>
       <c r="F94">
-        <v>2.968204634894218</v>
+        <v>2.962710457999715</v>
       </c>
       <c r="G94">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H94">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2017 - (nov 2018 - okt 2020)</t>
+          <t>2017 - (okt 2018 - sep 2020)</t>
         </is>
       </c>
       <c r="J94" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L94">
         <v>2020</v>
@@ -16472,10 +16520,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.9577514905488856</v>
+        <v>0.9601405315311156</v>
       </c>
       <c r="B95">
-        <v>-4.224850945111436</v>
+        <v>-3.985946846888444</v>
       </c>
       <c r="C95">
         <v>17</v>
@@ -16484,27 +16532,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E95">
-        <v>9.339926167903673</v>
+        <v>9.423797696865458</v>
       </c>
       <c r="F95">
-        <v>2.941787698855487</v>
+        <v>2.968204634894218</v>
       </c>
       <c r="G95">
-        <v>-10.5</v>
+        <v>-10.3</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2017 - (des 2018 - nov 2020)</t>
+          <t>2017 - (nov 2018 - okt 2020)</t>
         </is>
       </c>
       <c r="J95" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="K95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95">
         <v>2020</v>
@@ -16517,39 +16565,39 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.9649471190987148</v>
+        <v>0.9577514905488856</v>
       </c>
       <c r="B96">
-        <v>-3.505288090128522</v>
+        <v>-4.224850945111436</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96">
-        <v>10.07164375761517</v>
+        <v>10.08008585295178</v>
       </c>
       <c r="E96">
-        <v>10.15405732979248</v>
+        <v>9.339926167903673</v>
       </c>
       <c r="F96">
-        <v>3.199553917381309</v>
+        <v>2.941787698855487</v>
       </c>
       <c r="G96">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="H96">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2017 - (jan 2019 - des 2020)</t>
+          <t>2017 - (des 2018 - nov 2020)</t>
         </is>
       </c>
       <c r="J96" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="K96">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L96">
         <v>2020</v>
@@ -16562,10 +16610,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9571399449946169</v>
+        <v>0.9649471190987148</v>
       </c>
       <c r="B97">
-        <v>-4.286005500538314</v>
+        <v>-3.505288090128522</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -16574,30 +16622,30 @@
         <v>10.07164375761517</v>
       </c>
       <c r="E97">
-        <v>10.25931060956035</v>
+        <v>10.15405732979248</v>
       </c>
       <c r="F97">
-        <v>3.232719334185727</v>
+        <v>3.199553917381309</v>
       </c>
       <c r="G97">
-        <v>-11.2</v>
+        <v>-10.3</v>
       </c>
       <c r="H97">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2017 - (feb 2019 - jan 2021)</t>
+          <t>2017 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L97">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -16607,10 +16655,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.955778615001093</v>
+        <v>0.9571399449946169</v>
       </c>
       <c r="B98">
-        <v>-4.422138499890704</v>
+        <v>-4.286005500538314</v>
       </c>
       <c r="C98">
         <v>16</v>
@@ -16619,27 +16667,27 @@
         <v>10.07164375761517</v>
       </c>
       <c r="E98">
-        <v>10.31778960598628</v>
+        <v>10.25931060956035</v>
       </c>
       <c r="F98">
-        <v>3.251146126158835</v>
+        <v>3.232719334185727</v>
       </c>
       <c r="G98">
-        <v>-11.4</v>
+        <v>-11.2</v>
       </c>
       <c r="H98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2017 - (mar 2019 - feb 2021)</t>
+          <t>2017 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>2021</v>
@@ -16652,39 +16700,39 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.9626097188040862</v>
+        <v>0.955778615001093</v>
       </c>
       <c r="B99">
-        <v>-3.739028119591381</v>
+        <v>-4.422138499890704</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>13.66355640922477</v>
+        <v>10.07164375761517</v>
       </c>
       <c r="E99">
-        <v>11.60830635826531</v>
+        <v>10.31778960598628</v>
       </c>
       <c r="F99">
-        <v>3.140414573763437</v>
+        <v>3.251146126158835</v>
       </c>
       <c r="G99">
-        <v>-10.5</v>
+        <v>-11.4</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2017 - (apr 2019 - mar 2021)</t>
+          <t>2017 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>2021</v>
@@ -16697,10 +16745,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9594025417739129</v>
+        <v>0.9626097188040862</v>
       </c>
       <c r="B100">
-        <v>-4.059745822608707</v>
+        <v>-3.739028119591381</v>
       </c>
       <c r="C100">
         <v>15</v>
@@ -16709,27 +16757,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E100">
-        <v>11.70434723080529</v>
+        <v>11.60830635826531</v>
       </c>
       <c r="F100">
-        <v>3.166396671969068</v>
+        <v>3.140414573763437</v>
       </c>
       <c r="G100">
-        <v>-10.9</v>
+        <v>-10.5</v>
       </c>
       <c r="H100">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2017 - (mai 2019 - apr 2021)</t>
+          <t>2017 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L100">
         <v>2021</v>
@@ -16742,10 +16790,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9557794958910142</v>
+        <v>0.9594025417739129</v>
       </c>
       <c r="B101">
-        <v>-4.422050410898581</v>
+        <v>-4.059745822608707</v>
       </c>
       <c r="C101">
         <v>15</v>
@@ -16754,27 +16802,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E101">
-        <v>11.81416703857966</v>
+        <v>11.70434723080529</v>
       </c>
       <c r="F101">
-        <v>3.196106408616135</v>
+        <v>3.166396671969068</v>
       </c>
       <c r="G101">
-        <v>-11.3</v>
+        <v>-10.9</v>
       </c>
       <c r="H101">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2017 - (jun 2019 - mai 2021)</t>
+          <t>2017 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J101" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L101">
         <v>2021</v>
@@ -16787,10 +16835,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9572906938419247</v>
+        <v>0.9557794958910142</v>
       </c>
       <c r="B102">
-        <v>-4.270930615807533</v>
+        <v>-4.422050410898581</v>
       </c>
       <c r="C102">
         <v>15</v>
@@ -16799,27 +16847,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E102">
-        <v>11.92310188000059</v>
+        <v>11.81416703857966</v>
       </c>
       <c r="F102">
-        <v>3.225576733832468</v>
+        <v>3.196106408616135</v>
       </c>
       <c r="G102">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H102">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2017 - (jul 2019 - jun 2021)</t>
+          <t>2017 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L102">
         <v>2021</v>
@@ -16832,10 +16880,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9582014644396226</v>
+        <v>0.9572906938419247</v>
       </c>
       <c r="B103">
-        <v>-4.179853556037738</v>
+        <v>-4.270930615807533</v>
       </c>
       <c r="C103">
         <v>15</v>
@@ -16844,27 +16892,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E103">
-        <v>11.97256048878576</v>
+        <v>11.92310188000059</v>
       </c>
       <c r="F103">
-        <v>3.238956854156084</v>
+        <v>3.225576733832468</v>
       </c>
       <c r="G103">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H103">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2017 - (aug 2019 - jul 2021)</t>
+          <t>2017 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L103">
         <v>2021</v>
@@ -16877,10 +16925,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9583835740335892</v>
+        <v>0.9582014644396226</v>
       </c>
       <c r="B104">
-        <v>-4.16164259664108</v>
+        <v>-4.179853556037738</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -16889,27 +16937,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E104">
-        <v>12.05179812923049</v>
+        <v>11.97256048878576</v>
       </c>
       <c r="F104">
-        <v>3.260393145822016</v>
+        <v>3.238956854156084</v>
       </c>
       <c r="G104">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H104">
         <v>2.8</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2017 - (sep 2019 - aug 2021)</t>
+          <t>2017 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L104">
         <v>2021</v>
@@ -16922,10 +16970,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9597738850535416</v>
+        <v>0.9583835740335892</v>
       </c>
       <c r="B105">
-        <v>-4.022611494645845</v>
+        <v>-4.16164259664108</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -16934,27 +16982,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E105">
-        <v>12.18638536594979</v>
+        <v>12.05179812923049</v>
       </c>
       <c r="F105">
-        <v>3.296803256529931</v>
+        <v>3.260393145822016</v>
       </c>
       <c r="G105">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2017 - (okt 2019 - sep 2021)</t>
+          <t>2017 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105">
         <v>2021</v>
@@ -16967,10 +17015,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9589577312986745</v>
+        <v>0.9597738850535416</v>
       </c>
       <c r="B106">
-        <v>-4.104226870132555</v>
+        <v>-4.022611494645845</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -16979,27 +17027,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E106">
-        <v>12.28037753955587</v>
+        <v>12.18638536594979</v>
       </c>
       <c r="F106">
-        <v>3.322231116779508</v>
+        <v>3.296803256529931</v>
       </c>
       <c r="G106">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2017 - (nov 2019 - okt 2021)</t>
+          <t>2017 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L106">
         <v>2021</v>
@@ -17012,10 +17060,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9590234065189924</v>
+        <v>0.9589577312986745</v>
       </c>
       <c r="B107">
-        <v>-4.097659348100757</v>
+        <v>-4.104226870132555</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -17024,27 +17072,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E107">
-        <v>12.41670967175809</v>
+        <v>12.28037753955587</v>
       </c>
       <c r="F107">
-        <v>3.359113276986732</v>
+        <v>3.322231116779508</v>
       </c>
       <c r="G107">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="H107">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2017 - (des 2019 - nov 2021)</t>
+          <t>2017 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L107">
         <v>2021</v>
@@ -17057,10 +17105,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.9585302857969438</v>
+        <v>0.9590234065189924</v>
       </c>
       <c r="B108">
-        <v>-4.146971420305623</v>
+        <v>-4.097659348100757</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -17069,27 +17117,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E108">
-        <v>12.49817132411413</v>
+        <v>12.41670967175809</v>
       </c>
       <c r="F108">
-        <v>3.38115123432231</v>
+        <v>3.359113276986732</v>
       </c>
       <c r="G108">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H108">
         <v>3.1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2017 - (jan 2020 - des 2021)</t>
+          <t>2017 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L108">
         <v>2021</v>
@@ -17102,10 +17150,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.9542375752946668</v>
+        <v>0.9585302857969438</v>
       </c>
       <c r="B109">
-        <v>-4.57624247053332</v>
+        <v>-4.146971420305623</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -17114,30 +17162,30 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E109">
-        <v>12.62761118108983</v>
+        <v>12.49817132411413</v>
       </c>
       <c r="F109">
-        <v>3.416168815761564</v>
+        <v>3.38115123432231</v>
       </c>
       <c r="G109">
-        <v>-11.9</v>
+        <v>-11.4</v>
       </c>
       <c r="H109">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2017 - (feb 2020 - jan 2022)</t>
+          <t>2017 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L109">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -17147,39 +17195,39 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.9425734094107816</v>
+        <v>0.9542375752946668</v>
       </c>
       <c r="B110">
-        <v>-5.74265905892184</v>
+        <v>-4.57624247053332</v>
       </c>
       <c r="C110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>10.61030075346296</v>
+        <v>13.66355640922477</v>
       </c>
       <c r="E110">
-        <v>11.53646702783137</v>
+        <v>12.62761118108983</v>
       </c>
       <c r="F110">
-        <v>3.541677251794437</v>
+        <v>3.416168815761564</v>
       </c>
       <c r="G110">
-        <v>-13.3</v>
+        <v>-11.9</v>
       </c>
       <c r="H110">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2017 - (mar 2020 - feb 2022)</t>
+          <t>2017 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>2022</v>
@@ -17192,10 +17240,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9525863478657235</v>
+        <v>0.9425734094107816</v>
       </c>
       <c r="B111">
-        <v>-4.741365213427651</v>
+        <v>-5.74265905892184</v>
       </c>
       <c r="C111">
         <v>16</v>
@@ -17204,27 +17252,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E111">
-        <v>11.6614462560826</v>
+        <v>11.53646702783137</v>
       </c>
       <c r="F111">
-        <v>3.580045678503963</v>
+        <v>3.541677251794437</v>
       </c>
       <c r="G111">
-        <v>-12.4</v>
+        <v>-13.3</v>
       </c>
       <c r="H111">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2017 - (apr 2020 - mar 2022)</t>
+          <t>2017 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>2022</v>
@@ -17237,10 +17285,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.9613020390448642</v>
+        <v>0.9525863478657235</v>
       </c>
       <c r="B112">
-        <v>-3.869796095513578</v>
+        <v>-4.741365213427651</v>
       </c>
       <c r="C112">
         <v>16</v>
@@ -17249,27 +17297,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E112">
-        <v>11.75062734322839</v>
+        <v>11.6614462560826</v>
       </c>
       <c r="F112">
-        <v>3.60742413213908</v>
+        <v>3.580045678503963</v>
       </c>
       <c r="G112">
-        <v>-11.6</v>
+        <v>-12.4</v>
       </c>
       <c r="H112">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2017 - (mai 2020 - apr 2022)</t>
+          <t>2017 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L112">
         <v>2022</v>
@@ -17282,10 +17330,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.9681920131896906</v>
+        <v>0.9613020390448642</v>
       </c>
       <c r="B113">
-        <v>-3.180798681030939</v>
+        <v>-3.869796095513578</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -17294,27 +17342,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E113">
-        <v>11.76290448598951</v>
+        <v>11.75062734322839</v>
       </c>
       <c r="F113">
-        <v>3.611193195677266</v>
+        <v>3.60742413213908</v>
       </c>
       <c r="G113">
-        <v>-10.9</v>
+        <v>-11.6</v>
       </c>
       <c r="H113">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2017 - (jun 2020 - mai 2022)</t>
+          <t>2017 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <v>2022</v>
@@ -17327,10 +17375,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9695189750122273</v>
+        <v>0.9681920131896906</v>
       </c>
       <c r="B114">
-        <v>-3.048102498777272</v>
+        <v>-3.180798681030939</v>
       </c>
       <c r="C114">
         <v>16</v>
@@ -17339,27 +17387,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E114">
-        <v>11.76610647221753</v>
+        <v>11.76290448598951</v>
       </c>
       <c r="F114">
-        <v>3.612176200418406</v>
+        <v>3.611193195677266</v>
       </c>
       <c r="G114">
-        <v>-10.7</v>
+        <v>-10.9</v>
       </c>
       <c r="H114">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2017 - (jul 2020 - jun 2022)</t>
+          <t>2017 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L114">
         <v>2022</v>
@@ -17372,10 +17420,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9664770346696642</v>
+        <v>0.9695189750122273</v>
       </c>
       <c r="B115">
-        <v>-3.352296533033583</v>
+        <v>-3.048102498777272</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -17384,27 +17432,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E115">
-        <v>11.8180493859371</v>
+        <v>11.76610647221753</v>
       </c>
       <c r="F115">
-        <v>3.628122593319169</v>
+        <v>3.612176200418406</v>
       </c>
       <c r="G115">
-        <v>-11.1</v>
+        <v>-10.7</v>
       </c>
       <c r="H115">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2017 - (aug 2020 - jul 2022)</t>
+          <t>2017 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L115">
         <v>2022</v>
@@ -17417,10 +17465,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9682046245961539</v>
+        <v>0.9664770346696642</v>
       </c>
       <c r="B116">
-        <v>-3.179537540384614</v>
+        <v>-3.352296533033583</v>
       </c>
       <c r="C116">
         <v>16</v>
@@ -17429,27 +17477,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E116">
-        <v>11.92333933589442</v>
+        <v>11.8180493859371</v>
       </c>
       <c r="F116">
-        <v>3.660446442527665</v>
+        <v>3.628122593319169</v>
       </c>
       <c r="G116">
-        <v>-11</v>
+        <v>-11.1</v>
       </c>
       <c r="H116">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2017 - (sep 2020 - aug 2022)</t>
+          <t>2017 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L116">
         <v>2022</v>
@@ -17462,10 +17510,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9689867045558758</v>
+        <v>0.9682046245961539</v>
       </c>
       <c r="B117">
-        <v>-3.101329544412423</v>
+        <v>-3.179537540384614</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -17474,27 +17522,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E117">
-        <v>12.02147773103613</v>
+        <v>11.92333933589442</v>
       </c>
       <c r="F117">
-        <v>3.690574775644078</v>
+        <v>3.660446442527665</v>
       </c>
       <c r="G117">
         <v>-11</v>
       </c>
       <c r="H117">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2017 - (okt 2020 - sep 2022)</t>
+          <t>2017 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L117">
         <v>2022</v>
@@ -17507,10 +17555,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9691629187283778</v>
+        <v>0.9689867045558758</v>
       </c>
       <c r="B118">
-        <v>-3.083708127162221</v>
+        <v>-3.101329544412423</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -17519,10 +17567,10 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E118">
-        <v>12.06715622947667</v>
+        <v>12.02147773103613</v>
       </c>
       <c r="F118">
-        <v>3.704598002896641</v>
+        <v>3.690574775644078</v>
       </c>
       <c r="G118">
         <v>-11</v>
@@ -17532,14 +17580,14 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2017 - (nov 2020 - okt 2022)</t>
+          <t>2017 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L118">
         <v>2022</v>
@@ -17552,10 +17600,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9740234929865565</v>
+        <v>0.9691629187283778</v>
       </c>
       <c r="B119">
-        <v>-2.597650701344345</v>
+        <v>-3.083708127162221</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -17564,27 +17612,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E119">
-        <v>12.27044871078527</v>
+        <v>12.06715622947667</v>
       </c>
       <c r="F119">
-        <v>3.767008475251355</v>
+        <v>3.704598002896641</v>
       </c>
       <c r="G119">
-        <v>-10.6</v>
+        <v>-11</v>
       </c>
       <c r="H119">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2017 - (des 2020 - nov 2022)</t>
+          <t>2017 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119">
         <v>2022</v>
@@ -17597,10 +17645,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9761394451285212</v>
+        <v>0.9740234929865565</v>
       </c>
       <c r="B120">
-        <v>-2.386055487147876</v>
+        <v>-2.597650701344345</v>
       </c>
       <c r="C120">
         <v>16</v>
@@ -17609,27 +17657,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E120">
-        <v>12.34038062626538</v>
+        <v>12.27044871078527</v>
       </c>
       <c r="F120">
-        <v>3.788477463428829</v>
+        <v>3.767008475251355</v>
       </c>
       <c r="G120">
-        <v>-10.5</v>
+        <v>-10.6</v>
       </c>
       <c r="H120">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2017 - (jan 2021 - des 2022)</t>
+          <t>2017 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L120">
         <v>2022</v>
@@ -17642,10 +17690,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9831062970250763</v>
+        <v>0.9761394451285212</v>
       </c>
       <c r="B121">
-        <v>-1.689370297492365</v>
+        <v>-2.386055487147876</v>
       </c>
       <c r="C121">
         <v>16</v>
@@ -17654,30 +17702,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E121">
-        <v>12.4622849894196</v>
+        <v>12.34038062626538</v>
       </c>
       <c r="F121">
-        <v>3.825901911384705</v>
+        <v>3.788477463428829</v>
       </c>
       <c r="G121">
-        <v>-9.800000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="H121">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2017 - (feb 2021 - jan 2023)</t>
+          <t>2017 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J121" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L121">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -17687,10 +17735,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9868518847446988</v>
+        <v>0.9831062970250763</v>
       </c>
       <c r="B122">
-        <v>-1.314811525530124</v>
+        <v>-1.689370297492365</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -17699,27 +17747,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E122">
-        <v>12.56084303270841</v>
+        <v>12.4622849894196</v>
       </c>
       <c r="F122">
-        <v>3.856159075822939</v>
+        <v>3.825901911384705</v>
       </c>
       <c r="G122">
-        <v>-9.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H122">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2017 - (mar 2021 - feb 2023)</t>
+          <t>2017 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>2023</v>
@@ -17732,10 +17780,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.9915842718303322</v>
+        <v>0.9868518847446988</v>
       </c>
       <c r="B123">
-        <v>-0.8415728169667847</v>
+        <v>-1.314811525530124</v>
       </c>
       <c r="C123">
         <v>16</v>
@@ -17744,27 +17792,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E123">
-        <v>12.61661754965772</v>
+        <v>12.56084303270841</v>
       </c>
       <c r="F123">
-        <v>3.873281764895135</v>
+        <v>3.856159075822939</v>
       </c>
       <c r="G123">
-        <v>-9.1</v>
+        <v>-9.5</v>
       </c>
       <c r="H123">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2017 - (apr 2021 - mar 2023)</t>
+          <t>2017 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -17777,10 +17825,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.9949428794064208</v>
+        <v>0.9915842718303322</v>
       </c>
       <c r="B124">
-        <v>-0.5057120593579212</v>
+        <v>-0.8415728169667847</v>
       </c>
       <c r="C124">
         <v>16</v>
@@ -17789,27 +17837,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E124">
-        <v>12.65183170913736</v>
+        <v>12.61661754965772</v>
       </c>
       <c r="F124">
-        <v>3.884092456527956</v>
+        <v>3.873281764895135</v>
       </c>
       <c r="G124">
-        <v>-8.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="H124">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2017 - (mai 2021 - apr 2023)</t>
+          <t>2017 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -17822,39 +17870,39 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.01177659893465</v>
+        <v>0.9949428794064208</v>
       </c>
       <c r="B125">
-        <v>1.177659893465011</v>
+        <v>-0.5057120593579212</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E125">
-        <v>10.9773468376159</v>
+        <v>12.65183170913736</v>
       </c>
       <c r="F125">
-        <v>3.471111992610117</v>
+        <v>3.884092456527956</v>
       </c>
       <c r="G125">
-        <v>-6.3</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H125">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2017 - (jun 2021 - mai 2023)</t>
+          <t>2017 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -17867,10 +17915,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.014307553414969</v>
+        <v>1.01177659893465</v>
       </c>
       <c r="B126">
-        <v>1.430755341496881</v>
+        <v>1.177659893465011</v>
       </c>
       <c r="C126">
         <v>15</v>
@@ -17879,27 +17927,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E126">
-        <v>11.04513894194084</v>
+        <v>10.9773468376159</v>
       </c>
       <c r="F126">
-        <v>3.492548318692138</v>
+        <v>3.471111992610117</v>
       </c>
       <c r="G126">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="H126">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2017 - (jul 2021 - jun 2023)</t>
+          <t>2017 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -17912,10 +17960,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.013836011531186</v>
+        <v>1.014307553414969</v>
       </c>
       <c r="B127">
-        <v>1.383601153118619</v>
+        <v>1.430755341496881</v>
       </c>
       <c r="C127">
         <v>15</v>
@@ -17924,10 +17972,10 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E127">
-        <v>11.03783182054563</v>
+        <v>11.04513894194084</v>
       </c>
       <c r="F127">
-        <v>3.490237757034429</v>
+        <v>3.492548318692138</v>
       </c>
       <c r="G127">
         <v>-6.1</v>
@@ -17937,14 +17985,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2017 - (aug 2021 - jul 2023)</t>
+          <t>2017 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -17957,10 +18005,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.015638691787501</v>
+        <v>1.013836011531186</v>
       </c>
       <c r="B128">
-        <v>1.563869178750132</v>
+        <v>1.383601153118619</v>
       </c>
       <c r="C128">
         <v>15</v>
@@ -17969,27 +18017,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E128">
-        <v>11.04705636540031</v>
+        <v>11.03783182054563</v>
       </c>
       <c r="F128">
-        <v>3.493154621076813</v>
+        <v>3.490237757034429</v>
       </c>
       <c r="G128">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="H128">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2017 - (sep 2021 - aug 2023)</t>
+          <t>2017 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -18002,39 +18050,39 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.017786847486633</v>
+        <v>1.015638691787501</v>
       </c>
       <c r="B129">
-        <v>1.778684748663317</v>
+        <v>1.563869178750132</v>
       </c>
       <c r="C129">
         <v>15</v>
       </c>
       <c r="D129">
-        <v>8.799748768564134</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E129">
-        <v>10.28660463816255</v>
+        <v>11.04705636540031</v>
       </c>
       <c r="F129">
-        <v>3.467663215689806</v>
+        <v>3.493154621076813</v>
       </c>
       <c r="G129">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="H129">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2017 - (okt 2021 - sep 2023)</t>
+          <t>2017 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -18047,10 +18095,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.018922636989477</v>
+        <v>1.017786847486633</v>
       </c>
       <c r="B130">
-        <v>1.892263698947705</v>
+        <v>1.778684748663317</v>
       </c>
       <c r="C130">
         <v>15</v>
@@ -18059,27 +18107,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E130">
-        <v>10.31455719476461</v>
+        <v>10.28660463816255</v>
       </c>
       <c r="F130">
-        <v>3.477086155106946</v>
+        <v>3.467663215689806</v>
       </c>
       <c r="G130">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="H130">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2017 - (nov 2021 - okt 2023)</t>
+          <t>2017 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -18092,10 +18140,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.019725567160537</v>
+        <v>1.018922636989477</v>
       </c>
       <c r="B131">
-        <v>1.972556716053742</v>
+        <v>1.892263698947705</v>
       </c>
       <c r="C131">
         <v>15</v>
@@ -18104,27 +18152,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E131">
-        <v>10.34918219583577</v>
+        <v>10.31455719476461</v>
       </c>
       <c r="F131">
-        <v>3.488758407203836</v>
+        <v>3.477086155106946</v>
       </c>
       <c r="G131">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="H131">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2017 - (des 2021 - nov 2023)</t>
+          <t>2017 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -18137,10 +18185,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>1.021566083465694</v>
+        <v>1.019725567160537</v>
       </c>
       <c r="B132">
-        <v>2.156608346569366</v>
+        <v>1.972556716053742</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -18149,27 +18197,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E132">
-        <v>10.37235129937916</v>
+        <v>10.34918219583577</v>
       </c>
       <c r="F132">
-        <v>3.496568821905675</v>
+        <v>3.488758407203836</v>
       </c>
       <c r="G132">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="H132">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2017 - (jan 2022 - des 2023)</t>
+          <t>2017 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -18182,10 +18230,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.024536014402771</v>
+        <v>1.021566083465694</v>
       </c>
       <c r="B133">
-        <v>2.453601440277065</v>
+        <v>2.156608346569366</v>
       </c>
       <c r="C133">
         <v>15</v>
@@ -18194,30 +18242,30 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E133">
-        <v>10.41805483619126</v>
+        <v>10.37235129937916</v>
       </c>
       <c r="F133">
-        <v>3.511975700949348</v>
+        <v>3.496568821905675</v>
       </c>
       <c r="G133">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2017 - (feb 2022 - jan 2024)</t>
+          <t>2017 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L133">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -18227,10 +18275,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.027377233660252</v>
+        <v>1.024536014402771</v>
       </c>
       <c r="B134">
-        <v>2.737723366025224</v>
+        <v>2.453601440277065</v>
       </c>
       <c r="C134">
         <v>15</v>
@@ -18239,27 +18287,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E134">
-        <v>10.47261817885834</v>
+        <v>10.41805483619126</v>
       </c>
       <c r="F134">
-        <v>3.530369262571205</v>
+        <v>3.511975700949348</v>
       </c>
       <c r="G134">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="H134">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2017 - (mar 2022 - feb 2024)</t>
+          <t>2017 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>2024</v>
@@ -18272,10 +18320,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.025492093258632</v>
+        <v>1.027377233660252</v>
       </c>
       <c r="B135">
-        <v>2.549209325863244</v>
+        <v>2.737723366025224</v>
       </c>
       <c r="C135">
         <v>15</v>
@@ -18284,27 +18332,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E135">
-        <v>10.46375164967549</v>
+        <v>10.47261817885834</v>
       </c>
       <c r="F135">
-        <v>3.527380313527305</v>
+        <v>3.530369262571205</v>
       </c>
       <c r="G135">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="H135">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2017 - (apr 2022 - mar 2024)</t>
+          <t>2017 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L135">
         <v>2024</v>
@@ -18317,10 +18365,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.031143264549543</v>
+        <v>1.025492093258632</v>
       </c>
       <c r="B136">
-        <v>3.11432645495433</v>
+        <v>2.549209325863244</v>
       </c>
       <c r="C136">
         <v>15</v>
@@ -18329,27 +18377,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E136">
-        <v>10.48683427815183</v>
+        <v>10.46375164967549</v>
       </c>
       <c r="F136">
-        <v>3.535161577073866</v>
+        <v>3.527380313527305</v>
       </c>
       <c r="G136">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="H136">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2017 - (mai 2022 - apr 2024)</t>
+          <t>2017 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>2024</v>
@@ -18362,10 +18410,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.031962587245835</v>
+        <v>1.031143264549543</v>
       </c>
       <c r="B137">
-        <v>3.196258724583489</v>
+        <v>3.11432645495433</v>
       </c>
       <c r="C137">
         <v>15</v>
@@ -18374,27 +18422,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E137">
-        <v>10.50243192516726</v>
+        <v>10.48683427815183</v>
       </c>
       <c r="F137">
-        <v>3.540419617866653</v>
+        <v>3.535161577073866</v>
       </c>
       <c r="G137">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="H137">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2017 - (jun 2022 - mai 2024)</t>
+          <t>2017 - (mai 2022 - apr 2024)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L137">
         <v>2024</v>
@@ -18407,10 +18455,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.033504698878722</v>
+        <v>1.031962587245835</v>
       </c>
       <c r="B138">
-        <v>3.350469887872198</v>
+        <v>3.196258724583489</v>
       </c>
       <c r="C138">
         <v>15</v>
@@ -18419,27 +18467,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E138">
-        <v>10.46908303031341</v>
+        <v>10.50243192516726</v>
       </c>
       <c r="F138">
-        <v>3.529177547228536</v>
+        <v>3.540419617866653</v>
       </c>
       <c r="G138">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="H138">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2017 - (jul 2022 - jun 2024)</t>
+          <t>2017 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L138">
         <v>2024</v>
@@ -18452,10 +18500,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.036761954355273</v>
+        <v>1.033504698878722</v>
       </c>
       <c r="B139">
-        <v>3.676195435527285</v>
+        <v>3.350469887872198</v>
       </c>
       <c r="C139">
         <v>15</v>
@@ -18464,27 +18512,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E139">
-        <v>10.45701370994728</v>
+        <v>10.46908303031341</v>
       </c>
       <c r="F139">
-        <v>3.525108922085042</v>
+        <v>3.529177547228536</v>
       </c>
       <c r="G139">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="H139">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2017 - (aug 2022 - jul 2024)</t>
+          <t>2017 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L139">
         <v>2024</v>
@@ -18497,10 +18545,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.038713423771024</v>
+        <v>1.036761954355273</v>
       </c>
       <c r="B140">
-        <v>3.871342377102382</v>
+        <v>3.676195435527285</v>
       </c>
       <c r="C140">
         <v>15</v>
@@ -18509,27 +18557,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E140">
-        <v>10.43468414362446</v>
+        <v>10.45701370994728</v>
       </c>
       <c r="F140">
-        <v>3.517581519362412</v>
+        <v>3.525108922085042</v>
       </c>
       <c r="G140">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="H140">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2017 - (sep 2022 - aug 2024)</t>
+          <t>2017 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L140">
         <v>2024</v>
@@ -18542,10 +18590,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.039673448975552</v>
+        <v>1.038713423771024</v>
       </c>
       <c r="B141">
-        <v>3.967344897555236</v>
+        <v>3.871342377102382</v>
       </c>
       <c r="C141">
         <v>15</v>
@@ -18554,27 +18602,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E141">
-        <v>10.40809044468004</v>
+        <v>10.43468414362446</v>
       </c>
       <c r="F141">
-        <v>3.508616657307094</v>
+        <v>3.517581519362412</v>
       </c>
       <c r="G141">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="H141">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2017 - (okt 2022 - sep 2024)</t>
+          <t>2017 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L141">
         <v>2024</v>
@@ -18587,10 +18635,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.042494177576495</v>
+        <v>1.039673448975552</v>
       </c>
       <c r="B142">
-        <v>4.249417757649487</v>
+        <v>3.967344897555236</v>
       </c>
       <c r="C142">
         <v>15</v>
@@ -18599,27 +18647,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E142">
-        <v>10.41780183975666</v>
+        <v>10.40809044468004</v>
       </c>
       <c r="F142">
-        <v>3.511890414651213</v>
+        <v>3.508616657307094</v>
       </c>
       <c r="G142">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="H142">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2017 - (nov 2022 - okt 2024)</t>
+          <t>2017 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L142">
         <v>2024</v>
@@ -18632,10 +18680,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.043846712690732</v>
+        <v>1.042494177576495</v>
       </c>
       <c r="B143">
-        <v>4.384671269073248</v>
+        <v>4.249417757649487</v>
       </c>
       <c r="C143">
         <v>15</v>
@@ -18644,27 +18692,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E143">
-        <v>10.37140757196835</v>
+        <v>10.41780183975666</v>
       </c>
       <c r="F143">
-        <v>3.496250686919135</v>
+        <v>3.511890414651213</v>
       </c>
       <c r="G143">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="H143">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2017 - (des 2022 - nov 2024)</t>
+          <t>2017 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L143">
         <v>2024</v>
@@ -18677,10 +18725,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.045028795899091</v>
+        <v>1.043846712690732</v>
       </c>
       <c r="B144">
-        <v>4.502879589909137</v>
+        <v>4.384671269073248</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -18689,27 +18737,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E144">
-        <v>10.36030352256581</v>
+        <v>10.37140757196835</v>
       </c>
       <c r="F144">
-        <v>3.492507459196011</v>
+        <v>3.496250686919135</v>
       </c>
       <c r="G144">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="H144">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2017 - (jan 2023 - des 2024)</t>
+          <t>2017 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L144">
         <v>2024</v>
@@ -18722,10 +18770,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.045386547584004</v>
+        <v>1.045028795899091</v>
       </c>
       <c r="B145">
-        <v>4.538654758400429</v>
+        <v>4.502879589909137</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -18734,30 +18782,30 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E145">
-        <v>10.33202509827723</v>
+        <v>10.36030352256581</v>
       </c>
       <c r="F145">
-        <v>3.482974668236069</v>
+        <v>3.492507459196011</v>
       </c>
       <c r="G145">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="H145">
         <v>12</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2017 - (feb 2023 - jan 2025)</t>
+          <t>2017 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L145">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -18767,39 +18815,39 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.050395283633821</v>
+        <v>1.045386547584004</v>
       </c>
       <c r="B146">
-        <v>5.039528363382129</v>
+        <v>4.538654758400429</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146">
-        <v>8.099360170069106</v>
+        <v>8.799748768564134</v>
       </c>
       <c r="E146">
-        <v>10.45623426761736</v>
+        <v>10.33202509827723</v>
       </c>
       <c r="F146">
-        <v>3.674091339579324</v>
+        <v>3.482974668236069</v>
       </c>
       <c r="G146">
         <v>-2.9</v>
       </c>
       <c r="H146">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2017 - (mar 2023 - feb 2025)</t>
+          <t>2017 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L146">
         <v>2025</v>
@@ -18812,10 +18860,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>1.051595691828511</v>
+        <v>1.050395283633821</v>
       </c>
       <c r="B147">
-        <v>5.159569182851098</v>
+        <v>5.039528363382129</v>
       </c>
       <c r="C147">
         <v>14</v>
@@ -18824,27 +18872,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E147">
-        <v>10.43315133368398</v>
+        <v>10.45623426761736</v>
       </c>
       <c r="F147">
-        <v>3.665980502973512</v>
+        <v>3.674091339579324</v>
       </c>
       <c r="G147">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H147">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2017 - (apr 2023 - mar 2025)</t>
+          <t>2017 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L147">
         <v>2025</v>
@@ -18857,10 +18905,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.055101152791925</v>
+        <v>1.051595691828511</v>
       </c>
       <c r="B148">
-        <v>5.51011527919254</v>
+        <v>5.159569182851098</v>
       </c>
       <c r="C148">
         <v>14</v>
@@ -18869,27 +18917,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E148">
-        <v>10.42440001110271</v>
+        <v>10.43315133368398</v>
       </c>
       <c r="F148">
-        <v>3.662905480199274</v>
+        <v>3.665980502973512</v>
       </c>
       <c r="G148">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="H148">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2017 - (mai 2023 - apr 2025)</t>
+          <t>2017 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L148">
         <v>2025</v>
@@ -18902,10 +18950,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.057483873380077</v>
+        <v>1.055101152791925</v>
       </c>
       <c r="B149">
-        <v>5.74838733800771</v>
+        <v>5.51011527919254</v>
       </c>
       <c r="C149">
         <v>14</v>
@@ -18914,27 +18962,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E149">
-        <v>10.41958002907396</v>
+        <v>10.42440001110271</v>
       </c>
       <c r="F149">
-        <v>3.661211844252001</v>
+        <v>3.662905480199274</v>
       </c>
       <c r="G149">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="H149">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2017 - (jun 2023 - mai 2025)</t>
+          <t>2017 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L149">
         <v>2025</v>
@@ -18947,10 +18995,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.056605666531134</v>
+        <v>1.057483873380077</v>
       </c>
       <c r="B150">
-        <v>5.660566653113386</v>
+        <v>5.74838733800771</v>
       </c>
       <c r="C150">
         <v>14</v>
@@ -18959,27 +19007,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E150">
-        <v>10.35637533698069</v>
+        <v>10.41958002907396</v>
       </c>
       <c r="F150">
-        <v>3.639003101993818</v>
+        <v>3.661211844252001</v>
       </c>
       <c r="G150">
         <v>-2.2</v>
       </c>
       <c r="H150">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2017 - (jul 2023 - jun 2025)</t>
+          <t>2017 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L150">
         <v>2025</v>
@@ -18992,10 +19040,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.058978138169918</v>
+        <v>1.056605666531134</v>
       </c>
       <c r="B151">
-        <v>5.897813816991815</v>
+        <v>5.660566653113386</v>
       </c>
       <c r="C151">
         <v>14</v>
@@ -19004,27 +19052,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E151">
-        <v>10.34495669959798</v>
+        <v>10.35637533698069</v>
       </c>
       <c r="F151">
-        <v>3.634990843312171</v>
+        <v>3.639003101993818</v>
       </c>
       <c r="G151">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="H151">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2017 - (aug 2023 - jul 2025)</t>
+          <t>2017 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L151">
         <v>2025</v>
@@ -19037,10 +19085,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.059516368151555</v>
+        <v>1.058978138169918</v>
       </c>
       <c r="B152">
-        <v>5.951636815155537</v>
+        <v>5.897813816991815</v>
       </c>
       <c r="C152">
         <v>14</v>
@@ -19049,27 +19097,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E152">
-        <v>10.30072361068758</v>
+        <v>10.34495669959798</v>
       </c>
       <c r="F152">
-        <v>3.619448306225769</v>
+        <v>3.634990843312171</v>
       </c>
       <c r="G152">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="H152">
         <v>13.8</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2017 - (sep 2023 - aug 2025)</t>
+          <t>2017 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L152">
         <v>2025</v>
@@ -19082,10 +19130,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.06130208743904</v>
+        <v>1.059516368151555</v>
       </c>
       <c r="B153">
-        <v>6.130208743903975</v>
+        <v>5.951636815155537</v>
       </c>
       <c r="C153">
         <v>14</v>
@@ -19094,27 +19142,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E153">
-        <v>10.23042158261661</v>
+        <v>10.30072361068758</v>
       </c>
       <c r="F153">
-        <v>3.594745715801763</v>
+        <v>3.619448306225769</v>
       </c>
       <c r="G153">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="H153">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2017 - (okt 2023 - sep 2025)</t>
+          <t>2017 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L153">
         <v>2025</v>
@@ -19127,132 +19175,132 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.9695390422596395</v>
+        <v>1.06130208743904</v>
       </c>
       <c r="B154">
-        <v>-3.046095774036051</v>
+        <v>6.130208743903975</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154">
-        <v>9.708715062397884</v>
+        <v>8.099360170069106</v>
       </c>
       <c r="E154">
-        <v>7.75848322084902</v>
+        <v>10.23042158261661</v>
       </c>
       <c r="F154">
-        <v>2.489980509089132</v>
+        <v>3.594745715801763</v>
       </c>
       <c r="G154">
-        <v>-8.4</v>
+        <v>-1.6</v>
       </c>
       <c r="H154">
-        <v>2.3</v>
+        <v>13.9</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2017 - (jan 2018 - des 2020)</t>
+          <t>2017 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>44166</v>
+        <v>45901</v>
       </c>
       <c r="K154">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L154">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.964170213515919</v>
+        <v>1.063712352078617</v>
       </c>
       <c r="B155">
-        <v>-3.582978648408097</v>
+        <v>6.371235207861714</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155">
-        <v>9.708715062397884</v>
+        <v>8.099360170069106</v>
       </c>
       <c r="E155">
-        <v>7.947888104862012</v>
+        <v>10.14036322894965</v>
       </c>
       <c r="F155">
-        <v>2.55076745108461</v>
+        <v>3.563101185964735</v>
       </c>
       <c r="G155">
-        <v>-9</v>
+        <v>-1.3</v>
       </c>
       <c r="H155">
-        <v>1.9</v>
+        <v>14.1</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2017 - (feb 2018 - jan 2021)</t>
+          <t>2017 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>44197</v>
+        <v>45931</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L155">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.9668451264966682</v>
+        <v>0.9695390422596395</v>
       </c>
       <c r="B156">
-        <v>-3.315487350333179</v>
+        <v>-3.046095774036051</v>
       </c>
       <c r="C156">
         <v>16</v>
       </c>
       <c r="D156">
-        <v>10.61030075346296</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E156">
-        <v>8.933560909445088</v>
+        <v>7.75848322084902</v>
       </c>
       <c r="F156">
-        <v>2.742589163057605</v>
+        <v>2.489980509089132</v>
       </c>
       <c r="G156">
-        <v>-9.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="H156">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2017 - (mar 2018 - feb 2021)</t>
+          <t>2017 - (jan 2018 - des 2020)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L156">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -19262,39 +19310,39 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.9658109335803406</v>
+        <v>0.964170213515919</v>
       </c>
       <c r="B157">
-        <v>-3.418906641965935</v>
+        <v>-3.582978648408097</v>
       </c>
       <c r="C157">
         <v>16</v>
       </c>
       <c r="D157">
-        <v>10.61030075346296</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E157">
-        <v>9.151038802375378</v>
+        <v>7.947888104862012</v>
       </c>
       <c r="F157">
-        <v>2.809354534492484</v>
+        <v>2.55076745108461</v>
       </c>
       <c r="G157">
-        <v>-9.4</v>
+        <v>-9</v>
       </c>
       <c r="H157">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2017 - (apr 2018 - mar 2021)</t>
+          <t>2017 - (feb 2018 - jan 2021)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L157">
         <v>2021</v>
@@ -19307,10 +19355,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.9614274620735274</v>
+        <v>0.9668451264966682</v>
       </c>
       <c r="B158">
-        <v>-3.857253792647264</v>
+        <v>-3.315487350333179</v>
       </c>
       <c r="C158">
         <v>16</v>
@@ -19319,27 +19367,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E158">
-        <v>9.443215231211056</v>
+        <v>8.933560909445088</v>
       </c>
       <c r="F158">
-        <v>2.899052239086226</v>
+        <v>2.742589163057605</v>
       </c>
       <c r="G158">
-        <v>-10</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H158">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2017 - (mai 2018 - apr 2021)</t>
+          <t>2017 - (mar 2018 - feb 2021)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L158">
         <v>2021</v>
@@ -19352,10 +19400,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.9587339766191373</v>
+        <v>0.9658109335803406</v>
       </c>
       <c r="B159">
-        <v>-4.126602338086272</v>
+        <v>-3.418906641965935</v>
       </c>
       <c r="C159">
         <v>16</v>
@@ -19364,27 +19412,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E159">
-        <v>9.685114668361569</v>
+        <v>9.151038802375378</v>
       </c>
       <c r="F159">
-        <v>2.973314986226318</v>
+        <v>2.809354534492484</v>
       </c>
       <c r="G159">
-        <v>-10.5</v>
+        <v>-9.4</v>
       </c>
       <c r="H159">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2017 - (jun 2018 - mai 2021)</t>
+          <t>2017 - (apr 2018 - mar 2021)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="K159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L159">
         <v>2021</v>
@@ -19397,10 +19445,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.9586068260005475</v>
+        <v>0.9614274620735274</v>
       </c>
       <c r="B160">
-        <v>-4.139317399945252</v>
+        <v>-3.857253792647264</v>
       </c>
       <c r="C160">
         <v>16</v>
@@ -19409,27 +19457,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E160">
-        <v>9.92251132949953</v>
+        <v>9.443215231211056</v>
       </c>
       <c r="F160">
-        <v>3.046195388205182</v>
+        <v>2.899052239086226</v>
       </c>
       <c r="G160">
-        <v>-10.6</v>
+        <v>-10</v>
       </c>
       <c r="H160">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2017 - (jul 2018 - jun 2021)</t>
+          <t>2017 - (mai 2018 - apr 2021)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>2021</v>
@@ -19442,10 +19490,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.9597056883664568</v>
+        <v>0.9587339766191373</v>
       </c>
       <c r="B161">
-        <v>-4.029431163354324</v>
+        <v>-4.126602338086272</v>
       </c>
       <c r="C161">
         <v>16</v>
@@ -19454,27 +19502,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E161">
-        <v>10.11041915180964</v>
+        <v>9.685114668361569</v>
       </c>
       <c r="F161">
-        <v>3.103882794419271</v>
+        <v>2.973314986226318</v>
       </c>
       <c r="G161">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="H161">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2017 - (aug 2018 - jul 2021)</t>
+          <t>2017 - (jun 2018 - mai 2021)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="K161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L161">
         <v>2021</v>
@@ -19487,10 +19535,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.9594248974170713</v>
+        <v>0.9586068260005475</v>
       </c>
       <c r="B162">
-        <v>-4.057510258292874</v>
+        <v>-4.139317399945252</v>
       </c>
       <c r="C162">
         <v>16</v>
@@ -19499,27 +19547,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E162">
-        <v>10.33560588287082</v>
+        <v>9.92251132949953</v>
       </c>
       <c r="F162">
-        <v>3.173014767048438</v>
+        <v>3.046195388205182</v>
       </c>
       <c r="G162">
-        <v>-10.8</v>
+        <v>-10.6</v>
       </c>
       <c r="H162">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2017 - (sep 2018 - aug 2021)</t>
+          <t>2017 - (jul 2018 - jun 2021)</t>
         </is>
       </c>
       <c r="J162" s="2">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="K162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L162">
         <v>2021</v>
@@ -19532,10 +19580,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.9606463034950996</v>
+        <v>0.9597056883664568</v>
       </c>
       <c r="B163">
-        <v>-3.935369650490039</v>
+        <v>-4.029431163354324</v>
       </c>
       <c r="C163">
         <v>16</v>
@@ -19544,27 +19592,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E163">
-        <v>10.59949885526272</v>
+        <v>10.11041915180964</v>
       </c>
       <c r="F163">
-        <v>3.254029494952055</v>
+        <v>3.103882794419271</v>
       </c>
       <c r="G163">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2017 - (okt 2018 - sep 2021)</t>
+          <t>2017 - (aug 2018 - jul 2021)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="K163">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L163">
         <v>2021</v>
@@ -19577,10 +19625,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.9611248459047372</v>
+        <v>0.9594248974170713</v>
       </c>
       <c r="B164">
-        <v>-3.887515409526276</v>
+        <v>-4.057510258292874</v>
       </c>
       <c r="C164">
         <v>16</v>
@@ -19589,27 +19637,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E164">
-        <v>10.65877842195911</v>
+        <v>10.33560588287082</v>
       </c>
       <c r="F164">
-        <v>3.272228228789575</v>
+        <v>3.173014767048438</v>
       </c>
       <c r="G164">
-        <v>-10.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H164">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2017 - (nov 2018 - okt 2021)</t>
+          <t>2017 - (sep 2018 - aug 2021)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="K164">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L164">
         <v>2021</v>
@@ -19622,10 +19670,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.9619371586881726</v>
+        <v>0.9606463034950996</v>
       </c>
       <c r="B165">
-        <v>-3.806284131182736</v>
+        <v>-3.935369650490039</v>
       </c>
       <c r="C165">
         <v>16</v>
@@ -19634,27 +19682,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E165">
-        <v>10.71181136295715</v>
+        <v>10.59949885526272</v>
       </c>
       <c r="F165">
-        <v>3.288509258352214</v>
+        <v>3.254029494952055</v>
       </c>
       <c r="G165">
-        <v>-10.8</v>
+        <v>-10.9</v>
       </c>
       <c r="H165">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2017 - (des 2018 - nov 2021)</t>
+          <t>2017 - (okt 2018 - sep 2021)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="K165">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L165">
         <v>2021</v>
@@ -19667,10 +19715,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.9619575442493054</v>
+        <v>0.9611248459047372</v>
       </c>
       <c r="B166">
-        <v>-3.804245575069465</v>
+        <v>-3.887515409526276</v>
       </c>
       <c r="C166">
         <v>16</v>
@@ -19679,27 +19727,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E166">
-        <v>10.76018114356986</v>
+        <v>10.65877842195911</v>
       </c>
       <c r="F166">
-        <v>3.303358705003171</v>
+        <v>3.272228228789575</v>
       </c>
       <c r="G166">
-        <v>-10.8</v>
+        <v>-10.9</v>
       </c>
       <c r="H166">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2017 - (jan 2019 - des 2021)</t>
+          <t>2017 - (nov 2018 - okt 2021)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>44531</v>
+        <v>44470</v>
       </c>
       <c r="K166">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L166">
         <v>2021</v>
@@ -19712,10 +19760,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.9597509512225307</v>
+        <v>0.9619371586881726</v>
       </c>
       <c r="B167">
-        <v>-4.024904877746927</v>
+        <v>-3.806284131182736</v>
       </c>
       <c r="C167">
         <v>16</v>
@@ -19724,30 +19772,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E167">
-        <v>10.83135758253204</v>
+        <v>10.71181136295715</v>
       </c>
       <c r="F167">
-        <v>3.325209759934282</v>
+        <v>3.288509258352214</v>
       </c>
       <c r="G167">
-        <v>-11.1</v>
+        <v>-10.8</v>
       </c>
       <c r="H167">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2017 - (feb 2019 - jan 2022)</t>
+          <t>2017 - (des 2018 - nov 2021)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L167">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -19757,10 +19805,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.9586360798566361</v>
+        <v>0.9619575442493054</v>
       </c>
       <c r="B168">
-        <v>-4.136392014336387</v>
+        <v>-3.804245575069465</v>
       </c>
       <c r="C168">
         <v>16</v>
@@ -19769,30 +19817,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E168">
-        <v>10.90990599884984</v>
+        <v>10.76018114356986</v>
       </c>
       <c r="F168">
-        <v>3.349324000330938</v>
+        <v>3.303358705003171</v>
       </c>
       <c r="G168">
-        <v>-11.3</v>
+        <v>-10.8</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2017 - (mar 2019 - feb 2022)</t>
+          <t>2017 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L168">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -19802,10 +19850,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.9597552701973471</v>
+        <v>0.9597509512225307</v>
       </c>
       <c r="B169">
-        <v>-4.024472980265292</v>
+        <v>-4.024904877746927</v>
       </c>
       <c r="C169">
         <v>16</v>
@@ -19814,27 +19862,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E169">
-        <v>10.99838924909</v>
+        <v>10.83135758253204</v>
       </c>
       <c r="F169">
-        <v>3.376488219132449</v>
+        <v>3.325209759934282</v>
       </c>
       <c r="G169">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H169">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2017 - (apr 2019 - mar 2022)</t>
+          <t>2017 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>2022</v>
@@ -19847,10 +19895,10 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.9601004426646597</v>
+        <v>0.9586360798566361</v>
       </c>
       <c r="B170">
-        <v>-3.989955733534034</v>
+        <v>-4.136392014336387</v>
       </c>
       <c r="C170">
         <v>16</v>
@@ -19859,27 +19907,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E170">
-        <v>11.06620942778035</v>
+        <v>10.90990599884984</v>
       </c>
       <c r="F170">
-        <v>3.397308907433362</v>
+        <v>3.349324000330938</v>
       </c>
       <c r="G170">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H170">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2017 - (mai 2019 - apr 2022)</t>
+          <t>2017 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L170">
         <v>2022</v>
@@ -19892,10 +19940,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.9609467313833162</v>
+        <v>0.9597552701973471</v>
       </c>
       <c r="B171">
-        <v>-3.905326861668379</v>
+        <v>-4.024472980265292</v>
       </c>
       <c r="C171">
         <v>16</v>
@@ -19904,27 +19952,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E171">
-        <v>11.14022536763792</v>
+        <v>10.99838924909</v>
       </c>
       <c r="F171">
-        <v>3.420031684678018</v>
+        <v>3.376488219132449</v>
       </c>
       <c r="G171">
         <v>-11.2</v>
       </c>
       <c r="H171">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2017 - (jun 2019 - mai 2022)</t>
+          <t>2017 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L171">
         <v>2022</v>
@@ -19937,10 +19985,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.9620428871916739</v>
+        <v>0.9601004426646597</v>
       </c>
       <c r="B172">
-        <v>-3.795711280832614</v>
+        <v>-3.989955733534034</v>
       </c>
       <c r="C172">
         <v>16</v>
@@ -19949,27 +19997,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E172">
-        <v>11.21235954532746</v>
+        <v>11.06620942778035</v>
       </c>
       <c r="F172">
-        <v>3.44217676389366</v>
+        <v>3.397308907433362</v>
       </c>
       <c r="G172">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H172">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2017 - (jul 2019 - jun 2022)</t>
+          <t>2017 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K172">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L172">
         <v>2022</v>
@@ -19982,10 +20030,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.9610712906170161</v>
+        <v>0.9609467313833162</v>
       </c>
       <c r="B173">
-        <v>-3.892870938298387</v>
+        <v>-3.905326861668379</v>
       </c>
       <c r="C173">
         <v>16</v>
@@ -19994,27 +20042,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E173">
-        <v>11.24476515963723</v>
+        <v>11.14022536763792</v>
       </c>
       <c r="F173">
-        <v>3.452125236572034</v>
+        <v>3.420031684678018</v>
       </c>
       <c r="G173">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="H173">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2017 - (aug 2019 - jul 2022)</t>
+          <t>2017 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L173">
         <v>2022</v>
@@ -20027,10 +20075,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.961503879134609</v>
+        <v>0.9620428871916739</v>
       </c>
       <c r="B174">
-        <v>-3.8496120865391</v>
+        <v>-3.795711280832614</v>
       </c>
       <c r="C174">
         <v>16</v>
@@ -20039,27 +20087,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E174">
-        <v>11.3345691685895</v>
+        <v>11.21235954532746</v>
       </c>
       <c r="F174">
-        <v>3.479694926223023</v>
+        <v>3.44217676389366</v>
       </c>
       <c r="G174">
-        <v>-11.3</v>
+        <v>-11.1</v>
       </c>
       <c r="H174">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2017 - (sep 2019 - aug 2022)</t>
+          <t>2017 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K174">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L174">
         <v>2022</v>
@@ -20072,10 +20120,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.9621852406016166</v>
+        <v>0.9610712906170161</v>
       </c>
       <c r="B175">
-        <v>-3.781475939838341</v>
+        <v>-3.892870938298387</v>
       </c>
       <c r="C175">
         <v>16</v>
@@ -20084,27 +20132,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E175">
-        <v>11.42727625357157</v>
+        <v>11.24476515963723</v>
       </c>
       <c r="F175">
-        <v>3.508155855653938</v>
+        <v>3.452125236572034</v>
       </c>
       <c r="G175">
         <v>-11.3</v>
       </c>
       <c r="H175">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2017 - (okt 2019 - sep 2022)</t>
+          <t>2017 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K175">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L175">
         <v>2022</v>
@@ -20117,10 +20165,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.9612409399477974</v>
+        <v>0.961503879134609</v>
       </c>
       <c r="B176">
-        <v>-3.875906005220264</v>
+        <v>-3.8496120865391</v>
       </c>
       <c r="C176">
         <v>16</v>
@@ -20129,27 +20177,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E176">
-        <v>11.49167741751164</v>
+        <v>11.3345691685895</v>
       </c>
       <c r="F176">
-        <v>3.527926911798369</v>
+        <v>3.479694926223023</v>
       </c>
       <c r="G176">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H176">
         <v>3.6</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2017 - (nov 2019 - okt 2022)</t>
+          <t>2017 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J176" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L176">
         <v>2022</v>
@@ -20162,10 +20210,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.961564920645345</v>
+        <v>0.9621852406016166</v>
       </c>
       <c r="B177">
-        <v>-3.843507935465496</v>
+        <v>-3.781475939838341</v>
       </c>
       <c r="C177">
         <v>16</v>
@@ -20174,27 +20222,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E177">
-        <v>11.58847652593545</v>
+        <v>11.42727625357157</v>
       </c>
       <c r="F177">
-        <v>3.557644085996632</v>
+        <v>3.508155855653938</v>
       </c>
       <c r="G177">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H177">
         <v>3.7</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2017 - (des 2019 - nov 2022)</t>
+          <t>2017 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J177" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K177">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L177">
         <v>2022</v>
@@ -20207,10 +20255,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.9619521311342023</v>
+        <v>0.9612409399477974</v>
       </c>
       <c r="B178">
-        <v>-3.80478688657977</v>
+        <v>-3.875906005220264</v>
       </c>
       <c r="C178">
         <v>16</v>
@@ -20219,27 +20267,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E178">
-        <v>11.65790791680961</v>
+        <v>11.49167741751164</v>
       </c>
       <c r="F178">
-        <v>3.578959413906487</v>
+        <v>3.527926911798369</v>
       </c>
       <c r="G178">
         <v>-11.4</v>
       </c>
       <c r="H178">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2017 - (jan 2020 - des 2022)</t>
+          <t>2017 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J178" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K178">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L178">
         <v>2022</v>
@@ -20252,10 +20300,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.9619918657025115</v>
+        <v>0.961564920645345</v>
       </c>
       <c r="B179">
-        <v>-3.800813429748851</v>
+        <v>-3.843507935465496</v>
       </c>
       <c r="C179">
         <v>16</v>
@@ -20264,30 +20312,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E179">
-        <v>11.75534847991465</v>
+        <v>11.58847652593545</v>
       </c>
       <c r="F179">
-        <v>3.608873513684053</v>
+        <v>3.557644085996632</v>
       </c>
       <c r="G179">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="H179">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2017 - (feb 2020 - jan 2023)</t>
+          <t>2017 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J179" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K179">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L179">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -20297,10 +20345,10 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.963162480636701</v>
+        <v>0.9619521311342023</v>
       </c>
       <c r="B180">
-        <v>-3.683751936329904</v>
+        <v>-3.80478688657977</v>
       </c>
       <c r="C180">
         <v>16</v>
@@ -20309,30 +20357,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E180">
-        <v>11.84587048289182</v>
+        <v>11.65790791680961</v>
       </c>
       <c r="F180">
-        <v>3.636663626372598</v>
+        <v>3.578959413906487</v>
       </c>
       <c r="G180">
         <v>-11.4</v>
       </c>
       <c r="H180">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2017 - (mar 2020 - feb 2023)</t>
+          <t>2017 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J180" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L180">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -20342,10 +20390,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.9703475271409718</v>
+        <v>0.9619918657025115</v>
       </c>
       <c r="B181">
-        <v>-2.965247285902817</v>
+        <v>-3.800813429748851</v>
       </c>
       <c r="C181">
         <v>16</v>
@@ -20354,27 +20402,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E181">
-        <v>11.94551815007545</v>
+        <v>11.75534847991465</v>
       </c>
       <c r="F181">
-        <v>3.667255303634558</v>
+        <v>3.608873513684053</v>
       </c>
       <c r="G181">
-        <v>-10.8</v>
+        <v>-11.5</v>
       </c>
       <c r="H181">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2017 - (apr 2020 - mar 2023)</t>
+          <t>2017 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J181" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L181">
         <v>2023</v>
@@ -20387,10 +20435,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.9759167587869967</v>
+        <v>0.963162480636701</v>
       </c>
       <c r="B182">
-        <v>-2.408324121300331</v>
+        <v>-3.683751936329904</v>
       </c>
       <c r="C182">
         <v>16</v>
@@ -20399,27 +20447,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E182">
-        <v>12.03760363176126</v>
+        <v>11.84587048289182</v>
       </c>
       <c r="F182">
-        <v>3.695525401830162</v>
+        <v>3.636663626372598</v>
       </c>
       <c r="G182">
-        <v>-10.3</v>
+        <v>-11.4</v>
       </c>
       <c r="H182">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2017 - (mai 2020 - apr 2023)</t>
+          <t>2017 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J182" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L182">
         <v>2023</v>
@@ -20432,10 +20480,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.9801733676068747</v>
+        <v>0.9703475271409718</v>
       </c>
       <c r="B183">
-        <v>-1.982663239312532</v>
+        <v>-2.965247285902817</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -20444,27 +20492,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E183">
-        <v>12.07703541657093</v>
+        <v>11.94551815007545</v>
       </c>
       <c r="F183">
-        <v>3.707630897812699</v>
+        <v>3.667255303634558</v>
       </c>
       <c r="G183">
-        <v>-9.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H183">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2017 - (jun 2020 - mai 2023)</t>
+          <t>2017 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J183" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -20477,39 +20525,39 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.9948209775732973</v>
+        <v>0.9759167587869967</v>
       </c>
       <c r="B184">
-        <v>-0.5179022426702651</v>
+        <v>-2.408324121300331</v>
       </c>
       <c r="C184">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D184">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E184">
-        <v>10.36586462349356</v>
+        <v>12.03760363176126</v>
       </c>
       <c r="F184">
-        <v>3.277757143017989</v>
+        <v>3.695525401830162</v>
       </c>
       <c r="G184">
-        <v>-7.5</v>
+        <v>-10.3</v>
       </c>
       <c r="H184">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2017 - (jul 2020 - jun 2023)</t>
+          <t>2017 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J184" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -20522,39 +20570,39 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.9942673816687044</v>
+        <v>0.9801733676068747</v>
       </c>
       <c r="B185">
-        <v>-0.5732618331295569</v>
+        <v>-1.982663239312532</v>
       </c>
       <c r="C185">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D185">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E185">
-        <v>10.4058698479928</v>
+        <v>12.07703541657093</v>
       </c>
       <c r="F185">
-        <v>3.290407068048189</v>
+        <v>3.707630897812699</v>
       </c>
       <c r="G185">
-        <v>-7.6</v>
+        <v>-9.9</v>
       </c>
       <c r="H185">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2017 - (aug 2020 - jul 2023)</t>
+          <t>2017 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J185" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K185">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -20567,10 +20615,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.9966455747332787</v>
+        <v>0.9948209775732973</v>
       </c>
       <c r="B186">
-        <v>-0.335442526672125</v>
+        <v>-0.5179022426702651</v>
       </c>
       <c r="C186">
         <v>15</v>
@@ -20579,27 +20627,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E186">
-        <v>10.45633794562811</v>
+        <v>10.36586462349356</v>
       </c>
       <c r="F186">
-        <v>3.306365424975191</v>
+        <v>3.277757143017989</v>
       </c>
       <c r="G186">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="H186">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2017 - (sep 2020 - aug 2023)</t>
+          <t>2017 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J186" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K186">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -20612,10 +20660,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.9979802962508248</v>
+        <v>0.9942673816687044</v>
       </c>
       <c r="B187">
-        <v>-0.201970374917515</v>
+        <v>-0.5732618331295569</v>
       </c>
       <c r="C187">
         <v>15</v>
@@ -20624,27 +20672,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E187">
-        <v>10.52614904089932</v>
+        <v>10.4058698479928</v>
       </c>
       <c r="F187">
-        <v>3.328440169774432</v>
+        <v>3.290407068048189</v>
       </c>
       <c r="G187">
-        <v>-7.3</v>
+        <v>-7.6</v>
       </c>
       <c r="H187">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2017 - (okt 2020 - sep 2023)</t>
+          <t>2017 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J187" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -20657,10 +20705,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.9992944146845429</v>
+        <v>0.9966455747332787</v>
       </c>
       <c r="B188">
-        <v>-0.07055853154570579</v>
+        <v>-0.335442526672125</v>
       </c>
       <c r="C188">
         <v>15</v>
@@ -20669,27 +20717,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E188">
-        <v>10.57452717267413</v>
+        <v>10.45633794562811</v>
       </c>
       <c r="F188">
-        <v>3.343737665231913</v>
+        <v>3.306365424975191</v>
       </c>
       <c r="G188">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="H188">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2017 - (nov 2020 - okt 2023)</t>
+          <t>2017 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J188" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -20702,10 +20750,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>1.003053611556422</v>
+        <v>0.9979802962508248</v>
       </c>
       <c r="B189">
-        <v>0.305361155642192</v>
+        <v>-0.201970374917515</v>
       </c>
       <c r="C189">
         <v>15</v>
@@ -20714,27 +20762,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E189">
-        <v>10.72906739071991</v>
+        <v>10.52614904089932</v>
       </c>
       <c r="F189">
-        <v>3.39260433694544</v>
+        <v>3.328440169774432</v>
       </c>
       <c r="G189">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="H189">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2017 - (des 2020 - nov 2023)</t>
+          <t>2017 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J189" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -20747,10 +20795,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1.00501036704832</v>
+        <v>0.9992944146845429</v>
       </c>
       <c r="B190">
-        <v>0.5010367048319697</v>
+        <v>-0.07055853154570579</v>
       </c>
       <c r="C190">
         <v>15</v>
@@ -20759,27 +20807,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E190">
-        <v>10.78659311361639</v>
+        <v>10.57452717267413</v>
       </c>
       <c r="F190">
-        <v>3.410794363149703</v>
+        <v>3.343737665231913</v>
       </c>
       <c r="G190">
-        <v>-6.8</v>
+        <v>-7.2</v>
       </c>
       <c r="H190">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2017 - (jan 2021 - des 2023)</t>
+          <t>2017 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J190" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K190">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -20792,10 +20840,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.00996812592723</v>
+        <v>1.003053611556422</v>
       </c>
       <c r="B191">
-        <v>0.9968125927229732</v>
+        <v>0.305361155642192</v>
       </c>
       <c r="C191">
         <v>15</v>
@@ -20804,30 +20852,30 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E191">
-        <v>10.85468873657609</v>
+        <v>10.72906739071991</v>
       </c>
       <c r="F191">
-        <v>3.43232666389561</v>
+        <v>3.39260433694544</v>
       </c>
       <c r="G191">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="H191">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2017 - (feb 2021 - jan 2024)</t>
+          <t>2017 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J191" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L191">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -20837,10 +20885,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.012465578001672</v>
+        <v>1.00501036704832</v>
       </c>
       <c r="B192">
-        <v>1.246557800167181</v>
+        <v>0.5010367048319697</v>
       </c>
       <c r="C192">
         <v>15</v>
@@ -20849,30 +20897,30 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E192">
-        <v>10.90421635132052</v>
+        <v>10.78659311361639</v>
       </c>
       <c r="F192">
-        <v>3.447987633713532</v>
+        <v>3.410794363149703</v>
       </c>
       <c r="G192">
-        <v>-6.1</v>
+        <v>-6.8</v>
       </c>
       <c r="H192">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2017 - (mar 2021 - feb 2024)</t>
+          <t>2017 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J192" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L192">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -20882,10 +20930,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>1.014038578662618</v>
+        <v>1.00996812592723</v>
       </c>
       <c r="B193">
-        <v>1.403857866261848</v>
+        <v>0.9968125927229732</v>
       </c>
       <c r="C193">
         <v>15</v>
@@ -20894,27 +20942,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E193">
-        <v>10.94918801049247</v>
+        <v>10.85468873657609</v>
       </c>
       <c r="F193">
-        <v>3.462207979284143</v>
+        <v>3.43232666389561</v>
       </c>
       <c r="G193">
-        <v>-6</v>
+        <v>-6.4</v>
       </c>
       <c r="H193">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2017 - (apr 2021 - mar 2024)</t>
+          <t>2017 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J193" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L193">
         <v>2024</v>
@@ -20927,10 +20975,10 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.020061367677722</v>
+        <v>1.012465578001672</v>
       </c>
       <c r="B194">
-        <v>2.006136767772171</v>
+        <v>1.246557800167181</v>
       </c>
       <c r="C194">
         <v>15</v>
@@ -20939,27 +20987,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E194">
-        <v>10.99856732151766</v>
+        <v>10.90421635132052</v>
       </c>
       <c r="F194">
-        <v>3.477822054453839</v>
+        <v>3.447987633713532</v>
       </c>
       <c r="G194">
-        <v>-5.5</v>
+        <v>-6.1</v>
       </c>
       <c r="H194">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2017 - (mai 2021 - apr 2024)</t>
+          <t>2017 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J194" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L194">
         <v>2024</v>
@@ -20972,10 +21020,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.02409103227904</v>
+        <v>1.014038578662618</v>
       </c>
       <c r="B195">
-        <v>2.409103227903975</v>
+        <v>1.403857866261848</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -20984,27 +21032,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E195">
-        <v>11.06281001372117</v>
+        <v>10.94918801049247</v>
       </c>
       <c r="F195">
-        <v>3.498136032197624</v>
+        <v>3.462207979284143</v>
       </c>
       <c r="G195">
-        <v>-5.1</v>
+        <v>-6</v>
       </c>
       <c r="H195">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2017 - (jun 2021 - mai 2024)</t>
+          <t>2017 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J195" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L195">
         <v>2024</v>
@@ -21017,10 +21065,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.025176128027309</v>
+        <v>1.020061367677722</v>
       </c>
       <c r="B196">
-        <v>2.517612802730884</v>
+        <v>2.006136767772171</v>
       </c>
       <c r="C196">
         <v>15</v>
@@ -21029,27 +21077,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E196">
-        <v>11.0898647519569</v>
+        <v>10.99856732151766</v>
       </c>
       <c r="F196">
-        <v>3.506690925081685</v>
+        <v>3.477822054453839</v>
       </c>
       <c r="G196">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="H196">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2017 - (jul 2021 - jun 2024)</t>
+          <t>2017 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J196" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L196">
         <v>2024</v>
@@ -21062,10 +21110,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>1.025594699083975</v>
+        <v>1.02409103227904</v>
       </c>
       <c r="B197">
-        <v>2.55946990839746</v>
+        <v>2.409103227903975</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -21074,27 +21122,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E197">
-        <v>11.08671218646669</v>
+        <v>11.06281001372117</v>
       </c>
       <c r="F197">
-        <v>3.505694062356801</v>
+        <v>3.498136032197624</v>
       </c>
       <c r="G197">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="H197">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2017 - (aug 2021 - jul 2024)</t>
+          <t>2017 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J197" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L197">
         <v>2024</v>
@@ -21107,39 +21155,39 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.02789696347985</v>
+        <v>1.025176128027309</v>
       </c>
       <c r="B198">
-        <v>2.789696347985027</v>
+        <v>2.517612802730884</v>
       </c>
       <c r="C198">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D198">
-        <v>9.588940799852368</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E198">
-        <v>9.928665999590711</v>
+        <v>11.0898647519569</v>
       </c>
       <c r="F198">
-        <v>3.206310539296221</v>
+        <v>3.506690925081685</v>
       </c>
       <c r="G198">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H198">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2017 - (sep 2021 - aug 2024)</t>
+          <t>2017 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J198" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L198">
         <v>2024</v>
@@ -21152,39 +21200,39 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>1.028551294671151</v>
+        <v>1.025594699083975</v>
       </c>
       <c r="B199">
-        <v>2.855129467115147</v>
+        <v>2.55946990839746</v>
       </c>
       <c r="C199">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D199">
-        <v>9.588940799852368</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E199">
-        <v>9.953030487966979</v>
+        <v>11.08671218646669</v>
       </c>
       <c r="F199">
-        <v>3.214178677459858</v>
+        <v>3.505694062356801</v>
       </c>
       <c r="G199">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H199">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2017 - (okt 2021 - sep 2024)</t>
+          <t>2017 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J199" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K199">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L199">
         <v>2024</v>
@@ -21197,10 +21245,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.029945105495576</v>
+        <v>1.02789696347985</v>
       </c>
       <c r="B200">
-        <v>2.994510549557594</v>
+        <v>2.789696347985027</v>
       </c>
       <c r="C200">
         <v>16</v>
@@ -21209,27 +21257,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E200">
-        <v>9.960282292416442</v>
+        <v>9.928665999590711</v>
       </c>
       <c r="F200">
-        <v>3.216520536581334</v>
+        <v>3.206310539296221</v>
       </c>
       <c r="G200">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="H200">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2017 - (nov 2021 - okt 2024)</t>
+          <t>2017 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J200" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L200">
         <v>2024</v>
@@ -21242,10 +21290,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>1.030709342574809</v>
+        <v>1.028551294671151</v>
       </c>
       <c r="B201">
-        <v>3.070934257480884</v>
+        <v>2.855129467115147</v>
       </c>
       <c r="C201">
         <v>16</v>
@@ -21254,27 +21302,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E201">
-        <v>9.956547233511424</v>
+        <v>9.953030487966979</v>
       </c>
       <c r="F201">
-        <v>3.215314356543397</v>
+        <v>3.214178677459858</v>
       </c>
       <c r="G201">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="H201">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2017 - (des 2021 - nov 2024)</t>
+          <t>2017 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J201" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K201">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L201">
         <v>2024</v>
@@ -21287,10 +21335,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>1.032196576005914</v>
+        <v>1.029945105495576</v>
       </c>
       <c r="B202">
-        <v>3.219657600591397</v>
+        <v>2.994510549557594</v>
       </c>
       <c r="C202">
         <v>16</v>
@@ -21299,27 +21347,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E202">
-        <v>9.983196319382209</v>
+        <v>9.960282292416442</v>
       </c>
       <c r="F202">
-        <v>3.223920270459086</v>
+        <v>3.216520536581334</v>
       </c>
       <c r="G202">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="H202">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2017 - (jan 2022 - des 2024)</t>
+          <t>2017 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J202" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K202">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L202">
         <v>2024</v>
@@ -21332,42 +21380,42 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>1.039704193531284</v>
+        <v>1.030709342574809</v>
       </c>
       <c r="B203">
-        <v>3.970419353128429</v>
+        <v>3.070934257480884</v>
       </c>
       <c r="C203">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D203">
-        <v>8.874553462116815</v>
+        <v>9.588940799852368</v>
       </c>
       <c r="E203">
-        <v>10.04512645511289</v>
+        <v>9.956547233511424</v>
       </c>
       <c r="F203">
-        <v>3.371957974774543</v>
+        <v>3.215314356543397</v>
       </c>
       <c r="G203">
-        <v>-3.3</v>
+        <v>-3.8</v>
       </c>
       <c r="H203">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2017 - (feb 2022 - jan 2025)</t>
+          <t>2017 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J203" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L203">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
@@ -21377,42 +21425,42 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>1.042259593194298</v>
+        <v>1.032196576005914</v>
       </c>
       <c r="B204">
-        <v>4.225959319429751</v>
+        <v>3.219657600591397</v>
       </c>
       <c r="C204">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D204">
-        <v>8.874553462116815</v>
+        <v>9.588940799852368</v>
       </c>
       <c r="E204">
-        <v>10.07389405577629</v>
+        <v>9.983196319382209</v>
       </c>
       <c r="F204">
-        <v>3.381614711392601</v>
+        <v>3.223920270459086</v>
       </c>
       <c r="G204">
-        <v>-3</v>
+        <v>-3.7</v>
       </c>
       <c r="H204">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2017 - (mar 2022 - feb 2025)</t>
+          <t>2017 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J204" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L204">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -21422,39 +21470,39 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>1.043095469446691</v>
+        <v>1.039704193531284</v>
       </c>
       <c r="B205">
-        <v>4.309546944669118</v>
+        <v>3.970419353128429</v>
       </c>
       <c r="C205">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D205">
-        <v>8.099360170069106</v>
+        <v>8.874553462116815</v>
       </c>
       <c r="E205">
-        <v>10.44788938512527</v>
+        <v>10.04512645511289</v>
       </c>
       <c r="F205">
-        <v>3.671159130936204</v>
+        <v>3.371957974774543</v>
       </c>
       <c r="G205">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="H205">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2017 - (apr 2022 - mar 2025)</t>
+          <t>2017 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J205" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>2025</v>
@@ -21467,39 +21515,39 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.045212518050453</v>
+        <v>1.042259593194298</v>
       </c>
       <c r="B206">
-        <v>4.521251805045257</v>
+        <v>4.225959319429751</v>
       </c>
       <c r="C206">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D206">
-        <v>8.099360170069106</v>
+        <v>8.874553462116815</v>
       </c>
       <c r="E206">
-        <v>10.44860058213459</v>
+        <v>10.07389405577629</v>
       </c>
       <c r="F206">
-        <v>3.671409029963501</v>
+        <v>3.381614711392601</v>
       </c>
       <c r="G206">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="H206">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2017 - (mai 2022 - apr 2025)</t>
+          <t>2017 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J206" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L206">
         <v>2025</v>
@@ -21512,10 +21560,10 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>1.046430755146646</v>
+        <v>1.043095469446691</v>
       </c>
       <c r="B207">
-        <v>4.64307551466463</v>
+        <v>4.309546944669118</v>
       </c>
       <c r="C207">
         <v>14</v>
@@ -21524,27 +21572,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E207">
-        <v>10.43821363186825</v>
+        <v>10.44788938512527</v>
       </c>
       <c r="F207">
-        <v>3.667759283502062</v>
+        <v>3.671159130936204</v>
       </c>
       <c r="G207">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="H207">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2017 - (jun 2022 - mai 2025)</t>
+          <t>2017 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J207" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L207">
         <v>2025</v>
@@ -21557,10 +21605,10 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.047519812776852</v>
+        <v>1.045212518050453</v>
       </c>
       <c r="B208">
-        <v>4.751981277685169</v>
+        <v>4.521251805045257</v>
       </c>
       <c r="C208">
         <v>14</v>
@@ -21569,27 +21617,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E208">
-        <v>10.40557674739005</v>
+        <v>10.44860058213459</v>
       </c>
       <c r="F208">
-        <v>3.656291398263153</v>
+        <v>3.671409029963501</v>
       </c>
       <c r="G208">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="H208">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2017 - (jul 2022 - jun 2025)</t>
+          <t>2017 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J208" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L208">
         <v>2025</v>
@@ -21602,10 +21650,10 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>1.050454321852575</v>
+        <v>1.046430755146646</v>
       </c>
       <c r="B209">
-        <v>5.045432185257481</v>
+        <v>4.64307551466463</v>
       </c>
       <c r="C209">
         <v>14</v>
@@ -21614,27 +21662,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E209">
-        <v>10.39321486426171</v>
+        <v>10.43821363186825</v>
       </c>
       <c r="F209">
-        <v>3.651947703718799</v>
+        <v>3.667759283502062</v>
       </c>
       <c r="G209">
-        <v>-2.8</v>
+        <v>-3.3</v>
       </c>
       <c r="H209">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2017 - (aug 2022 - jul 2025)</t>
+          <t>2017 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J209" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K209">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L209">
         <v>2025</v>
@@ -21647,10 +21695,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>1.05182543911017</v>
+        <v>1.047519812776852</v>
       </c>
       <c r="B210">
-        <v>5.182543911016979</v>
+        <v>4.751981277685169</v>
       </c>
       <c r="C210">
         <v>14</v>
@@ -21659,27 +21707,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E210">
-        <v>10.36464297243693</v>
+        <v>10.40557674739005</v>
       </c>
       <c r="F210">
-        <v>3.641908167723137</v>
+        <v>3.656291398263153</v>
       </c>
       <c r="G210">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
       <c r="H210">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2017 - (sep 2022 - aug 2025)</t>
+          <t>2017 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J210" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K210">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L210">
         <v>2025</v>
@@ -21692,10 +21740,10 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>1.053365610652387</v>
+        <v>1.050454321852575</v>
       </c>
       <c r="B211">
-        <v>5.336561065238676</v>
+        <v>5.045432185257481</v>
       </c>
       <c r="C211">
         <v>14</v>
@@ -21704,32 +21752,167 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E211">
-        <v>10.30901943632614</v>
+        <v>10.39321486426171</v>
       </c>
       <c r="F211">
-        <v>3.622363277366734</v>
+        <v>3.651947703718799</v>
       </c>
       <c r="G211">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="H211">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2017 - (okt 2022 - sep 2025)</t>
+          <t>2017 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J211" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K211">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L211">
         <v>2025</v>
       </c>
       <c r="M211" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>1.05182543911017</v>
+      </c>
+      <c r="B212">
+        <v>5.182543911016979</v>
+      </c>
+      <c r="C212">
+        <v>14</v>
+      </c>
+      <c r="D212">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E212">
+        <v>10.36464297243693</v>
+      </c>
+      <c r="F212">
+        <v>3.641908167723137</v>
+      </c>
+      <c r="G212">
+        <v>-2.7</v>
+      </c>
+      <c r="H212">
+        <v>13.1</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>2017 - (sep 2022 - aug 2025)</t>
+        </is>
+      </c>
+      <c r="J212" s="2">
+        <v>45870</v>
+      </c>
+      <c r="K212">
+        <v>8</v>
+      </c>
+      <c r="L212">
+        <v>2025</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>1.053365610652387</v>
+      </c>
+      <c r="B213">
+        <v>5.336561065238676</v>
+      </c>
+      <c r="C213">
+        <v>14</v>
+      </c>
+      <c r="D213">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E213">
+        <v>10.30901943632614</v>
+      </c>
+      <c r="F213">
+        <v>3.622363277366734</v>
+      </c>
+      <c r="G213">
+        <v>-2.5</v>
+      </c>
+      <c r="H213">
+        <v>13.2</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2017 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J213" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K213">
+        <v>9</v>
+      </c>
+      <c r="L213">
+        <v>2025</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>1.055972687147791</v>
+      </c>
+      <c r="B214">
+        <v>5.597268714779058</v>
+      </c>
+      <c r="C214">
+        <v>14</v>
+      </c>
+      <c r="D214">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E214">
+        <v>10.26899988342133</v>
+      </c>
+      <c r="F214">
+        <v>3.608301284398887</v>
+      </c>
+      <c r="G214">
+        <v>-2.2</v>
+      </c>
+      <c r="H214">
+        <v>13.4</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>2017 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J214" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K214">
+        <v>10</v>
+      </c>
+      <c r="L214">
+        <v>2025</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>

--- a/data_indexpoints_tidy/tallmateriale_952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_952.xlsx
@@ -10,7 +10,8 @@
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
     <sheet name="punktindeks_maned" sheetId="2" r:id="rId2"/>
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
-    <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
+    <sheet name="byindeks_hittil" sheetId="4" r:id="rId4"/>
+    <sheet name="by_glid_indeks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2890,6 +2891,9 @@
       <c r="N17">
         <v>3.33</v>
       </c>
+      <c r="O17">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3618,6 +3622,9 @@
       <c r="L33">
         <v>-4.03</v>
       </c>
+      <c r="O33">
+        <v>-2.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4018,6 +4025,9 @@
       <c r="N41">
         <v>-0.34</v>
       </c>
+      <c r="O41">
+        <v>-1.57</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4400,6 +4410,9 @@
       <c r="N49">
         <v>9.15</v>
       </c>
+      <c r="O49">
+        <v>7.21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4842,6 +4855,9 @@
       <c r="N57">
         <v>2.19</v>
       </c>
+      <c r="O57">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5284,6 +5300,9 @@
       <c r="N65">
         <v>3.99</v>
       </c>
+      <c r="O65">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5624,6 +5643,9 @@
       <c r="N73">
         <v>-0.16</v>
       </c>
+      <c r="O73">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6039,6 +6061,9 @@
       <c r="N81">
         <v>4.19</v>
       </c>
+      <c r="O81">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6472,6 +6497,9 @@
       <c r="N89">
         <v>5.94</v>
       </c>
+      <c r="O89">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6914,6 +6942,9 @@
       <c r="N97">
         <v>1.67</v>
       </c>
+      <c r="O97">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7227,6 +7258,9 @@
       <c r="K105">
         <v>3.07</v>
       </c>
+      <c r="O105">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7651,6 +7685,9 @@
       <c r="N113">
         <v>4.29</v>
       </c>
+      <c r="O113">
+        <v>4.26</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8746,6 +8783,9 @@
       <c r="N137">
         <v>-4.68</v>
       </c>
+      <c r="O137">
+        <v>-5.9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9176,6 +9216,9 @@
       <c r="N145">
         <v>3.64</v>
       </c>
+      <c r="O145">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9609,6 +9652,9 @@
       <c r="N153">
         <v>-1.19</v>
       </c>
+      <c r="O153">
+        <v>-1.87</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9937,6 +9983,9 @@
       <c r="N161">
         <v>0.49</v>
       </c>
+      <c r="O161">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11407,6 +11456,9 @@
       </c>
       <c r="H193">
         <v>-5.37</v>
+      </c>
+      <c r="O193">
+        <v>2.84</v>
       </c>
     </row>
   </sheetData>
@@ -11880,7 +11932,7 @@
         <v>2025</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>2.1</v>
@@ -11892,7 +11944,7 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>0.5877296743816052</v>
+        <v>0.5802234273237961</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -11911,19 +11963,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>okt</t>
+          <t>nov</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>jan-okt</t>
+          <t>jan-nov</t>
         </is>
       </c>
       <c r="M9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -12257,7 +12309,902 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>index_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>year_from_to</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_name_short</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-1.7</v>
+      </c>
+      <c r="E2">
+        <v>0.9833</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>0.9476403581004782</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>-3.6</v>
+      </c>
+      <c r="N2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>0.9701</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>2.012560066009668</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>-6.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>-5.5</v>
+      </c>
+      <c r="E4">
+        <v>0.9454</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>1.151233134750659</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>-7.8</v>
+      </c>
+      <c r="N4">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3.4</v>
+      </c>
+      <c r="E5">
+        <v>1.0338</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1.418147157393434</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>0.6</v>
+      </c>
+      <c r="N5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3.2</v>
+      </c>
+      <c r="E6">
+        <v>1.0321</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1.256649381480081</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>0.7</v>
+      </c>
+      <c r="N6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1.03</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0.6834145969969313</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>1.7</v>
+      </c>
+      <c r="N7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <v>1.0126</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>0.4371188047247874</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>0.4</v>
+      </c>
+      <c r="N8">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2.1</v>
+      </c>
+      <c r="E9">
+        <v>1.0207</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0.5802234273237961</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>-4.6</v>
+      </c>
+      <c r="E10">
+        <v>0.9538993299999999</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>2.18213918768536</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2017-2019</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>-8.9</v>
+      </c>
+      <c r="N10">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.901816426582</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>2.337206335353726</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2017-2020</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>-14.4</v>
+      </c>
+      <c r="N11">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>-6.8</v>
+      </c>
+      <c r="E12">
+        <v>0.9322978218004716</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>2.733998285522817</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2017-2021</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>-12.2</v>
+      </c>
+      <c r="N12">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-3.8</v>
+      </c>
+      <c r="E13">
+        <v>0.9622245818802667</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>3.055501192185594</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2017-2022</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>-0.9</v>
+      </c>
+      <c r="E14">
+        <v>0.9910913193366747</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>3.215202461791598</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2017-2023</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M14">
+        <v>-7.2</v>
+      </c>
+      <c r="N14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
+        <v>1.003579069960317</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>3.284441330750847</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2017-2024</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M15">
+        <v>-6</v>
+      </c>
+      <c r="N15">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>2.4</v>
+      </c>
+      <c r="E16">
+        <v>1.024353156708495</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>3.402678143828664</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2017-2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Nord-Jæren</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>jan-nov</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>-4.3</v>
+      </c>
+      <c r="N16">
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16070,55 +17017,55 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.9879609276070108</v>
+        <v>1.070077121790191</v>
       </c>
       <c r="B85">
-        <v>-1.203907239298918</v>
+        <v>7.007712179019077</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>9.708715062397884</v>
+        <v>8.799748768564134</v>
       </c>
       <c r="E85">
-        <v>7.210987530330344</v>
+        <v>9.620858184233562</v>
       </c>
       <c r="F85">
-        <v>2.3142691542539</v>
+        <v>3.243236928253737</v>
       </c>
       <c r="G85">
-        <v>-6.1</v>
+        <v>0.1</v>
       </c>
       <c r="H85">
-        <v>3.7</v>
+        <v>14</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2017 - (jan 2018 - des 2019)</t>
+          <t>2017 - (des 2024 - nov 2025)</t>
         </is>
       </c>
       <c r="J85" s="2">
-        <v>43800</v>
+        <v>45962</v>
       </c>
       <c r="K85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L85">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.9874850176692227</v>
+        <v>0.9879609276070108</v>
       </c>
       <c r="B86">
-        <v>-1.25149823307773</v>
+        <v>-1.203907239298918</v>
       </c>
       <c r="C86">
         <v>16</v>
@@ -16127,30 +17074,30 @@
         <v>9.708715062397884</v>
       </c>
       <c r="E86">
-        <v>7.481656125633299</v>
+        <v>7.210987530330344</v>
       </c>
       <c r="F86">
-        <v>2.401136587944519</v>
+        <v>2.3142691542539</v>
       </c>
       <c r="G86">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="H86">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2017 - (feb 2018 - jan 2020)</t>
+          <t>2017 - (jan 2018 - des 2019)</t>
         </is>
       </c>
       <c r="J86" s="2">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L86">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -16160,10 +17107,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.9874543595879336</v>
+        <v>0.9874850176692227</v>
       </c>
       <c r="B87">
-        <v>-1.254564041206641</v>
+        <v>-1.25149823307773</v>
       </c>
       <c r="C87">
         <v>16</v>
@@ -16172,27 +17119,27 @@
         <v>9.708715062397884</v>
       </c>
       <c r="E87">
-        <v>7.740917700647547</v>
+        <v>7.481656125633299</v>
       </c>
       <c r="F87">
-        <v>2.484343092381682</v>
+        <v>2.401136587944519</v>
       </c>
       <c r="G87">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2017 - (mar 2018 - feb 2020)</t>
+          <t>2017 - (feb 2018 - jan 2020)</t>
         </is>
       </c>
       <c r="J87" s="2">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>2020</v>
@@ -16205,39 +17152,39 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.9778441480580894</v>
+        <v>0.9874543595879336</v>
       </c>
       <c r="B88">
-        <v>-2.215585194191061</v>
+        <v>-1.254564041206641</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>10.08008585295178</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E88">
-        <v>7.92045045733889</v>
+        <v>7.740917700647547</v>
       </c>
       <c r="F88">
-        <v>2.494696778745903</v>
+        <v>2.484343092381682</v>
       </c>
       <c r="G88">
-        <v>-7.5</v>
+        <v>-6.5</v>
       </c>
       <c r="H88">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2017 - (apr 2018 - mar 2020)</t>
+          <t>2017 - (mar 2018 - feb 2020)</t>
         </is>
       </c>
       <c r="J88" s="2">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88">
         <v>2020</v>
@@ -16250,10 +17197,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.9657144971739698</v>
+        <v>0.9778441480580894</v>
       </c>
       <c r="B89">
-        <v>-3.428550282603016</v>
+        <v>-2.215585194191061</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -16262,27 +17209,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E89">
-        <v>8.203657413354435</v>
+        <v>7.92045045733889</v>
       </c>
       <c r="F89">
-        <v>2.583898205444529</v>
+        <v>2.494696778745903</v>
       </c>
       <c r="G89">
-        <v>-8.9</v>
+        <v>-7.5</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2017 - (mai 2018 - apr 2020)</t>
+          <t>2017 - (apr 2018 - mar 2020)</t>
         </is>
       </c>
       <c r="J89" s="2">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>2020</v>
@@ -16295,10 +17242,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.959771361595765</v>
+        <v>0.9657144971739698</v>
       </c>
       <c r="B90">
-        <v>-4.022863840423496</v>
+        <v>-3.428550282603016</v>
       </c>
       <c r="C90">
         <v>17</v>
@@ -16307,27 +17254,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E90">
-        <v>8.427599261957019</v>
+        <v>8.203657413354435</v>
       </c>
       <c r="F90">
-        <v>2.654432957393848</v>
+        <v>2.583898205444529</v>
       </c>
       <c r="G90">
-        <v>-9.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H90">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2017 - (jun 2018 - mai 2020)</t>
+          <t>2017 - (mai 2018 - apr 2020)</t>
         </is>
       </c>
       <c r="J90" s="2">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L90">
         <v>2020</v>
@@ -16340,10 +17287,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.9585237451275026</v>
+        <v>0.959771361595765</v>
       </c>
       <c r="B91">
-        <v>-4.14762548724974</v>
+        <v>-4.022863840423496</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -16352,27 +17299,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E91">
-        <v>8.672259038901375</v>
+        <v>8.427599261957019</v>
       </c>
       <c r="F91">
-        <v>2.731493215610127</v>
+        <v>2.654432957393848</v>
       </c>
       <c r="G91">
-        <v>-9.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H91">
         <v>1.6</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2017 - (jul 2018 - jun 2020)</t>
+          <t>2017 - (jun 2018 - mai 2020)</t>
         </is>
       </c>
       <c r="J91" s="2">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="K91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L91">
         <v>2020</v>
@@ -16385,10 +17332,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.9602778582992354</v>
+        <v>0.9585237451275026</v>
       </c>
       <c r="B92">
-        <v>-3.97221417007646</v>
+        <v>-4.14762548724974</v>
       </c>
       <c r="C92">
         <v>17</v>
@@ -16397,27 +17344,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E92">
-        <v>8.885184996369736</v>
+        <v>8.672259038901375</v>
       </c>
       <c r="F92">
-        <v>2.798558302762527</v>
+        <v>2.731493215610127</v>
       </c>
       <c r="G92">
         <v>-9.9</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2017 - (aug 2018 - jul 2020)</t>
+          <t>2017 - (jul 2018 - jun 2020)</t>
         </is>
       </c>
       <c r="J92" s="2">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="K92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L92">
         <v>2020</v>
@@ -16430,10 +17377,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.9587112489839741</v>
+        <v>0.9602778582992354</v>
       </c>
       <c r="B93">
-        <v>-4.128875101602592</v>
+        <v>-3.97221417007646</v>
       </c>
       <c r="C93">
         <v>17</v>
@@ -16442,27 +17389,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E93">
-        <v>9.155538157969554</v>
+        <v>8.885184996369736</v>
       </c>
       <c r="F93">
-        <v>2.883711182008418</v>
+        <v>2.798558302762527</v>
       </c>
       <c r="G93">
-        <v>-10.2</v>
+        <v>-9.9</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2017 - (sep 2018 - aug 2020)</t>
+          <t>2017 - (aug 2018 - jul 2020)</t>
         </is>
       </c>
       <c r="J93" s="2">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="K93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L93">
         <v>2020</v>
@@ -16475,10 +17422,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.9592722316116373</v>
+        <v>0.9587112489839741</v>
       </c>
       <c r="B94">
-        <v>-4.072776838836267</v>
+        <v>-4.128875101602592</v>
       </c>
       <c r="C94">
         <v>17</v>
@@ -16487,27 +17434,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E94">
-        <v>9.406354151714996</v>
+        <v>9.155538157969554</v>
       </c>
       <c r="F94">
-        <v>2.962710457999715</v>
+        <v>2.883711182008418</v>
       </c>
       <c r="G94">
-        <v>-10.4</v>
+        <v>-10.2</v>
       </c>
       <c r="H94">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2017 - (okt 2018 - sep 2020)</t>
+          <t>2017 - (sep 2018 - aug 2020)</t>
         </is>
       </c>
       <c r="J94" s="2">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="K94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L94">
         <v>2020</v>
@@ -16520,10 +17467,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.9601405315311156</v>
+        <v>0.9592722316116373</v>
       </c>
       <c r="B95">
-        <v>-3.985946846888444</v>
+        <v>-4.072776838836267</v>
       </c>
       <c r="C95">
         <v>17</v>
@@ -16532,27 +17479,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E95">
-        <v>9.423797696865458</v>
+        <v>9.406354151714996</v>
       </c>
       <c r="F95">
-        <v>2.968204634894218</v>
+        <v>2.962710457999715</v>
       </c>
       <c r="G95">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H95">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2017 - (nov 2018 - okt 2020)</t>
+          <t>2017 - (okt 2018 - sep 2020)</t>
         </is>
       </c>
       <c r="J95" s="2">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="K95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L95">
         <v>2020</v>
@@ -16565,10 +17512,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.9577514905488856</v>
+        <v>0.9601405315311156</v>
       </c>
       <c r="B96">
-        <v>-4.224850945111436</v>
+        <v>-3.985946846888444</v>
       </c>
       <c r="C96">
         <v>17</v>
@@ -16577,27 +17524,27 @@
         <v>10.08008585295178</v>
       </c>
       <c r="E96">
-        <v>9.339926167903673</v>
+        <v>9.423797696865458</v>
       </c>
       <c r="F96">
-        <v>2.941787698855487</v>
+        <v>2.968204634894218</v>
       </c>
       <c r="G96">
-        <v>-10.5</v>
+        <v>-10.3</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2017 - (des 2018 - nov 2020)</t>
+          <t>2017 - (nov 2018 - okt 2020)</t>
         </is>
       </c>
       <c r="J96" s="2">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="K96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L96">
         <v>2020</v>
@@ -16610,39 +17557,39 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.9649471190987148</v>
+        <v>0.9577514905488856</v>
       </c>
       <c r="B97">
-        <v>-3.505288090128522</v>
+        <v>-4.224850945111436</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>10.07164375761517</v>
+        <v>10.08008585295178</v>
       </c>
       <c r="E97">
-        <v>10.15405732979248</v>
+        <v>9.339926167903673</v>
       </c>
       <c r="F97">
-        <v>3.199553917381309</v>
+        <v>2.941787698855487</v>
       </c>
       <c r="G97">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="H97">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2017 - (jan 2019 - des 2020)</t>
+          <t>2017 - (des 2018 - nov 2020)</t>
         </is>
       </c>
       <c r="J97" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="K97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L97">
         <v>2020</v>
@@ -16655,10 +17602,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.9571399449946169</v>
+        <v>0.9649471190987148</v>
       </c>
       <c r="B98">
-        <v>-4.286005500538314</v>
+        <v>-3.505288090128522</v>
       </c>
       <c r="C98">
         <v>16</v>
@@ -16667,30 +17614,30 @@
         <v>10.07164375761517</v>
       </c>
       <c r="E98">
-        <v>10.25931060956035</v>
+        <v>10.15405732979248</v>
       </c>
       <c r="F98">
-        <v>3.232719334185727</v>
+        <v>3.199553917381309</v>
       </c>
       <c r="G98">
-        <v>-11.2</v>
+        <v>-10.3</v>
       </c>
       <c r="H98">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2017 - (feb 2019 - jan 2021)</t>
+          <t>2017 - (jan 2019 - des 2020)</t>
         </is>
       </c>
       <c r="J98" s="2">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L98">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -16700,10 +17647,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.955778615001093</v>
+        <v>0.9571399449946169</v>
       </c>
       <c r="B99">
-        <v>-4.422138499890704</v>
+        <v>-4.286005500538314</v>
       </c>
       <c r="C99">
         <v>16</v>
@@ -16712,27 +17659,27 @@
         <v>10.07164375761517</v>
       </c>
       <c r="E99">
-        <v>10.31778960598628</v>
+        <v>10.25931060956035</v>
       </c>
       <c r="F99">
-        <v>3.251146126158835</v>
+        <v>3.232719334185727</v>
       </c>
       <c r="G99">
-        <v>-11.4</v>
+        <v>-11.2</v>
       </c>
       <c r="H99">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2017 - (mar 2019 - feb 2021)</t>
+          <t>2017 - (feb 2019 - jan 2021)</t>
         </is>
       </c>
       <c r="J99" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>2021</v>
@@ -16745,39 +17692,39 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.9626097188040862</v>
+        <v>0.955778615001093</v>
       </c>
       <c r="B100">
-        <v>-3.739028119591381</v>
+        <v>-4.422138499890704</v>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>13.66355640922477</v>
+        <v>10.07164375761517</v>
       </c>
       <c r="E100">
-        <v>11.60830635826531</v>
+        <v>10.31778960598628</v>
       </c>
       <c r="F100">
-        <v>3.140414573763437</v>
+        <v>3.251146126158835</v>
       </c>
       <c r="G100">
-        <v>-10.5</v>
+        <v>-11.4</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2017 - (apr 2019 - mar 2021)</t>
+          <t>2017 - (mar 2019 - feb 2021)</t>
         </is>
       </c>
       <c r="J100" s="2">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>2021</v>
@@ -16790,10 +17737,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.9594025417739129</v>
+        <v>0.9626097188040862</v>
       </c>
       <c r="B101">
-        <v>-4.059745822608707</v>
+        <v>-3.739028119591381</v>
       </c>
       <c r="C101">
         <v>15</v>
@@ -16802,27 +17749,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E101">
-        <v>11.70434723080529</v>
+        <v>11.60830635826531</v>
       </c>
       <c r="F101">
-        <v>3.166396671969068</v>
+        <v>3.140414573763437</v>
       </c>
       <c r="G101">
-        <v>-10.9</v>
+        <v>-10.5</v>
       </c>
       <c r="H101">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2017 - (mai 2019 - apr 2021)</t>
+          <t>2017 - (apr 2019 - mar 2021)</t>
         </is>
       </c>
       <c r="J101" s="2">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>2021</v>
@@ -16835,10 +17782,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.9557794958910142</v>
+        <v>0.9594025417739129</v>
       </c>
       <c r="B102">
-        <v>-4.422050410898581</v>
+        <v>-4.059745822608707</v>
       </c>
       <c r="C102">
         <v>15</v>
@@ -16847,27 +17794,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E102">
-        <v>11.81416703857966</v>
+        <v>11.70434723080529</v>
       </c>
       <c r="F102">
-        <v>3.196106408616135</v>
+        <v>3.166396671969068</v>
       </c>
       <c r="G102">
-        <v>-11.3</v>
+        <v>-10.9</v>
       </c>
       <c r="H102">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2017 - (jun 2019 - mai 2021)</t>
+          <t>2017 - (mai 2019 - apr 2021)</t>
         </is>
       </c>
       <c r="J102" s="2">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L102">
         <v>2021</v>
@@ -16880,10 +17827,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.9572906938419247</v>
+        <v>0.9557794958910142</v>
       </c>
       <c r="B103">
-        <v>-4.270930615807533</v>
+        <v>-4.422050410898581</v>
       </c>
       <c r="C103">
         <v>15</v>
@@ -16892,27 +17839,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E103">
-        <v>11.92310188000059</v>
+        <v>11.81416703857966</v>
       </c>
       <c r="F103">
-        <v>3.225576733832468</v>
+        <v>3.196106408616135</v>
       </c>
       <c r="G103">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H103">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2017 - (jul 2019 - jun 2021)</t>
+          <t>2017 - (jun 2019 - mai 2021)</t>
         </is>
       </c>
       <c r="J103" s="2">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="K103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L103">
         <v>2021</v>
@@ -16925,10 +17872,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.9582014644396226</v>
+        <v>0.9572906938419247</v>
       </c>
       <c r="B104">
-        <v>-4.179853556037738</v>
+        <v>-4.270930615807533</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -16937,27 +17884,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E104">
-        <v>11.97256048878576</v>
+        <v>11.92310188000059</v>
       </c>
       <c r="F104">
-        <v>3.238956854156084</v>
+        <v>3.225576733832468</v>
       </c>
       <c r="G104">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H104">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2017 - (aug 2019 - jul 2021)</t>
+          <t>2017 - (jul 2019 - jun 2021)</t>
         </is>
       </c>
       <c r="J104" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="K104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L104">
         <v>2021</v>
@@ -16970,10 +17917,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.9583835740335892</v>
+        <v>0.9582014644396226</v>
       </c>
       <c r="B105">
-        <v>-4.16164259664108</v>
+        <v>-4.179853556037738</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -16982,27 +17929,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E105">
-        <v>12.05179812923049</v>
+        <v>11.97256048878576</v>
       </c>
       <c r="F105">
-        <v>3.260393145822016</v>
+        <v>3.238956854156084</v>
       </c>
       <c r="G105">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H105">
         <v>2.8</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2017 - (sep 2019 - aug 2021)</t>
+          <t>2017 - (aug 2019 - jul 2021)</t>
         </is>
       </c>
       <c r="J105" s="2">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="K105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L105">
         <v>2021</v>
@@ -17015,10 +17962,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.9597738850535416</v>
+        <v>0.9583835740335892</v>
       </c>
       <c r="B106">
-        <v>-4.022611494645845</v>
+        <v>-4.16164259664108</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -17027,27 +17974,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E106">
-        <v>12.18638536594979</v>
+        <v>12.05179812923049</v>
       </c>
       <c r="F106">
-        <v>3.296803256529931</v>
+        <v>3.260393145822016</v>
       </c>
       <c r="G106">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2017 - (okt 2019 - sep 2021)</t>
+          <t>2017 - (sep 2019 - aug 2021)</t>
         </is>
       </c>
       <c r="J106" s="2">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="K106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L106">
         <v>2021</v>
@@ -17060,10 +18007,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.9589577312986745</v>
+        <v>0.9597738850535416</v>
       </c>
       <c r="B107">
-        <v>-4.104226870132555</v>
+        <v>-4.022611494645845</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -17072,27 +18019,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E107">
-        <v>12.28037753955587</v>
+        <v>12.18638536594979</v>
       </c>
       <c r="F107">
-        <v>3.322231116779508</v>
+        <v>3.296803256529931</v>
       </c>
       <c r="G107">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2017 - (nov 2019 - okt 2021)</t>
+          <t>2017 - (okt 2019 - sep 2021)</t>
         </is>
       </c>
       <c r="J107" s="2">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107">
         <v>2021</v>
@@ -17105,10 +18052,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.9590234065189924</v>
+        <v>0.9589577312986745</v>
       </c>
       <c r="B108">
-        <v>-4.097659348100757</v>
+        <v>-4.104226870132555</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -17117,27 +18064,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E108">
-        <v>12.41670967175809</v>
+        <v>12.28037753955587</v>
       </c>
       <c r="F108">
-        <v>3.359113276986732</v>
+        <v>3.322231116779508</v>
       </c>
       <c r="G108">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="H108">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2017 - (des 2019 - nov 2021)</t>
+          <t>2017 - (nov 2019 - okt 2021)</t>
         </is>
       </c>
       <c r="J108" s="2">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="K108">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L108">
         <v>2021</v>
@@ -17150,10 +18097,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.9585302857969438</v>
+        <v>0.9590234065189924</v>
       </c>
       <c r="B109">
-        <v>-4.146971420305623</v>
+        <v>-4.097659348100757</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -17162,27 +18109,27 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E109">
-        <v>12.49817132411413</v>
+        <v>12.41670967175809</v>
       </c>
       <c r="F109">
-        <v>3.38115123432231</v>
+        <v>3.359113276986732</v>
       </c>
       <c r="G109">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H109">
         <v>3.1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2017 - (jan 2020 - des 2021)</t>
+          <t>2017 - (des 2019 - nov 2021)</t>
         </is>
       </c>
       <c r="J109" s="2">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="K109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L109">
         <v>2021</v>
@@ -17195,10 +18142,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.9542375752946668</v>
+        <v>0.9585302857969438</v>
       </c>
       <c r="B110">
-        <v>-4.57624247053332</v>
+        <v>-4.146971420305623</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -17207,30 +18154,30 @@
         <v>13.66355640922477</v>
       </c>
       <c r="E110">
-        <v>12.62761118108983</v>
+        <v>12.49817132411413</v>
       </c>
       <c r="F110">
-        <v>3.416168815761564</v>
+        <v>3.38115123432231</v>
       </c>
       <c r="G110">
-        <v>-11.9</v>
+        <v>-11.4</v>
       </c>
       <c r="H110">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2017 - (feb 2020 - jan 2022)</t>
+          <t>2017 - (jan 2020 - des 2021)</t>
         </is>
       </c>
       <c r="J110" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L110">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -17240,39 +18187,39 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.9425734094107816</v>
+        <v>0.9542375752946668</v>
       </c>
       <c r="B111">
-        <v>-5.74265905892184</v>
+        <v>-4.57624247053332</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>10.61030075346296</v>
+        <v>13.66355640922477</v>
       </c>
       <c r="E111">
-        <v>11.53646702783137</v>
+        <v>12.62761118108983</v>
       </c>
       <c r="F111">
-        <v>3.541677251794437</v>
+        <v>3.416168815761564</v>
       </c>
       <c r="G111">
-        <v>-13.3</v>
+        <v>-11.9</v>
       </c>
       <c r="H111">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2017 - (mar 2020 - feb 2022)</t>
+          <t>2017 - (feb 2020 - jan 2022)</t>
         </is>
       </c>
       <c r="J111" s="2">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>2022</v>
@@ -17285,10 +18232,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.9525863478657235</v>
+        <v>0.9425734094107816</v>
       </c>
       <c r="B112">
-        <v>-4.741365213427651</v>
+        <v>-5.74265905892184</v>
       </c>
       <c r="C112">
         <v>16</v>
@@ -17297,27 +18244,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E112">
-        <v>11.6614462560826</v>
+        <v>11.53646702783137</v>
       </c>
       <c r="F112">
-        <v>3.580045678503963</v>
+        <v>3.541677251794437</v>
       </c>
       <c r="G112">
-        <v>-12.4</v>
+        <v>-13.3</v>
       </c>
       <c r="H112">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2017 - (apr 2020 - mar 2022)</t>
+          <t>2017 - (mar 2020 - feb 2022)</t>
         </is>
       </c>
       <c r="J112" s="2">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>2022</v>
@@ -17330,10 +18277,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.9613020390448642</v>
+        <v>0.9525863478657235</v>
       </c>
       <c r="B113">
-        <v>-3.869796095513578</v>
+        <v>-4.741365213427651</v>
       </c>
       <c r="C113">
         <v>16</v>
@@ -17342,27 +18289,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E113">
-        <v>11.75062734322839</v>
+        <v>11.6614462560826</v>
       </c>
       <c r="F113">
-        <v>3.60742413213908</v>
+        <v>3.580045678503963</v>
       </c>
       <c r="G113">
-        <v>-11.6</v>
+        <v>-12.4</v>
       </c>
       <c r="H113">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2017 - (mai 2020 - apr 2022)</t>
+          <t>2017 - (apr 2020 - mar 2022)</t>
         </is>
       </c>
       <c r="J113" s="2">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <v>2022</v>
@@ -17375,10 +18322,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.9681920131896906</v>
+        <v>0.9613020390448642</v>
       </c>
       <c r="B114">
-        <v>-3.180798681030939</v>
+        <v>-3.869796095513578</v>
       </c>
       <c r="C114">
         <v>16</v>
@@ -17387,27 +18334,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E114">
-        <v>11.76290448598951</v>
+        <v>11.75062734322839</v>
       </c>
       <c r="F114">
-        <v>3.611193195677266</v>
+        <v>3.60742413213908</v>
       </c>
       <c r="G114">
-        <v>-10.9</v>
+        <v>-11.6</v>
       </c>
       <c r="H114">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2017 - (jun 2020 - mai 2022)</t>
+          <t>2017 - (mai 2020 - apr 2022)</t>
         </is>
       </c>
       <c r="J114" s="2">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <v>2022</v>
@@ -17420,10 +18367,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.9695189750122273</v>
+        <v>0.9681920131896906</v>
       </c>
       <c r="B115">
-        <v>-3.048102498777272</v>
+        <v>-3.180798681030939</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -17432,27 +18379,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E115">
-        <v>11.76610647221753</v>
+        <v>11.76290448598951</v>
       </c>
       <c r="F115">
-        <v>3.612176200418406</v>
+        <v>3.611193195677266</v>
       </c>
       <c r="G115">
-        <v>-10.7</v>
+        <v>-10.9</v>
       </c>
       <c r="H115">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2017 - (jul 2020 - jun 2022)</t>
+          <t>2017 - (jun 2020 - mai 2022)</t>
         </is>
       </c>
       <c r="J115" s="2">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L115">
         <v>2022</v>
@@ -17465,10 +18412,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9664770346696642</v>
+        <v>0.9695189750122273</v>
       </c>
       <c r="B116">
-        <v>-3.352296533033583</v>
+        <v>-3.048102498777272</v>
       </c>
       <c r="C116">
         <v>16</v>
@@ -17477,27 +18424,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E116">
-        <v>11.8180493859371</v>
+        <v>11.76610647221753</v>
       </c>
       <c r="F116">
-        <v>3.628122593319169</v>
+        <v>3.612176200418406</v>
       </c>
       <c r="G116">
-        <v>-11.1</v>
+        <v>-10.7</v>
       </c>
       <c r="H116">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2017 - (aug 2020 - jul 2022)</t>
+          <t>2017 - (jul 2020 - jun 2022)</t>
         </is>
       </c>
       <c r="J116" s="2">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="K116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L116">
         <v>2022</v>
@@ -17510,10 +18457,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.9682046245961539</v>
+        <v>0.9664770346696642</v>
       </c>
       <c r="B117">
-        <v>-3.179537540384614</v>
+        <v>-3.352296533033583</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -17522,27 +18469,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E117">
-        <v>11.92333933589442</v>
+        <v>11.8180493859371</v>
       </c>
       <c r="F117">
-        <v>3.660446442527665</v>
+        <v>3.628122593319169</v>
       </c>
       <c r="G117">
-        <v>-11</v>
+        <v>-11.1</v>
       </c>
       <c r="H117">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2017 - (sep 2020 - aug 2022)</t>
+          <t>2017 - (aug 2020 - jul 2022)</t>
         </is>
       </c>
       <c r="J117" s="2">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="K117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L117">
         <v>2022</v>
@@ -17555,10 +18502,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.9689867045558758</v>
+        <v>0.9682046245961539</v>
       </c>
       <c r="B118">
-        <v>-3.101329544412423</v>
+        <v>-3.179537540384614</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -17567,27 +18514,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E118">
-        <v>12.02147773103613</v>
+        <v>11.92333933589442</v>
       </c>
       <c r="F118">
-        <v>3.690574775644078</v>
+        <v>3.660446442527665</v>
       </c>
       <c r="G118">
         <v>-11</v>
       </c>
       <c r="H118">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2017 - (okt 2020 - sep 2022)</t>
+          <t>2017 - (sep 2020 - aug 2022)</t>
         </is>
       </c>
       <c r="J118" s="2">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="K118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L118">
         <v>2022</v>
@@ -17600,10 +18547,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.9691629187283778</v>
+        <v>0.9689867045558758</v>
       </c>
       <c r="B119">
-        <v>-3.083708127162221</v>
+        <v>-3.101329544412423</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -17612,10 +18559,10 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E119">
-        <v>12.06715622947667</v>
+        <v>12.02147773103613</v>
       </c>
       <c r="F119">
-        <v>3.704598002896641</v>
+        <v>3.690574775644078</v>
       </c>
       <c r="G119">
         <v>-11</v>
@@ -17625,14 +18572,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2017 - (nov 2020 - okt 2022)</t>
+          <t>2017 - (okt 2020 - sep 2022)</t>
         </is>
       </c>
       <c r="J119" s="2">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="K119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L119">
         <v>2022</v>
@@ -17645,10 +18592,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.9740234929865565</v>
+        <v>0.9691629187283778</v>
       </c>
       <c r="B120">
-        <v>-2.597650701344345</v>
+        <v>-3.083708127162221</v>
       </c>
       <c r="C120">
         <v>16</v>
@@ -17657,27 +18604,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E120">
-        <v>12.27044871078527</v>
+        <v>12.06715622947667</v>
       </c>
       <c r="F120">
-        <v>3.767008475251355</v>
+        <v>3.704598002896641</v>
       </c>
       <c r="G120">
-        <v>-10.6</v>
+        <v>-11</v>
       </c>
       <c r="H120">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2017 - (des 2020 - nov 2022)</t>
+          <t>2017 - (nov 2020 - okt 2022)</t>
         </is>
       </c>
       <c r="J120" s="2">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="K120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L120">
         <v>2022</v>
@@ -17690,10 +18637,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.9761394451285212</v>
+        <v>0.9740234929865565</v>
       </c>
       <c r="B121">
-        <v>-2.386055487147876</v>
+        <v>-2.597650701344345</v>
       </c>
       <c r="C121">
         <v>16</v>
@@ -17702,27 +18649,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E121">
-        <v>12.34038062626538</v>
+        <v>12.27044871078527</v>
       </c>
       <c r="F121">
-        <v>3.788477463428829</v>
+        <v>3.767008475251355</v>
       </c>
       <c r="G121">
-        <v>-10.5</v>
+        <v>-10.6</v>
       </c>
       <c r="H121">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2017 - (jan 2021 - des 2022)</t>
+          <t>2017 - (des 2020 - nov 2022)</t>
         </is>
       </c>
       <c r="J121" s="2">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="K121">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L121">
         <v>2022</v>
@@ -17735,10 +18682,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.9831062970250763</v>
+        <v>0.9761394451285212</v>
       </c>
       <c r="B122">
-        <v>-1.689370297492365</v>
+        <v>-2.386055487147876</v>
       </c>
       <c r="C122">
         <v>16</v>
@@ -17747,30 +18694,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E122">
-        <v>12.4622849894196</v>
+        <v>12.34038062626538</v>
       </c>
       <c r="F122">
-        <v>3.825901911384705</v>
+        <v>3.788477463428829</v>
       </c>
       <c r="G122">
-        <v>-9.800000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="H122">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2017 - (feb 2021 - jan 2023)</t>
+          <t>2017 - (jan 2021 - des 2022)</t>
         </is>
       </c>
       <c r="J122" s="2">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L122">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -17780,10 +18727,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.9868518847446988</v>
+        <v>0.9831062970250763</v>
       </c>
       <c r="B123">
-        <v>-1.314811525530124</v>
+        <v>-1.689370297492365</v>
       </c>
       <c r="C123">
         <v>16</v>
@@ -17792,27 +18739,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E123">
-        <v>12.56084303270841</v>
+        <v>12.4622849894196</v>
       </c>
       <c r="F123">
-        <v>3.856159075822939</v>
+        <v>3.825901911384705</v>
       </c>
       <c r="G123">
-        <v>-9.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H123">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2017 - (mar 2021 - feb 2023)</t>
+          <t>2017 - (feb 2021 - jan 2023)</t>
         </is>
       </c>
       <c r="J123" s="2">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -17825,10 +18772,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.9915842718303322</v>
+        <v>0.9868518847446988</v>
       </c>
       <c r="B124">
-        <v>-0.8415728169667847</v>
+        <v>-1.314811525530124</v>
       </c>
       <c r="C124">
         <v>16</v>
@@ -17837,27 +18784,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E124">
-        <v>12.61661754965772</v>
+        <v>12.56084303270841</v>
       </c>
       <c r="F124">
-        <v>3.873281764895135</v>
+        <v>3.856159075822939</v>
       </c>
       <c r="G124">
-        <v>-9.1</v>
+        <v>-9.5</v>
       </c>
       <c r="H124">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2017 - (apr 2021 - mar 2023)</t>
+          <t>2017 - (mar 2021 - feb 2023)</t>
         </is>
       </c>
       <c r="J124" s="2">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -17870,10 +18817,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.9949428794064208</v>
+        <v>0.9915842718303322</v>
       </c>
       <c r="B125">
-        <v>-0.5057120593579212</v>
+        <v>-0.8415728169667847</v>
       </c>
       <c r="C125">
         <v>16</v>
@@ -17882,27 +18829,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E125">
-        <v>12.65183170913736</v>
+        <v>12.61661754965772</v>
       </c>
       <c r="F125">
-        <v>3.884092456527956</v>
+        <v>3.873281764895135</v>
       </c>
       <c r="G125">
-        <v>-8.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="H125">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2017 - (mai 2021 - apr 2023)</t>
+          <t>2017 - (apr 2021 - mar 2023)</t>
         </is>
       </c>
       <c r="J125" s="2">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -17915,39 +18862,39 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.01177659893465</v>
+        <v>0.9949428794064208</v>
       </c>
       <c r="B126">
-        <v>1.177659893465011</v>
+        <v>-0.5057120593579212</v>
       </c>
       <c r="C126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D126">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E126">
-        <v>10.9773468376159</v>
+        <v>12.65183170913736</v>
       </c>
       <c r="F126">
-        <v>3.471111992610117</v>
+        <v>3.884092456527956</v>
       </c>
       <c r="G126">
-        <v>-6.3</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H126">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2017 - (jun 2021 - mai 2023)</t>
+          <t>2017 - (mai 2021 - apr 2023)</t>
         </is>
       </c>
       <c r="J126" s="2">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -17960,10 +18907,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.014307553414969</v>
+        <v>1.01177659893465</v>
       </c>
       <c r="B127">
-        <v>1.430755341496881</v>
+        <v>1.177659893465011</v>
       </c>
       <c r="C127">
         <v>15</v>
@@ -17972,27 +18919,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E127">
-        <v>11.04513894194084</v>
+        <v>10.9773468376159</v>
       </c>
       <c r="F127">
-        <v>3.492548318692138</v>
+        <v>3.471111992610117</v>
       </c>
       <c r="G127">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="H127">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2017 - (jul 2021 - jun 2023)</t>
+          <t>2017 - (jun 2021 - mai 2023)</t>
         </is>
       </c>
       <c r="J127" s="2">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -18005,10 +18952,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.013836011531186</v>
+        <v>1.014307553414969</v>
       </c>
       <c r="B128">
-        <v>1.383601153118619</v>
+        <v>1.430755341496881</v>
       </c>
       <c r="C128">
         <v>15</v>
@@ -18017,10 +18964,10 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E128">
-        <v>11.03783182054563</v>
+        <v>11.04513894194084</v>
       </c>
       <c r="F128">
-        <v>3.490237757034429</v>
+        <v>3.492548318692138</v>
       </c>
       <c r="G128">
         <v>-6.1</v>
@@ -18030,14 +18977,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2017 - (aug 2021 - jul 2023)</t>
+          <t>2017 - (jul 2021 - jun 2023)</t>
         </is>
       </c>
       <c r="J128" s="2">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -18050,10 +18997,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.015638691787501</v>
+        <v>1.013836011531186</v>
       </c>
       <c r="B129">
-        <v>1.563869178750132</v>
+        <v>1.383601153118619</v>
       </c>
       <c r="C129">
         <v>15</v>
@@ -18062,27 +19009,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E129">
-        <v>11.04705636540031</v>
+        <v>11.03783182054563</v>
       </c>
       <c r="F129">
-        <v>3.493154621076813</v>
+        <v>3.490237757034429</v>
       </c>
       <c r="G129">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="H129">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2017 - (sep 2021 - aug 2023)</t>
+          <t>2017 - (aug 2021 - jul 2023)</t>
         </is>
       </c>
       <c r="J129" s="2">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="K129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -18095,39 +19042,39 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.017786847486633</v>
+        <v>1.015638691787501</v>
       </c>
       <c r="B130">
-        <v>1.778684748663317</v>
+        <v>1.563869178750132</v>
       </c>
       <c r="C130">
         <v>15</v>
       </c>
       <c r="D130">
-        <v>8.799748768564134</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E130">
-        <v>10.28660463816255</v>
+        <v>11.04705636540031</v>
       </c>
       <c r="F130">
-        <v>3.467663215689806</v>
+        <v>3.493154621076813</v>
       </c>
       <c r="G130">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="H130">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2017 - (okt 2021 - sep 2023)</t>
+          <t>2017 - (sep 2021 - aug 2023)</t>
         </is>
       </c>
       <c r="J130" s="2">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="K130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -18140,10 +19087,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.018922636989477</v>
+        <v>1.017786847486633</v>
       </c>
       <c r="B131">
-        <v>1.892263698947705</v>
+        <v>1.778684748663317</v>
       </c>
       <c r="C131">
         <v>15</v>
@@ -18152,27 +19099,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E131">
-        <v>10.31455719476461</v>
+        <v>10.28660463816255</v>
       </c>
       <c r="F131">
-        <v>3.477086155106946</v>
+        <v>3.467663215689806</v>
       </c>
       <c r="G131">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="H131">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2017 - (nov 2021 - okt 2023)</t>
+          <t>2017 - (okt 2021 - sep 2023)</t>
         </is>
       </c>
       <c r="J131" s="2">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="K131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -18185,10 +19132,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>1.019725567160537</v>
+        <v>1.018922636989477</v>
       </c>
       <c r="B132">
-        <v>1.972556716053742</v>
+        <v>1.892263698947705</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -18197,27 +19144,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E132">
-        <v>10.34918219583577</v>
+        <v>10.31455719476461</v>
       </c>
       <c r="F132">
-        <v>3.488758407203836</v>
+        <v>3.477086155106946</v>
       </c>
       <c r="G132">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="H132">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2017 - (des 2021 - nov 2023)</t>
+          <t>2017 - (nov 2021 - okt 2023)</t>
         </is>
       </c>
       <c r="J132" s="2">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="K132">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -18230,10 +19177,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.021566083465694</v>
+        <v>1.019725567160537</v>
       </c>
       <c r="B133">
-        <v>2.156608346569366</v>
+        <v>1.972556716053742</v>
       </c>
       <c r="C133">
         <v>15</v>
@@ -18242,27 +19189,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E133">
-        <v>10.37235129937916</v>
+        <v>10.34918219583577</v>
       </c>
       <c r="F133">
-        <v>3.496568821905675</v>
+        <v>3.488758407203836</v>
       </c>
       <c r="G133">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="H133">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2017 - (jan 2022 - des 2023)</t>
+          <t>2017 - (des 2021 - nov 2023)</t>
         </is>
       </c>
       <c r="J133" s="2">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="K133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L133">
         <v>2023</v>
@@ -18275,10 +19222,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.024536014402771</v>
+        <v>1.021566083465694</v>
       </c>
       <c r="B134">
-        <v>2.453601440277065</v>
+        <v>2.156608346569366</v>
       </c>
       <c r="C134">
         <v>15</v>
@@ -18287,30 +19234,30 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E134">
-        <v>10.41805483619126</v>
+        <v>10.37235129937916</v>
       </c>
       <c r="F134">
-        <v>3.511975700949348</v>
+        <v>3.496568821905675</v>
       </c>
       <c r="G134">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2017 - (feb 2022 - jan 2024)</t>
+          <t>2017 - (jan 2022 - des 2023)</t>
         </is>
       </c>
       <c r="J134" s="2">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L134">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -18320,10 +19267,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.027377233660252</v>
+        <v>1.024536014402771</v>
       </c>
       <c r="B135">
-        <v>2.737723366025224</v>
+        <v>2.453601440277065</v>
       </c>
       <c r="C135">
         <v>15</v>
@@ -18332,27 +19279,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E135">
-        <v>10.47261817885834</v>
+        <v>10.41805483619126</v>
       </c>
       <c r="F135">
-        <v>3.530369262571205</v>
+        <v>3.511975700949348</v>
       </c>
       <c r="G135">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="H135">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2017 - (mar 2022 - feb 2024)</t>
+          <t>2017 - (feb 2022 - jan 2024)</t>
         </is>
       </c>
       <c r="J135" s="2">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>2024</v>
@@ -18365,10 +19312,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.025492093258632</v>
+        <v>1.027377233660252</v>
       </c>
       <c r="B136">
-        <v>2.549209325863244</v>
+        <v>2.737723366025224</v>
       </c>
       <c r="C136">
         <v>15</v>
@@ -18377,27 +19324,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E136">
-        <v>10.46375164967549</v>
+        <v>10.47261817885834</v>
       </c>
       <c r="F136">
-        <v>3.527380313527305</v>
+        <v>3.530369262571205</v>
       </c>
       <c r="G136">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="H136">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2017 - (apr 2022 - mar 2024)</t>
+          <t>2017 - (mar 2022 - feb 2024)</t>
         </is>
       </c>
       <c r="J136" s="2">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L136">
         <v>2024</v>
@@ -18410,10 +19357,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.031143264549543</v>
+        <v>1.025492093258632</v>
       </c>
       <c r="B137">
-        <v>3.11432645495433</v>
+        <v>2.549209325863244</v>
       </c>
       <c r="C137">
         <v>15</v>
@@ -18422,27 +19369,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E137">
-        <v>10.48683427815183</v>
+        <v>10.46375164967549</v>
       </c>
       <c r="F137">
-        <v>3.535161577073866</v>
+        <v>3.527380313527305</v>
       </c>
       <c r="G137">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="H137">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2017 - (mai 2022 - apr 2024)</t>
+          <t>2017 - (apr 2022 - mar 2024)</t>
         </is>
       </c>
       <c r="J137" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="K137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>2024</v>
@@ -18455,10 +19402,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.031962587245835</v>
+        <v>1.031143264549543</v>
       </c>
       <c r="B138">
-        <v>3.196258724583489</v>
+        <v>3.11432645495433</v>
       </c>
       <c r="C138">
         <v>15</v>
@@ -18467,27 +19414,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E138">
-        <v>10.50243192516726</v>
+        <v>10.48683427815183</v>
       </c>
       <c r="F138">
-        <v>3.540419617866653</v>
+        <v>3.535161577073866</v>
       </c>
       <c r="G138">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="H138">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2017 - (jun 2022 - mai 2024)</t>
+          <t>2017 - (mai 2022 - apr 2024)</t>
         </is>
       </c>
       <c r="J138" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="K138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L138">
         <v>2024</v>
@@ -18500,10 +19447,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.033504698878722</v>
+        <v>1.031962587245835</v>
       </c>
       <c r="B139">
-        <v>3.350469887872198</v>
+        <v>3.196258724583489</v>
       </c>
       <c r="C139">
         <v>15</v>
@@ -18512,27 +19459,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E139">
-        <v>10.46908303031341</v>
+        <v>10.50243192516726</v>
       </c>
       <c r="F139">
-        <v>3.529177547228536</v>
+        <v>3.540419617866653</v>
       </c>
       <c r="G139">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="H139">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2017 - (jul 2022 - jun 2024)</t>
+          <t>2017 - (jun 2022 - mai 2024)</t>
         </is>
       </c>
       <c r="J139" s="2">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L139">
         <v>2024</v>
@@ -18545,10 +19492,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.036761954355273</v>
+        <v>1.033504698878722</v>
       </c>
       <c r="B140">
-        <v>3.676195435527285</v>
+        <v>3.350469887872198</v>
       </c>
       <c r="C140">
         <v>15</v>
@@ -18557,27 +19504,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E140">
-        <v>10.45701370994728</v>
+        <v>10.46908303031341</v>
       </c>
       <c r="F140">
-        <v>3.525108922085042</v>
+        <v>3.529177547228536</v>
       </c>
       <c r="G140">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="H140">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2017 - (aug 2022 - jul 2024)</t>
+          <t>2017 - (jul 2022 - jun 2024)</t>
         </is>
       </c>
       <c r="J140" s="2">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L140">
         <v>2024</v>
@@ -18590,10 +19537,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.038713423771024</v>
+        <v>1.036761954355273</v>
       </c>
       <c r="B141">
-        <v>3.871342377102382</v>
+        <v>3.676195435527285</v>
       </c>
       <c r="C141">
         <v>15</v>
@@ -18602,27 +19549,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E141">
-        <v>10.43468414362446</v>
+        <v>10.45701370994728</v>
       </c>
       <c r="F141">
-        <v>3.517581519362412</v>
+        <v>3.525108922085042</v>
       </c>
       <c r="G141">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="H141">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2017 - (sep 2022 - aug 2024)</t>
+          <t>2017 - (aug 2022 - jul 2024)</t>
         </is>
       </c>
       <c r="J141" s="2">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="K141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L141">
         <v>2024</v>
@@ -18635,10 +19582,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.039673448975552</v>
+        <v>1.038713423771024</v>
       </c>
       <c r="B142">
-        <v>3.967344897555236</v>
+        <v>3.871342377102382</v>
       </c>
       <c r="C142">
         <v>15</v>
@@ -18647,27 +19594,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E142">
-        <v>10.40809044468004</v>
+        <v>10.43468414362446</v>
       </c>
       <c r="F142">
-        <v>3.508616657307094</v>
+        <v>3.517581519362412</v>
       </c>
       <c r="G142">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="H142">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2017 - (okt 2022 - sep 2024)</t>
+          <t>2017 - (sep 2022 - aug 2024)</t>
         </is>
       </c>
       <c r="J142" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L142">
         <v>2024</v>
@@ -18680,10 +19627,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.042494177576495</v>
+        <v>1.039673448975552</v>
       </c>
       <c r="B143">
-        <v>4.249417757649487</v>
+        <v>3.967344897555236</v>
       </c>
       <c r="C143">
         <v>15</v>
@@ -18692,27 +19639,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E143">
-        <v>10.41780183975666</v>
+        <v>10.40809044468004</v>
       </c>
       <c r="F143">
-        <v>3.511890414651213</v>
+        <v>3.508616657307094</v>
       </c>
       <c r="G143">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="H143">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2017 - (nov 2022 - okt 2024)</t>
+          <t>2017 - (okt 2022 - sep 2024)</t>
         </is>
       </c>
       <c r="J143" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="K143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L143">
         <v>2024</v>
@@ -18725,10 +19672,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.043846712690732</v>
+        <v>1.042494177576495</v>
       </c>
       <c r="B144">
-        <v>4.384671269073248</v>
+        <v>4.249417757649487</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -18737,27 +19684,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E144">
-        <v>10.37140757196835</v>
+        <v>10.41780183975666</v>
       </c>
       <c r="F144">
-        <v>3.496250686919135</v>
+        <v>3.511890414651213</v>
       </c>
       <c r="G144">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="H144">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2017 - (des 2022 - nov 2024)</t>
+          <t>2017 - (nov 2022 - okt 2024)</t>
         </is>
       </c>
       <c r="J144" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="K144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L144">
         <v>2024</v>
@@ -18770,10 +19717,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.045028795899091</v>
+        <v>1.043846712690732</v>
       </c>
       <c r="B145">
-        <v>4.502879589909137</v>
+        <v>4.384671269073248</v>
       </c>
       <c r="C145">
         <v>15</v>
@@ -18782,27 +19729,27 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E145">
-        <v>10.36030352256581</v>
+        <v>10.37140757196835</v>
       </c>
       <c r="F145">
-        <v>3.492507459196011</v>
+        <v>3.496250686919135</v>
       </c>
       <c r="G145">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="H145">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2017 - (jan 2023 - des 2024)</t>
+          <t>2017 - (des 2022 - nov 2024)</t>
         </is>
       </c>
       <c r="J145" s="2">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="K145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L145">
         <v>2024</v>
@@ -18815,10 +19762,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.045386547584004</v>
+        <v>1.045028795899091</v>
       </c>
       <c r="B146">
-        <v>4.538654758400429</v>
+        <v>4.502879589909137</v>
       </c>
       <c r="C146">
         <v>15</v>
@@ -18827,30 +19774,30 @@
         <v>8.799748768564134</v>
       </c>
       <c r="E146">
-        <v>10.33202509827723</v>
+        <v>10.36030352256581</v>
       </c>
       <c r="F146">
-        <v>3.482974668236069</v>
+        <v>3.492507459196011</v>
       </c>
       <c r="G146">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="H146">
         <v>12</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2017 - (feb 2023 - jan 2025)</t>
+          <t>2017 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J146" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L146">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -18860,39 +19807,39 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>1.050395283633821</v>
+        <v>1.045386547584004</v>
       </c>
       <c r="B147">
-        <v>5.039528363382129</v>
+        <v>4.538654758400429</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>8.099360170069106</v>
+        <v>8.799748768564134</v>
       </c>
       <c r="E147">
-        <v>10.45623426761736</v>
+        <v>10.33202509827723</v>
       </c>
       <c r="F147">
-        <v>3.674091339579324</v>
+        <v>3.482974668236069</v>
       </c>
       <c r="G147">
         <v>-2.9</v>
       </c>
       <c r="H147">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2017 - (mar 2023 - feb 2025)</t>
+          <t>2017 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J147" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L147">
         <v>2025</v>
@@ -18905,10 +19852,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.051595691828511</v>
+        <v>1.050395283633821</v>
       </c>
       <c r="B148">
-        <v>5.159569182851098</v>
+        <v>5.039528363382129</v>
       </c>
       <c r="C148">
         <v>14</v>
@@ -18917,27 +19864,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E148">
-        <v>10.43315133368398</v>
+        <v>10.45623426761736</v>
       </c>
       <c r="F148">
-        <v>3.665980502973512</v>
+        <v>3.674091339579324</v>
       </c>
       <c r="G148">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H148">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2017 - (apr 2023 - mar 2025)</t>
+          <t>2017 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J148" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L148">
         <v>2025</v>
@@ -18950,10 +19897,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.055101152791925</v>
+        <v>1.051595691828511</v>
       </c>
       <c r="B149">
-        <v>5.51011527919254</v>
+        <v>5.159569182851098</v>
       </c>
       <c r="C149">
         <v>14</v>
@@ -18962,27 +19909,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E149">
-        <v>10.42440001110271</v>
+        <v>10.43315133368398</v>
       </c>
       <c r="F149">
-        <v>3.662905480199274</v>
+        <v>3.665980502973512</v>
       </c>
       <c r="G149">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="H149">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2017 - (mai 2023 - apr 2025)</t>
+          <t>2017 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J149" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <v>2025</v>
@@ -18995,10 +19942,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.057483873380077</v>
+        <v>1.055101152791925</v>
       </c>
       <c r="B150">
-        <v>5.74838733800771</v>
+        <v>5.51011527919254</v>
       </c>
       <c r="C150">
         <v>14</v>
@@ -19007,27 +19954,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E150">
-        <v>10.41958002907396</v>
+        <v>10.42440001110271</v>
       </c>
       <c r="F150">
-        <v>3.661211844252001</v>
+        <v>3.662905480199274</v>
       </c>
       <c r="G150">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="H150">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2017 - (jun 2023 - mai 2025)</t>
+          <t>2017 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J150" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L150">
         <v>2025</v>
@@ -19040,10 +19987,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.056605666531134</v>
+        <v>1.057483873380077</v>
       </c>
       <c r="B151">
-        <v>5.660566653113386</v>
+        <v>5.74838733800771</v>
       </c>
       <c r="C151">
         <v>14</v>
@@ -19052,27 +19999,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E151">
-        <v>10.35637533698069</v>
+        <v>10.41958002907396</v>
       </c>
       <c r="F151">
-        <v>3.639003101993818</v>
+        <v>3.661211844252001</v>
       </c>
       <c r="G151">
         <v>-2.2</v>
       </c>
       <c r="H151">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2017 - (jul 2023 - jun 2025)</t>
+          <t>2017 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J151" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L151">
         <v>2025</v>
@@ -19085,10 +20032,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.058978138169918</v>
+        <v>1.056605666531134</v>
       </c>
       <c r="B152">
-        <v>5.897813816991815</v>
+        <v>5.660566653113386</v>
       </c>
       <c r="C152">
         <v>14</v>
@@ -19097,27 +20044,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E152">
-        <v>10.34495669959798</v>
+        <v>10.35637533698069</v>
       </c>
       <c r="F152">
-        <v>3.634990843312171</v>
+        <v>3.639003101993818</v>
       </c>
       <c r="G152">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="H152">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2017 - (aug 2023 - jul 2025)</t>
+          <t>2017 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J152" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L152">
         <v>2025</v>
@@ -19130,10 +20077,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.059516368151555</v>
+        <v>1.058978138169918</v>
       </c>
       <c r="B153">
-        <v>5.951636815155537</v>
+        <v>5.897813816991815</v>
       </c>
       <c r="C153">
         <v>14</v>
@@ -19142,27 +20089,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E153">
-        <v>10.30072361068758</v>
+        <v>10.34495669959798</v>
       </c>
       <c r="F153">
-        <v>3.619448306225769</v>
+        <v>3.634990843312171</v>
       </c>
       <c r="G153">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="H153">
         <v>13.8</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2017 - (sep 2023 - aug 2025)</t>
+          <t>2017 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J153" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K153">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L153">
         <v>2025</v>
@@ -19175,10 +20122,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.06130208743904</v>
+        <v>1.059516368151555</v>
       </c>
       <c r="B154">
-        <v>6.130208743903975</v>
+        <v>5.951636815155537</v>
       </c>
       <c r="C154">
         <v>14</v>
@@ -19187,27 +20134,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E154">
-        <v>10.23042158261661</v>
+        <v>10.30072361068758</v>
       </c>
       <c r="F154">
-        <v>3.594745715801763</v>
+        <v>3.619448306225769</v>
       </c>
       <c r="G154">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="H154">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2017 - (okt 2023 - sep 2025)</t>
+          <t>2017 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J154" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L154">
         <v>2025</v>
@@ -19220,10 +20167,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1.063712352078617</v>
+        <v>1.06130208743904</v>
       </c>
       <c r="B155">
-        <v>6.371235207861714</v>
+        <v>6.130208743903975</v>
       </c>
       <c r="C155">
         <v>14</v>
@@ -19232,27 +20179,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E155">
-        <v>10.14036322894965</v>
+        <v>10.23042158261661</v>
       </c>
       <c r="F155">
-        <v>3.563101185964735</v>
+        <v>3.594745715801763</v>
       </c>
       <c r="G155">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="H155">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2017 - (nov 2023 - okt 2025)</t>
+          <t>2017 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J155" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L155">
         <v>2025</v>
@@ -19265,132 +20212,132 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.9695390422596395</v>
+        <v>1.063712352078617</v>
       </c>
       <c r="B156">
-        <v>-3.046095774036051</v>
+        <v>6.371235207861714</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156">
-        <v>9.708715062397884</v>
+        <v>8.099360170069106</v>
       </c>
       <c r="E156">
-        <v>7.75848322084902</v>
+        <v>10.14036322894965</v>
       </c>
       <c r="F156">
-        <v>2.489980509089132</v>
+        <v>3.563101185964735</v>
       </c>
       <c r="G156">
-        <v>-8.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H156">
-        <v>2.3</v>
+        <v>14.1</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2017 - (jan 2018 - des 2020)</t>
+          <t>2017 - (nov 2023 - okt 2025)</t>
         </is>
       </c>
       <c r="J156" s="2">
-        <v>44166</v>
+        <v>45931</v>
       </c>
       <c r="K156">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L156">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.964170213515919</v>
+        <v>1.065089874929567</v>
       </c>
       <c r="B157">
-        <v>-3.582978648408097</v>
+        <v>6.508987492956675</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157">
-        <v>9.708715062397884</v>
+        <v>8.099360170069106</v>
       </c>
       <c r="E157">
-        <v>7.947888104862012</v>
+        <v>10.02709187757608</v>
       </c>
       <c r="F157">
-        <v>2.55076745108461</v>
+        <v>3.523300117965243</v>
       </c>
       <c r="G157">
-        <v>-9</v>
+        <v>-1.1</v>
       </c>
       <c r="H157">
-        <v>1.9</v>
+        <v>14.1</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2017 - (feb 2018 - jan 2021)</t>
+          <t>2017 - (des 2023 - nov 2025)</t>
         </is>
       </c>
       <c r="J157" s="2">
-        <v>44197</v>
+        <v>45962</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L157">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>36_months</t>
+          <t>24_months</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.9668451264966682</v>
+        <v>0.9695390422596395</v>
       </c>
       <c r="B158">
-        <v>-3.315487350333179</v>
+        <v>-3.046095774036051</v>
       </c>
       <c r="C158">
         <v>16</v>
       </c>
       <c r="D158">
-        <v>10.61030075346296</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E158">
-        <v>8.933560909445088</v>
+        <v>7.75848322084902</v>
       </c>
       <c r="F158">
-        <v>2.742589163057605</v>
+        <v>2.489980509089132</v>
       </c>
       <c r="G158">
-        <v>-9.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="H158">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2017 - (mar 2018 - feb 2021)</t>
+          <t>2017 - (jan 2018 - des 2020)</t>
         </is>
       </c>
       <c r="J158" s="2">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L158">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -19400,39 +20347,39 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.9658109335803406</v>
+        <v>0.964170213515919</v>
       </c>
       <c r="B159">
-        <v>-3.418906641965935</v>
+        <v>-3.582978648408097</v>
       </c>
       <c r="C159">
         <v>16</v>
       </c>
       <c r="D159">
-        <v>10.61030075346296</v>
+        <v>9.708715062397884</v>
       </c>
       <c r="E159">
-        <v>9.151038802375378</v>
+        <v>7.947888104862012</v>
       </c>
       <c r="F159">
-        <v>2.809354534492484</v>
+        <v>2.55076745108461</v>
       </c>
       <c r="G159">
-        <v>-9.4</v>
+        <v>-9</v>
       </c>
       <c r="H159">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2017 - (apr 2018 - mar 2021)</t>
+          <t>2017 - (feb 2018 - jan 2021)</t>
         </is>
       </c>
       <c r="J159" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="K159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>2021</v>
@@ -19445,10 +20392,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.9614274620735274</v>
+        <v>0.9668451264966682</v>
       </c>
       <c r="B160">
-        <v>-3.857253792647264</v>
+        <v>-3.315487350333179</v>
       </c>
       <c r="C160">
         <v>16</v>
@@ -19457,27 +20404,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E160">
-        <v>9.443215231211056</v>
+        <v>8.933560909445088</v>
       </c>
       <c r="F160">
-        <v>2.899052239086226</v>
+        <v>2.742589163057605</v>
       </c>
       <c r="G160">
-        <v>-10</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H160">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2017 - (mai 2018 - apr 2021)</t>
+          <t>2017 - (mar 2018 - feb 2021)</t>
         </is>
       </c>
       <c r="J160" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L160">
         <v>2021</v>
@@ -19490,10 +20437,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.9587339766191373</v>
+        <v>0.9658109335803406</v>
       </c>
       <c r="B161">
-        <v>-4.126602338086272</v>
+        <v>-3.418906641965935</v>
       </c>
       <c r="C161">
         <v>16</v>
@@ -19502,27 +20449,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E161">
-        <v>9.685114668361569</v>
+        <v>9.151038802375378</v>
       </c>
       <c r="F161">
-        <v>2.973314986226318</v>
+        <v>2.809354534492484</v>
       </c>
       <c r="G161">
-        <v>-10.5</v>
+        <v>-9.4</v>
       </c>
       <c r="H161">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2017 - (jun 2018 - mai 2021)</t>
+          <t>2017 - (apr 2018 - mar 2021)</t>
         </is>
       </c>
       <c r="J161" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L161">
         <v>2021</v>
@@ -19535,10 +20482,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.9586068260005475</v>
+        <v>0.9614274620735274</v>
       </c>
       <c r="B162">
-        <v>-4.139317399945252</v>
+        <v>-3.857253792647264</v>
       </c>
       <c r="C162">
         <v>16</v>
@@ -19547,27 +20494,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E162">
-        <v>9.92251132949953</v>
+        <v>9.443215231211056</v>
       </c>
       <c r="F162">
-        <v>3.046195388205182</v>
+        <v>2.899052239086226</v>
       </c>
       <c r="G162">
-        <v>-10.6</v>
+        <v>-10</v>
       </c>
       <c r="H162">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2017 - (jul 2018 - jun 2021)</t>
+          <t>2017 - (mai 2018 - apr 2021)</t>
         </is>
       </c>
       <c r="J162" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="K162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L162">
         <v>2021</v>
@@ -19580,10 +20527,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.9597056883664568</v>
+        <v>0.9587339766191373</v>
       </c>
       <c r="B163">
-        <v>-4.029431163354324</v>
+        <v>-4.126602338086272</v>
       </c>
       <c r="C163">
         <v>16</v>
@@ -19592,27 +20539,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E163">
-        <v>10.11041915180964</v>
+        <v>9.685114668361569</v>
       </c>
       <c r="F163">
-        <v>3.103882794419271</v>
+        <v>2.973314986226318</v>
       </c>
       <c r="G163">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="H163">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2017 - (aug 2018 - jul 2021)</t>
+          <t>2017 - (jun 2018 - mai 2021)</t>
         </is>
       </c>
       <c r="J163" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="K163">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L163">
         <v>2021</v>
@@ -19625,10 +20572,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.9594248974170713</v>
+        <v>0.9586068260005475</v>
       </c>
       <c r="B164">
-        <v>-4.057510258292874</v>
+        <v>-4.139317399945252</v>
       </c>
       <c r="C164">
         <v>16</v>
@@ -19637,27 +20584,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E164">
-        <v>10.33560588287082</v>
+        <v>9.92251132949953</v>
       </c>
       <c r="F164">
-        <v>3.173014767048438</v>
+        <v>3.046195388205182</v>
       </c>
       <c r="G164">
-        <v>-10.8</v>
+        <v>-10.6</v>
       </c>
       <c r="H164">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2017 - (sep 2018 - aug 2021)</t>
+          <t>2017 - (jul 2018 - jun 2021)</t>
         </is>
       </c>
       <c r="J164" s="2">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="K164">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L164">
         <v>2021</v>
@@ -19670,10 +20617,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.9606463034950996</v>
+        <v>0.9597056883664568</v>
       </c>
       <c r="B165">
-        <v>-3.935369650490039</v>
+        <v>-4.029431163354324</v>
       </c>
       <c r="C165">
         <v>16</v>
@@ -19682,27 +20629,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E165">
-        <v>10.59949885526272</v>
+        <v>10.11041915180964</v>
       </c>
       <c r="F165">
-        <v>3.254029494952055</v>
+        <v>3.103882794419271</v>
       </c>
       <c r="G165">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2017 - (okt 2018 - sep 2021)</t>
+          <t>2017 - (aug 2018 - jul 2021)</t>
         </is>
       </c>
       <c r="J165" s="2">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="K165">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L165">
         <v>2021</v>
@@ -19715,10 +20662,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.9611248459047372</v>
+        <v>0.9594248974170713</v>
       </c>
       <c r="B166">
-        <v>-3.887515409526276</v>
+        <v>-4.057510258292874</v>
       </c>
       <c r="C166">
         <v>16</v>
@@ -19727,27 +20674,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E166">
-        <v>10.65877842195911</v>
+        <v>10.33560588287082</v>
       </c>
       <c r="F166">
-        <v>3.272228228789575</v>
+        <v>3.173014767048438</v>
       </c>
       <c r="G166">
-        <v>-10.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H166">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2017 - (nov 2018 - okt 2021)</t>
+          <t>2017 - (sep 2018 - aug 2021)</t>
         </is>
       </c>
       <c r="J166" s="2">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="K166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L166">
         <v>2021</v>
@@ -19760,10 +20707,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.9619371586881726</v>
+        <v>0.9606463034950996</v>
       </c>
       <c r="B167">
-        <v>-3.806284131182736</v>
+        <v>-3.935369650490039</v>
       </c>
       <c r="C167">
         <v>16</v>
@@ -19772,27 +20719,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E167">
-        <v>10.71181136295715</v>
+        <v>10.59949885526272</v>
       </c>
       <c r="F167">
-        <v>3.288509258352214</v>
+        <v>3.254029494952055</v>
       </c>
       <c r="G167">
-        <v>-10.8</v>
+        <v>-10.9</v>
       </c>
       <c r="H167">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2017 - (des 2018 - nov 2021)</t>
+          <t>2017 - (okt 2018 - sep 2021)</t>
         </is>
       </c>
       <c r="J167" s="2">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="K167">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L167">
         <v>2021</v>
@@ -19805,10 +20752,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.9619575442493054</v>
+        <v>0.9611248459047372</v>
       </c>
       <c r="B168">
-        <v>-3.804245575069465</v>
+        <v>-3.887515409526276</v>
       </c>
       <c r="C168">
         <v>16</v>
@@ -19817,27 +20764,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E168">
-        <v>10.76018114356986</v>
+        <v>10.65877842195911</v>
       </c>
       <c r="F168">
-        <v>3.303358705003171</v>
+        <v>3.272228228789575</v>
       </c>
       <c r="G168">
-        <v>-10.8</v>
+        <v>-10.9</v>
       </c>
       <c r="H168">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2017 - (jan 2019 - des 2021)</t>
+          <t>2017 - (nov 2018 - okt 2021)</t>
         </is>
       </c>
       <c r="J168" s="2">
-        <v>44531</v>
+        <v>44470</v>
       </c>
       <c r="K168">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L168">
         <v>2021</v>
@@ -19850,10 +20797,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.9597509512225307</v>
+        <v>0.9619371586881726</v>
       </c>
       <c r="B169">
-        <v>-4.024904877746927</v>
+        <v>-3.806284131182736</v>
       </c>
       <c r="C169">
         <v>16</v>
@@ -19862,30 +20809,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E169">
-        <v>10.83135758253204</v>
+        <v>10.71181136295715</v>
       </c>
       <c r="F169">
-        <v>3.325209759934282</v>
+        <v>3.288509258352214</v>
       </c>
       <c r="G169">
-        <v>-11.1</v>
+        <v>-10.8</v>
       </c>
       <c r="H169">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2017 - (feb 2019 - jan 2022)</t>
+          <t>2017 - (des 2018 - nov 2021)</t>
         </is>
       </c>
       <c r="J169" s="2">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L169">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -19895,10 +20842,10 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.9586360798566361</v>
+        <v>0.9619575442493054</v>
       </c>
       <c r="B170">
-        <v>-4.136392014336387</v>
+        <v>-3.804245575069465</v>
       </c>
       <c r="C170">
         <v>16</v>
@@ -19907,30 +20854,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E170">
-        <v>10.90990599884984</v>
+        <v>10.76018114356986</v>
       </c>
       <c r="F170">
-        <v>3.349324000330938</v>
+        <v>3.303358705003171</v>
       </c>
       <c r="G170">
-        <v>-11.3</v>
+        <v>-10.8</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2017 - (mar 2019 - feb 2022)</t>
+          <t>2017 - (jan 2019 - des 2021)</t>
         </is>
       </c>
       <c r="J170" s="2">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L170">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -19940,10 +20887,10 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.9597552701973471</v>
+        <v>0.9597509512225307</v>
       </c>
       <c r="B171">
-        <v>-4.024472980265292</v>
+        <v>-4.024904877746927</v>
       </c>
       <c r="C171">
         <v>16</v>
@@ -19952,27 +20899,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E171">
-        <v>10.99838924909</v>
+        <v>10.83135758253204</v>
       </c>
       <c r="F171">
-        <v>3.376488219132449</v>
+        <v>3.325209759934282</v>
       </c>
       <c r="G171">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="H171">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2017 - (apr 2019 - mar 2022)</t>
+          <t>2017 - (feb 2019 - jan 2022)</t>
         </is>
       </c>
       <c r="J171" s="2">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="K171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L171">
         <v>2022</v>
@@ -19985,10 +20932,10 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.9601004426646597</v>
+        <v>0.9586360798566361</v>
       </c>
       <c r="B172">
-        <v>-3.989955733534034</v>
+        <v>-4.136392014336387</v>
       </c>
       <c r="C172">
         <v>16</v>
@@ -19997,27 +20944,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E172">
-        <v>11.06620942778035</v>
+        <v>10.90990599884984</v>
       </c>
       <c r="F172">
-        <v>3.397308907433362</v>
+        <v>3.349324000330938</v>
       </c>
       <c r="G172">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H172">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2017 - (mai 2019 - apr 2022)</t>
+          <t>2017 - (mar 2019 - feb 2022)</t>
         </is>
       </c>
       <c r="J172" s="2">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L172">
         <v>2022</v>
@@ -20030,10 +20977,10 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.9609467313833162</v>
+        <v>0.9597552701973471</v>
       </c>
       <c r="B173">
-        <v>-3.905326861668379</v>
+        <v>-4.024472980265292</v>
       </c>
       <c r="C173">
         <v>16</v>
@@ -20042,27 +20989,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E173">
-        <v>11.14022536763792</v>
+        <v>10.99838924909</v>
       </c>
       <c r="F173">
-        <v>3.420031684678018</v>
+        <v>3.376488219132449</v>
       </c>
       <c r="G173">
         <v>-11.2</v>
       </c>
       <c r="H173">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2017 - (jun 2019 - mai 2022)</t>
+          <t>2017 - (apr 2019 - mar 2022)</t>
         </is>
       </c>
       <c r="J173" s="2">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="K173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L173">
         <v>2022</v>
@@ -20075,10 +21022,10 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.9620428871916739</v>
+        <v>0.9601004426646597</v>
       </c>
       <c r="B174">
-        <v>-3.795711280832614</v>
+        <v>-3.989955733534034</v>
       </c>
       <c r="C174">
         <v>16</v>
@@ -20087,27 +21034,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E174">
-        <v>11.21235954532746</v>
+        <v>11.06620942778035</v>
       </c>
       <c r="F174">
-        <v>3.44217676389366</v>
+        <v>3.397308907433362</v>
       </c>
       <c r="G174">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="H174">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2017 - (jul 2019 - jun 2022)</t>
+          <t>2017 - (mai 2019 - apr 2022)</t>
         </is>
       </c>
       <c r="J174" s="2">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="K174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L174">
         <v>2022</v>
@@ -20120,10 +21067,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.9610712906170161</v>
+        <v>0.9609467313833162</v>
       </c>
       <c r="B175">
-        <v>-3.892870938298387</v>
+        <v>-3.905326861668379</v>
       </c>
       <c r="C175">
         <v>16</v>
@@ -20132,27 +21079,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E175">
-        <v>11.24476515963723</v>
+        <v>11.14022536763792</v>
       </c>
       <c r="F175">
-        <v>3.452125236572034</v>
+        <v>3.420031684678018</v>
       </c>
       <c r="G175">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="H175">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2017 - (aug 2019 - jul 2022)</t>
+          <t>2017 - (jun 2019 - mai 2022)</t>
         </is>
       </c>
       <c r="J175" s="2">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="K175">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L175">
         <v>2022</v>
@@ -20165,10 +21112,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.961503879134609</v>
+        <v>0.9620428871916739</v>
       </c>
       <c r="B176">
-        <v>-3.8496120865391</v>
+        <v>-3.795711280832614</v>
       </c>
       <c r="C176">
         <v>16</v>
@@ -20177,27 +21124,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E176">
-        <v>11.3345691685895</v>
+        <v>11.21235954532746</v>
       </c>
       <c r="F176">
-        <v>3.479694926223023</v>
+        <v>3.44217676389366</v>
       </c>
       <c r="G176">
-        <v>-11.3</v>
+        <v>-11.1</v>
       </c>
       <c r="H176">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2017 - (sep 2019 - aug 2022)</t>
+          <t>2017 - (jul 2019 - jun 2022)</t>
         </is>
       </c>
       <c r="J176" s="2">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="K176">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L176">
         <v>2022</v>
@@ -20210,10 +21157,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.9621852406016166</v>
+        <v>0.9610712906170161</v>
       </c>
       <c r="B177">
-        <v>-3.781475939838341</v>
+        <v>-3.892870938298387</v>
       </c>
       <c r="C177">
         <v>16</v>
@@ -20222,27 +21169,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E177">
-        <v>11.42727625357157</v>
+        <v>11.24476515963723</v>
       </c>
       <c r="F177">
-        <v>3.508155855653938</v>
+        <v>3.452125236572034</v>
       </c>
       <c r="G177">
         <v>-11.3</v>
       </c>
       <c r="H177">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2017 - (okt 2019 - sep 2022)</t>
+          <t>2017 - (aug 2019 - jul 2022)</t>
         </is>
       </c>
       <c r="J177" s="2">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="K177">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L177">
         <v>2022</v>
@@ -20255,10 +21202,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.9612409399477974</v>
+        <v>0.961503879134609</v>
       </c>
       <c r="B178">
-        <v>-3.875906005220264</v>
+        <v>-3.8496120865391</v>
       </c>
       <c r="C178">
         <v>16</v>
@@ -20267,27 +21214,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E178">
-        <v>11.49167741751164</v>
+        <v>11.3345691685895</v>
       </c>
       <c r="F178">
-        <v>3.527926911798369</v>
+        <v>3.479694926223023</v>
       </c>
       <c r="G178">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H178">
         <v>3.6</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2017 - (nov 2019 - okt 2022)</t>
+          <t>2017 - (sep 2019 - aug 2022)</t>
         </is>
       </c>
       <c r="J178" s="2">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="K178">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L178">
         <v>2022</v>
@@ -20300,10 +21247,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.961564920645345</v>
+        <v>0.9621852406016166</v>
       </c>
       <c r="B179">
-        <v>-3.843507935465496</v>
+        <v>-3.781475939838341</v>
       </c>
       <c r="C179">
         <v>16</v>
@@ -20312,27 +21259,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E179">
-        <v>11.58847652593545</v>
+        <v>11.42727625357157</v>
       </c>
       <c r="F179">
-        <v>3.557644085996632</v>
+        <v>3.508155855653938</v>
       </c>
       <c r="G179">
-        <v>-11.4</v>
+        <v>-11.3</v>
       </c>
       <c r="H179">
         <v>3.7</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2017 - (des 2019 - nov 2022)</t>
+          <t>2017 - (okt 2019 - sep 2022)</t>
         </is>
       </c>
       <c r="J179" s="2">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="K179">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L179">
         <v>2022</v>
@@ -20345,10 +21292,10 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.9619521311342023</v>
+        <v>0.9612409399477974</v>
       </c>
       <c r="B180">
-        <v>-3.80478688657977</v>
+        <v>-3.875906005220264</v>
       </c>
       <c r="C180">
         <v>16</v>
@@ -20357,27 +21304,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E180">
-        <v>11.65790791680961</v>
+        <v>11.49167741751164</v>
       </c>
       <c r="F180">
-        <v>3.578959413906487</v>
+        <v>3.527926911798369</v>
       </c>
       <c r="G180">
         <v>-11.4</v>
       </c>
       <c r="H180">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2017 - (jan 2020 - des 2022)</t>
+          <t>2017 - (nov 2019 - okt 2022)</t>
         </is>
       </c>
       <c r="J180" s="2">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K180">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L180">
         <v>2022</v>
@@ -20390,10 +21337,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.9619918657025115</v>
+        <v>0.961564920645345</v>
       </c>
       <c r="B181">
-        <v>-3.800813429748851</v>
+        <v>-3.843507935465496</v>
       </c>
       <c r="C181">
         <v>16</v>
@@ -20402,30 +21349,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E181">
-        <v>11.75534847991465</v>
+        <v>11.58847652593545</v>
       </c>
       <c r="F181">
-        <v>3.608873513684053</v>
+        <v>3.557644085996632</v>
       </c>
       <c r="G181">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="H181">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2017 - (feb 2020 - jan 2023)</t>
+          <t>2017 - (des 2019 - nov 2022)</t>
         </is>
       </c>
       <c r="J181" s="2">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L181">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
@@ -20435,10 +21382,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.963162480636701</v>
+        <v>0.9619521311342023</v>
       </c>
       <c r="B182">
-        <v>-3.683751936329904</v>
+        <v>-3.80478688657977</v>
       </c>
       <c r="C182">
         <v>16</v>
@@ -20447,30 +21394,30 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E182">
-        <v>11.84587048289182</v>
+        <v>11.65790791680961</v>
       </c>
       <c r="F182">
-        <v>3.636663626372598</v>
+        <v>3.578959413906487</v>
       </c>
       <c r="G182">
         <v>-11.4</v>
       </c>
       <c r="H182">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2017 - (mar 2020 - feb 2023)</t>
+          <t>2017 - (jan 2020 - des 2022)</t>
         </is>
       </c>
       <c r="J182" s="2">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L182">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -20480,10 +21427,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.9703475271409718</v>
+        <v>0.9619918657025115</v>
       </c>
       <c r="B183">
-        <v>-2.965247285902817</v>
+        <v>-3.800813429748851</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -20492,27 +21439,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E183">
-        <v>11.94551815007545</v>
+        <v>11.75534847991465</v>
       </c>
       <c r="F183">
-        <v>3.667255303634558</v>
+        <v>3.608873513684053</v>
       </c>
       <c r="G183">
-        <v>-10.8</v>
+        <v>-11.5</v>
       </c>
       <c r="H183">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2017 - (apr 2020 - mar 2023)</t>
+          <t>2017 - (feb 2020 - jan 2023)</t>
         </is>
       </c>
       <c r="J183" s="2">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="K183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -20525,10 +21472,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.9759167587869967</v>
+        <v>0.963162480636701</v>
       </c>
       <c r="B184">
-        <v>-2.408324121300331</v>
+        <v>-3.683751936329904</v>
       </c>
       <c r="C184">
         <v>16</v>
@@ -20537,27 +21484,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E184">
-        <v>12.03760363176126</v>
+        <v>11.84587048289182</v>
       </c>
       <c r="F184">
-        <v>3.695525401830162</v>
+        <v>3.636663626372598</v>
       </c>
       <c r="G184">
-        <v>-10.3</v>
+        <v>-11.4</v>
       </c>
       <c r="H184">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2017 - (mai 2020 - apr 2023)</t>
+          <t>2017 - (mar 2020 - feb 2023)</t>
         </is>
       </c>
       <c r="J184" s="2">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="K184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -20570,10 +21517,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.9801733676068747</v>
+        <v>0.9703475271409718</v>
       </c>
       <c r="B185">
-        <v>-1.982663239312532</v>
+        <v>-2.965247285902817</v>
       </c>
       <c r="C185">
         <v>16</v>
@@ -20582,27 +21529,27 @@
         <v>10.61030075346296</v>
       </c>
       <c r="E185">
-        <v>12.07703541657093</v>
+        <v>11.94551815007545</v>
       </c>
       <c r="F185">
-        <v>3.707630897812699</v>
+        <v>3.667255303634558</v>
       </c>
       <c r="G185">
-        <v>-9.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H185">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2017 - (jun 2020 - mai 2023)</t>
+          <t>2017 - (apr 2020 - mar 2023)</t>
         </is>
       </c>
       <c r="J185" s="2">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="K185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -20615,39 +21562,39 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.9948209775732973</v>
+        <v>0.9759167587869967</v>
       </c>
       <c r="B186">
-        <v>-0.5179022426702651</v>
+        <v>-2.408324121300331</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E186">
-        <v>10.36586462349356</v>
+        <v>12.03760363176126</v>
       </c>
       <c r="F186">
-        <v>3.277757143017989</v>
+        <v>3.695525401830162</v>
       </c>
       <c r="G186">
-        <v>-7.5</v>
+        <v>-10.3</v>
       </c>
       <c r="H186">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2017 - (jul 2020 - jun 2023)</t>
+          <t>2017 - (mai 2020 - apr 2023)</t>
         </is>
       </c>
       <c r="J186" s="2">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="K186">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -20660,39 +21607,39 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.9942673816687044</v>
+        <v>0.9801733676068747</v>
       </c>
       <c r="B187">
-        <v>-0.5732618331295569</v>
+        <v>-1.982663239312532</v>
       </c>
       <c r="C187">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D187">
-        <v>10.00132454529489</v>
+        <v>10.61030075346296</v>
       </c>
       <c r="E187">
-        <v>10.4058698479928</v>
+        <v>12.07703541657093</v>
       </c>
       <c r="F187">
-        <v>3.290407068048189</v>
+        <v>3.707630897812699</v>
       </c>
       <c r="G187">
-        <v>-7.6</v>
+        <v>-9.9</v>
       </c>
       <c r="H187">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2017 - (aug 2020 - jul 2023)</t>
+          <t>2017 - (jun 2020 - mai 2023)</t>
         </is>
       </c>
       <c r="J187" s="2">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="K187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -20705,10 +21652,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.9966455747332787</v>
+        <v>0.9948209775732973</v>
       </c>
       <c r="B188">
-        <v>-0.335442526672125</v>
+        <v>-0.5179022426702651</v>
       </c>
       <c r="C188">
         <v>15</v>
@@ -20717,27 +21664,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E188">
-        <v>10.45633794562811</v>
+        <v>10.36586462349356</v>
       </c>
       <c r="F188">
-        <v>3.306365424975191</v>
+        <v>3.277757143017989</v>
       </c>
       <c r="G188">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="H188">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2017 - (sep 2020 - aug 2023)</t>
+          <t>2017 - (jul 2020 - jun 2023)</t>
         </is>
       </c>
       <c r="J188" s="2">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="K188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -20750,10 +21697,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.9979802962508248</v>
+        <v>0.9942673816687044</v>
       </c>
       <c r="B189">
-        <v>-0.201970374917515</v>
+        <v>-0.5732618331295569</v>
       </c>
       <c r="C189">
         <v>15</v>
@@ -20762,27 +21709,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E189">
-        <v>10.52614904089932</v>
+        <v>10.4058698479928</v>
       </c>
       <c r="F189">
-        <v>3.328440169774432</v>
+        <v>3.290407068048189</v>
       </c>
       <c r="G189">
-        <v>-7.3</v>
+        <v>-7.6</v>
       </c>
       <c r="H189">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2017 - (okt 2020 - sep 2023)</t>
+          <t>2017 - (aug 2020 - jul 2023)</t>
         </is>
       </c>
       <c r="J189" s="2">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="K189">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -20795,10 +21742,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.9992944146845429</v>
+        <v>0.9966455747332787</v>
       </c>
       <c r="B190">
-        <v>-0.07055853154570579</v>
+        <v>-0.335442526672125</v>
       </c>
       <c r="C190">
         <v>15</v>
@@ -20807,27 +21754,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E190">
-        <v>10.57452717267413</v>
+        <v>10.45633794562811</v>
       </c>
       <c r="F190">
-        <v>3.343737665231913</v>
+        <v>3.306365424975191</v>
       </c>
       <c r="G190">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="H190">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2017 - (nov 2020 - okt 2023)</t>
+          <t>2017 - (sep 2020 - aug 2023)</t>
         </is>
       </c>
       <c r="J190" s="2">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -20840,10 +21787,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.003053611556422</v>
+        <v>0.9979802962508248</v>
       </c>
       <c r="B191">
-        <v>0.305361155642192</v>
+        <v>-0.201970374917515</v>
       </c>
       <c r="C191">
         <v>15</v>
@@ -20852,27 +21799,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E191">
-        <v>10.72906739071991</v>
+        <v>10.52614904089932</v>
       </c>
       <c r="F191">
-        <v>3.39260433694544</v>
+        <v>3.328440169774432</v>
       </c>
       <c r="G191">
-        <v>-7</v>
+        <v>-7.3</v>
       </c>
       <c r="H191">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2017 - (des 2020 - nov 2023)</t>
+          <t>2017 - (okt 2020 - sep 2023)</t>
         </is>
       </c>
       <c r="J191" s="2">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="K191">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L191">
         <v>2023</v>
@@ -20885,10 +21832,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.00501036704832</v>
+        <v>0.9992944146845429</v>
       </c>
       <c r="B192">
-        <v>0.5010367048319697</v>
+        <v>-0.07055853154570579</v>
       </c>
       <c r="C192">
         <v>15</v>
@@ -20897,27 +21844,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E192">
-        <v>10.78659311361639</v>
+        <v>10.57452717267413</v>
       </c>
       <c r="F192">
-        <v>3.410794363149703</v>
+        <v>3.343737665231913</v>
       </c>
       <c r="G192">
-        <v>-6.8</v>
+        <v>-7.2</v>
       </c>
       <c r="H192">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2017 - (jan 2021 - des 2023)</t>
+          <t>2017 - (nov 2020 - okt 2023)</t>
         </is>
       </c>
       <c r="J192" s="2">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="K192">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L192">
         <v>2023</v>
@@ -20930,10 +21877,10 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>1.00996812592723</v>
+        <v>1.003053611556422</v>
       </c>
       <c r="B193">
-        <v>0.9968125927229732</v>
+        <v>0.305361155642192</v>
       </c>
       <c r="C193">
         <v>15</v>
@@ -20942,30 +21889,30 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E193">
-        <v>10.85468873657609</v>
+        <v>10.72906739071991</v>
       </c>
       <c r="F193">
-        <v>3.43232666389561</v>
+        <v>3.39260433694544</v>
       </c>
       <c r="G193">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="H193">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2017 - (feb 2021 - jan 2024)</t>
+          <t>2017 - (des 2020 - nov 2023)</t>
         </is>
       </c>
       <c r="J193" s="2">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L193">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
@@ -20975,10 +21922,10 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.012465578001672</v>
+        <v>1.00501036704832</v>
       </c>
       <c r="B194">
-        <v>1.246557800167181</v>
+        <v>0.5010367048319697</v>
       </c>
       <c r="C194">
         <v>15</v>
@@ -20987,30 +21934,30 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E194">
-        <v>10.90421635132052</v>
+        <v>10.78659311361639</v>
       </c>
       <c r="F194">
-        <v>3.447987633713532</v>
+        <v>3.410794363149703</v>
       </c>
       <c r="G194">
-        <v>-6.1</v>
+        <v>-6.8</v>
       </c>
       <c r="H194">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2017 - (mar 2021 - feb 2024)</t>
+          <t>2017 - (jan 2021 - des 2023)</t>
         </is>
       </c>
       <c r="J194" s="2">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L194">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
@@ -21020,10 +21967,10 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.014038578662618</v>
+        <v>1.00996812592723</v>
       </c>
       <c r="B195">
-        <v>1.403857866261848</v>
+        <v>0.9968125927229732</v>
       </c>
       <c r="C195">
         <v>15</v>
@@ -21032,27 +21979,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E195">
-        <v>10.94918801049247</v>
+        <v>10.85468873657609</v>
       </c>
       <c r="F195">
-        <v>3.462207979284143</v>
+        <v>3.43232666389561</v>
       </c>
       <c r="G195">
-        <v>-6</v>
+        <v>-6.4</v>
       </c>
       <c r="H195">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2017 - (apr 2021 - mar 2024)</t>
+          <t>2017 - (feb 2021 - jan 2024)</t>
         </is>
       </c>
       <c r="J195" s="2">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195">
         <v>2024</v>
@@ -21065,10 +22012,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.020061367677722</v>
+        <v>1.012465578001672</v>
       </c>
       <c r="B196">
-        <v>2.006136767772171</v>
+        <v>1.246557800167181</v>
       </c>
       <c r="C196">
         <v>15</v>
@@ -21077,27 +22024,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E196">
-        <v>10.99856732151766</v>
+        <v>10.90421635132052</v>
       </c>
       <c r="F196">
-        <v>3.477822054453839</v>
+        <v>3.447987633713532</v>
       </c>
       <c r="G196">
-        <v>-5.5</v>
+        <v>-6.1</v>
       </c>
       <c r="H196">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2017 - (mai 2021 - apr 2024)</t>
+          <t>2017 - (mar 2021 - feb 2024)</t>
         </is>
       </c>
       <c r="J196" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L196">
         <v>2024</v>
@@ -21110,10 +22057,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>1.02409103227904</v>
+        <v>1.014038578662618</v>
       </c>
       <c r="B197">
-        <v>2.409103227903975</v>
+        <v>1.403857866261848</v>
       </c>
       <c r="C197">
         <v>15</v>
@@ -21122,27 +22069,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E197">
-        <v>11.06281001372117</v>
+        <v>10.94918801049247</v>
       </c>
       <c r="F197">
-        <v>3.498136032197624</v>
+        <v>3.462207979284143</v>
       </c>
       <c r="G197">
-        <v>-5.1</v>
+        <v>-6</v>
       </c>
       <c r="H197">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2017 - (jun 2021 - mai 2024)</t>
+          <t>2017 - (apr 2021 - mar 2024)</t>
         </is>
       </c>
       <c r="J197" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>2024</v>
@@ -21155,10 +22102,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.025176128027309</v>
+        <v>1.020061367677722</v>
       </c>
       <c r="B198">
-        <v>2.517612802730884</v>
+        <v>2.006136767772171</v>
       </c>
       <c r="C198">
         <v>15</v>
@@ -21167,27 +22114,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E198">
-        <v>11.0898647519569</v>
+        <v>10.99856732151766</v>
       </c>
       <c r="F198">
-        <v>3.506690925081685</v>
+        <v>3.477822054453839</v>
       </c>
       <c r="G198">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="H198">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2017 - (jul 2021 - jun 2024)</t>
+          <t>2017 - (mai 2021 - apr 2024)</t>
         </is>
       </c>
       <c r="J198" s="2">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="K198">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L198">
         <v>2024</v>
@@ -21200,10 +22147,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>1.025594699083975</v>
+        <v>1.02409103227904</v>
       </c>
       <c r="B199">
-        <v>2.55946990839746</v>
+        <v>2.409103227903975</v>
       </c>
       <c r="C199">
         <v>15</v>
@@ -21212,27 +22159,27 @@
         <v>10.00132454529489</v>
       </c>
       <c r="E199">
-        <v>11.08671218646669</v>
+        <v>11.06281001372117</v>
       </c>
       <c r="F199">
-        <v>3.505694062356801</v>
+        <v>3.498136032197624</v>
       </c>
       <c r="G199">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="H199">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2017 - (aug 2021 - jul 2024)</t>
+          <t>2017 - (jun 2021 - mai 2024)</t>
         </is>
       </c>
       <c r="J199" s="2">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="K199">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L199">
         <v>2024</v>
@@ -21245,39 +22192,39 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.02789696347985</v>
+        <v>1.025176128027309</v>
       </c>
       <c r="B200">
-        <v>2.789696347985027</v>
+        <v>2.517612802730884</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>9.588940799852368</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E200">
-        <v>9.928665999590711</v>
+        <v>11.0898647519569</v>
       </c>
       <c r="F200">
-        <v>3.206310539296221</v>
+        <v>3.506690925081685</v>
       </c>
       <c r="G200">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H200">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2017 - (sep 2021 - aug 2024)</t>
+          <t>2017 - (jul 2021 - jun 2024)</t>
         </is>
       </c>
       <c r="J200" s="2">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="K200">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L200">
         <v>2024</v>
@@ -21290,39 +22237,39 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>1.028551294671151</v>
+        <v>1.025594699083975</v>
       </c>
       <c r="B201">
-        <v>2.855129467115147</v>
+        <v>2.55946990839746</v>
       </c>
       <c r="C201">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D201">
-        <v>9.588940799852368</v>
+        <v>10.00132454529489</v>
       </c>
       <c r="E201">
-        <v>9.953030487966979</v>
+        <v>11.08671218646669</v>
       </c>
       <c r="F201">
-        <v>3.214178677459858</v>
+        <v>3.505694062356801</v>
       </c>
       <c r="G201">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H201">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2017 - (okt 2021 - sep 2024)</t>
+          <t>2017 - (aug 2021 - jul 2024)</t>
         </is>
       </c>
       <c r="J201" s="2">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="K201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L201">
         <v>2024</v>
@@ -21335,10 +22282,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>1.029945105495576</v>
+        <v>1.02789696347985</v>
       </c>
       <c r="B202">
-        <v>2.994510549557594</v>
+        <v>2.789696347985027</v>
       </c>
       <c r="C202">
         <v>16</v>
@@ -21347,27 +22294,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E202">
-        <v>9.960282292416442</v>
+        <v>9.928665999590711</v>
       </c>
       <c r="F202">
-        <v>3.216520536581334</v>
+        <v>3.206310539296221</v>
       </c>
       <c r="G202">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="H202">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2017 - (nov 2021 - okt 2024)</t>
+          <t>2017 - (sep 2021 - aug 2024)</t>
         </is>
       </c>
       <c r="J202" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="K202">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L202">
         <v>2024</v>
@@ -21380,10 +22327,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>1.030709342574809</v>
+        <v>1.028551294671151</v>
       </c>
       <c r="B203">
-        <v>3.070934257480884</v>
+        <v>2.855129467115147</v>
       </c>
       <c r="C203">
         <v>16</v>
@@ -21392,27 +22339,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E203">
-        <v>9.956547233511424</v>
+        <v>9.953030487966979</v>
       </c>
       <c r="F203">
-        <v>3.215314356543397</v>
+        <v>3.214178677459858</v>
       </c>
       <c r="G203">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="H203">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2017 - (des 2021 - nov 2024)</t>
+          <t>2017 - (okt 2021 - sep 2024)</t>
         </is>
       </c>
       <c r="J203" s="2">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="K203">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L203">
         <v>2024</v>
@@ -21425,10 +22372,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>1.032196576005914</v>
+        <v>1.029945105495576</v>
       </c>
       <c r="B204">
-        <v>3.219657600591397</v>
+        <v>2.994510549557594</v>
       </c>
       <c r="C204">
         <v>16</v>
@@ -21437,27 +22384,27 @@
         <v>9.588940799852368</v>
       </c>
       <c r="E204">
-        <v>9.983196319382209</v>
+        <v>9.960282292416442</v>
       </c>
       <c r="F204">
-        <v>3.223920270459086</v>
+        <v>3.216520536581334</v>
       </c>
       <c r="G204">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="H204">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2017 - (jan 2022 - des 2024)</t>
+          <t>2017 - (nov 2021 - okt 2024)</t>
         </is>
       </c>
       <c r="J204" s="2">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="K204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L204">
         <v>2024</v>
@@ -21470,42 +22417,42 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>1.039704193531284</v>
+        <v>1.030709342574809</v>
       </c>
       <c r="B205">
-        <v>3.970419353128429</v>
+        <v>3.070934257480884</v>
       </c>
       <c r="C205">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D205">
-        <v>8.874553462116815</v>
+        <v>9.588940799852368</v>
       </c>
       <c r="E205">
-        <v>10.04512645511289</v>
+        <v>9.956547233511424</v>
       </c>
       <c r="F205">
-        <v>3.371957974774543</v>
+        <v>3.215314356543397</v>
       </c>
       <c r="G205">
-        <v>-3.3</v>
+        <v>-3.8</v>
       </c>
       <c r="H205">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2017 - (feb 2022 - jan 2025)</t>
+          <t>2017 - (des 2021 - nov 2024)</t>
         </is>
       </c>
       <c r="J205" s="2">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L205">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -21515,42 +22462,42 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>1.042259593194298</v>
+        <v>1.032196576005914</v>
       </c>
       <c r="B206">
-        <v>4.225959319429751</v>
+        <v>3.219657600591397</v>
       </c>
       <c r="C206">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206">
-        <v>8.874553462116815</v>
+        <v>9.588940799852368</v>
       </c>
       <c r="E206">
-        <v>10.07389405577629</v>
+        <v>9.983196319382209</v>
       </c>
       <c r="F206">
-        <v>3.381614711392601</v>
+        <v>3.223920270459086</v>
       </c>
       <c r="G206">
-        <v>-3</v>
+        <v>-3.7</v>
       </c>
       <c r="H206">
-        <v>11.5</v>
+        <v>10.1</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2017 - (mar 2022 - feb 2025)</t>
+          <t>2017 - (jan 2022 - des 2024)</t>
         </is>
       </c>
       <c r="J206" s="2">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L206">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -21560,39 +22507,39 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>1.043095469446691</v>
+        <v>1.039704193531284</v>
       </c>
       <c r="B207">
-        <v>4.309546944669118</v>
+        <v>3.970419353128429</v>
       </c>
       <c r="C207">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D207">
-        <v>8.099360170069106</v>
+        <v>8.874553462116815</v>
       </c>
       <c r="E207">
-        <v>10.44788938512527</v>
+        <v>10.04512645511289</v>
       </c>
       <c r="F207">
-        <v>3.671159130936204</v>
+        <v>3.371957974774543</v>
       </c>
       <c r="G207">
-        <v>-3.6</v>
+        <v>-3.3</v>
       </c>
       <c r="H207">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2017 - (apr 2022 - mar 2025)</t>
+          <t>2017 - (feb 2022 - jan 2025)</t>
         </is>
       </c>
       <c r="J207" s="2">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>2025</v>
@@ -21605,39 +22552,39 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.045212518050453</v>
+        <v>1.042259593194298</v>
       </c>
       <c r="B208">
-        <v>4.521251805045257</v>
+        <v>4.225959319429751</v>
       </c>
       <c r="C208">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D208">
-        <v>8.099360170069106</v>
+        <v>8.874553462116815</v>
       </c>
       <c r="E208">
-        <v>10.44860058213459</v>
+        <v>10.07389405577629</v>
       </c>
       <c r="F208">
-        <v>3.671409029963501</v>
+        <v>3.381614711392601</v>
       </c>
       <c r="G208">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="H208">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2017 - (mai 2022 - apr 2025)</t>
+          <t>2017 - (mar 2022 - feb 2025)</t>
         </is>
       </c>
       <c r="J208" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L208">
         <v>2025</v>
@@ -21650,10 +22597,10 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>1.046430755146646</v>
+        <v>1.043095469446691</v>
       </c>
       <c r="B209">
-        <v>4.64307551466463</v>
+        <v>4.309546944669118</v>
       </c>
       <c r="C209">
         <v>14</v>
@@ -21662,27 +22609,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E209">
-        <v>10.43821363186825</v>
+        <v>10.44788938512527</v>
       </c>
       <c r="F209">
-        <v>3.667759283502062</v>
+        <v>3.671159130936204</v>
       </c>
       <c r="G209">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="H209">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2017 - (jun 2022 - mai 2025)</t>
+          <t>2017 - (apr 2022 - mar 2025)</t>
         </is>
       </c>
       <c r="J209" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L209">
         <v>2025</v>
@@ -21695,10 +22642,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>1.047519812776852</v>
+        <v>1.045212518050453</v>
       </c>
       <c r="B210">
-        <v>4.751981277685169</v>
+        <v>4.521251805045257</v>
       </c>
       <c r="C210">
         <v>14</v>
@@ -21707,27 +22654,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E210">
-        <v>10.40557674739005</v>
+        <v>10.44860058213459</v>
       </c>
       <c r="F210">
-        <v>3.656291398263153</v>
+        <v>3.671409029963501</v>
       </c>
       <c r="G210">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="H210">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2017 - (jul 2022 - jun 2025)</t>
+          <t>2017 - (mai 2022 - apr 2025)</t>
         </is>
       </c>
       <c r="J210" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="K210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L210">
         <v>2025</v>
@@ -21740,10 +22687,10 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>1.050454321852575</v>
+        <v>1.046430755146646</v>
       </c>
       <c r="B211">
-        <v>5.045432185257481</v>
+        <v>4.64307551466463</v>
       </c>
       <c r="C211">
         <v>14</v>
@@ -21752,27 +22699,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E211">
-        <v>10.39321486426171</v>
+        <v>10.43821363186825</v>
       </c>
       <c r="F211">
-        <v>3.651947703718799</v>
+        <v>3.667759283502062</v>
       </c>
       <c r="G211">
-        <v>-2.8</v>
+        <v>-3.3</v>
       </c>
       <c r="H211">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2017 - (aug 2022 - jul 2025)</t>
+          <t>2017 - (jun 2022 - mai 2025)</t>
         </is>
       </c>
       <c r="J211" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="K211">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L211">
         <v>2025</v>
@@ -21785,10 +22732,10 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>1.05182543911017</v>
+        <v>1.047519812776852</v>
       </c>
       <c r="B212">
-        <v>5.182543911016979</v>
+        <v>4.751981277685169</v>
       </c>
       <c r="C212">
         <v>14</v>
@@ -21797,27 +22744,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E212">
-        <v>10.36464297243693</v>
+        <v>10.40557674739005</v>
       </c>
       <c r="F212">
-        <v>3.641908167723137</v>
+        <v>3.656291398263153</v>
       </c>
       <c r="G212">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
       <c r="H212">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2017 - (sep 2022 - aug 2025)</t>
+          <t>2017 - (jul 2022 - jun 2025)</t>
         </is>
       </c>
       <c r="J212" s="2">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="K212">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L212">
         <v>2025</v>
@@ -21830,10 +22777,10 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>1.053365610652387</v>
+        <v>1.050454321852575</v>
       </c>
       <c r="B213">
-        <v>5.336561065238676</v>
+        <v>5.045432185257481</v>
       </c>
       <c r="C213">
         <v>14</v>
@@ -21842,27 +22789,27 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E213">
-        <v>10.30901943632614</v>
+        <v>10.39321486426171</v>
       </c>
       <c r="F213">
-        <v>3.622363277366734</v>
+        <v>3.651947703718799</v>
       </c>
       <c r="G213">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="H213">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2017 - (okt 2022 - sep 2025)</t>
+          <t>2017 - (aug 2022 - jul 2025)</t>
         </is>
       </c>
       <c r="J213" s="2">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="K213">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L213">
         <v>2025</v>
@@ -21875,10 +22822,10 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>1.055972687147791</v>
+        <v>1.05182543911017</v>
       </c>
       <c r="B214">
-        <v>5.597268714779058</v>
+        <v>5.182543911016979</v>
       </c>
       <c r="C214">
         <v>14</v>
@@ -21887,32 +22834,167 @@
         <v>8.099360170069106</v>
       </c>
       <c r="E214">
-        <v>10.26899988342133</v>
+        <v>10.36464297243693</v>
       </c>
       <c r="F214">
-        <v>3.608301284398887</v>
+        <v>3.641908167723137</v>
       </c>
       <c r="G214">
-        <v>-2.2</v>
+        <v>-2.7</v>
       </c>
       <c r="H214">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2017 - (nov 2022 - okt 2025)</t>
+          <t>2017 - (sep 2022 - aug 2025)</t>
         </is>
       </c>
       <c r="J214" s="2">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="K214">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L214">
         <v>2025</v>
       </c>
       <c r="M214" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>1.053365610652387</v>
+      </c>
+      <c r="B215">
+        <v>5.336561065238676</v>
+      </c>
+      <c r="C215">
+        <v>14</v>
+      </c>
+      <c r="D215">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E215">
+        <v>10.30901943632614</v>
+      </c>
+      <c r="F215">
+        <v>3.622363277366734</v>
+      </c>
+      <c r="G215">
+        <v>-2.5</v>
+      </c>
+      <c r="H215">
+        <v>13.2</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2017 - (okt 2022 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J215" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K215">
+        <v>9</v>
+      </c>
+      <c r="L215">
+        <v>2025</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>1.055972687147791</v>
+      </c>
+      <c r="B216">
+        <v>5.597268714779058</v>
+      </c>
+      <c r="C216">
+        <v>14</v>
+      </c>
+      <c r="D216">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E216">
+        <v>10.26899988342133</v>
+      </c>
+      <c r="F216">
+        <v>3.608301284398887</v>
+      </c>
+      <c r="G216">
+        <v>-2.2</v>
+      </c>
+      <c r="H216">
+        <v>13.4</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2017 - (nov 2022 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J216" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K216">
+        <v>10</v>
+      </c>
+      <c r="L216">
+        <v>2025</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>36_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>1.057303128887582</v>
+      </c>
+      <c r="B217">
+        <v>5.730312888758249</v>
+      </c>
+      <c r="C217">
+        <v>14</v>
+      </c>
+      <c r="D217">
+        <v>8.099360170069106</v>
+      </c>
+      <c r="E217">
+        <v>10.19667418556959</v>
+      </c>
+      <c r="F217">
+        <v>3.582887620807868</v>
+      </c>
+      <c r="G217">
+        <v>-2</v>
+      </c>
+      <c r="H217">
+        <v>13.5</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>2017 - (des 2022 - nov 2025)</t>
+        </is>
+      </c>
+      <c r="J217" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K217">
+        <v>11</v>
+      </c>
+      <c r="L217">
+        <v>2025</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>36_months</t>
         </is>
